--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_land.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_land.xlsx
@@ -48,7 +48,7 @@
     <t>MRI-ESM2-0</t>
   </si>
   <si>
-    <t>Topic</t>
+    <t>Realm / Topic</t>
   </si>
   <si>
     <t>Land Surface</t>

--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_land.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="834">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="843">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -174,6 +174,9 @@
     <t>cmip6.land.key_properties.name</t>
   </si>
   <si>
+    <t>Land Surface (HAL)</t>
+  </si>
+  <si>
     <t>1.1.1.2 *</t>
   </si>
   <si>
@@ -204,6 +207,9 @@
     <t>NOTE: Double click to expand if text is too long for cell</t>
   </si>
   <si>
+    <t>References: Yukimoto et al. 2011;Yukimoto et al. 2013</t>
+  </si>
+  <si>
     <t>1.1.1.4 *</t>
   </si>
   <si>
@@ -273,6 +279,9 @@
     <t>cmip6.land.key_properties.land_cover</t>
   </si>
   <si>
+    <t>Other: ice</t>
+  </si>
+  <si>
     <t>Bare soil</t>
   </si>
   <si>
@@ -645,6 +654,9 @@
     <t>cmip6.land.soil.soil_map.structure</t>
   </si>
   <si>
+    <t>It depends on the vegetation type(SiB).</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.2.1.3 </t>
   </si>
   <si>
@@ -879,6 +891,9 @@
     <t>cmip6.land.soil.hydrology.method</t>
   </si>
   <si>
+    <t>Explicit diffusion</t>
+  </si>
+  <si>
     <t>Bucket</t>
   </si>
   <si>
@@ -888,9 +903,6 @@
     <t>Choisnel</t>
   </si>
   <si>
-    <t>Explicit diffusion</t>
-  </si>
-  <si>
     <t>3.4.2</t>
   </si>
   <si>
@@ -924,6 +936,9 @@
     <t>cmip6.land.soil.hydrology.freezing.ice_storage_method</t>
   </si>
   <si>
+    <t>If the temperature is lower than the freezing point, the phase change occurs.</t>
+  </si>
+  <si>
     <t>3.4.2.3 *</t>
   </si>
   <si>
@@ -1197,6 +1212,9 @@
     <t>cmip6.land.snow.processes</t>
   </si>
   <si>
+    <t>Other: snow refreezing</t>
+  </si>
+  <si>
     <t>Snow interception</t>
   </si>
   <si>
@@ -1251,6 +1269,9 @@
     <t>cmip6.land.snow.snow_albedo.functions</t>
   </si>
   <si>
+    <t>Aerosol deposition</t>
+  </si>
+  <si>
     <t>Snow age</t>
   </si>
   <si>
@@ -1260,9 +1281,6 @@
     <t>Snow grain type</t>
   </si>
   <si>
-    <t>Aerosol deposition</t>
-  </si>
-  <si>
     <t>5.1.1</t>
   </si>
   <si>
@@ -1350,15 +1368,15 @@
     <t>cmip6.land.vegetation.vegetation_types</t>
   </si>
   <si>
+    <t>C3 grass</t>
+  </si>
+  <si>
     <t>Broadleaf tree</t>
   </si>
   <si>
     <t>Needleleaf tree</t>
   </si>
   <si>
-    <t>C3 grass</t>
-  </si>
-  <si>
     <t>C4 grass</t>
   </si>
   <si>
@@ -1422,12 +1440,12 @@
     <t>cmip6.land.vegetation.vegetation_time_variation</t>
   </si>
   <si>
+    <t>Prescribed (varying from files)</t>
+  </si>
+  <si>
     <t>Fixed (not varying)</t>
   </si>
   <si>
-    <t>Prescribed (varying from files)</t>
-  </si>
-  <si>
     <t>Dynamical (varying from simulation)</t>
   </si>
   <si>
@@ -1566,15 +1584,15 @@
     <t>cmip6.land.vegetation.stomatal_resistance</t>
   </si>
   <si>
+    <t>CO2</t>
+  </si>
+  <si>
     <t>Light</t>
   </si>
   <si>
     <t>Water availability</t>
   </si>
   <si>
-    <t>CO2</t>
-  </si>
-  <si>
     <t>O3</t>
   </si>
   <si>
@@ -1659,15 +1677,15 @@
     <t>cmip6.land.energy_balance.evaporation</t>
   </si>
   <si>
+    <t>Combined</t>
+  </si>
+  <si>
     <t>Alpha</t>
   </si>
   <si>
     <t>Beta</t>
   </si>
   <si>
-    <t>Combined</t>
-  </si>
-  <si>
     <t>Monteith potential evaporation</t>
   </si>
   <si>
@@ -1791,6 +1809,9 @@
     <t>cmip6.land.carbon_cycle.vegetation.carbon_pools</t>
   </si>
   <si>
+    <t>Leaf, sapwood, heartwood, and root</t>
+  </si>
+  <si>
     <t xml:space="preserve">7.2.1.3 </t>
   </si>
   <si>
@@ -1884,6 +1905,9 @@
     <t>cmip6.land.carbon_cycle.vegetation.allocation.allocation_bins</t>
   </si>
   <si>
+    <t>Other: leaves + stems and roots (leafy + woody)</t>
+  </si>
+  <si>
     <t>Leaves + stems + roots</t>
   </si>
   <si>
@@ -1908,15 +1932,15 @@
     <t>cmip6.land.carbon_cycle.vegetation.allocation.allocation_fractions</t>
   </si>
   <si>
+    <t>Function of plant allometry</t>
+  </si>
+  <si>
     <t>Fixed</t>
   </si>
   <si>
     <t>Function of vegetation type</t>
   </si>
   <si>
-    <t>Function of plant allometry</t>
-  </si>
-  <si>
     <t>Explicitly calculated</t>
   </si>
   <si>
@@ -2017,6 +2041,9 @@
   </si>
   <si>
     <t>cmip6.land.carbon_cycle.soil.carbon_pools</t>
+  </si>
+  <si>
+    <t>Above-ground litter pool, below-ground litter pool, intermidiate soil organic matter pool, and slow soil organic matter pool</t>
   </si>
   <si>
     <t xml:space="preserve">7.4.1.3 </t>
@@ -3187,20 +3214,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3211,10 +3238,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>690</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3222,10 +3249,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>691</v>
+        <v>700</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3233,15 +3260,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>692</v>
+        <v>701</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>693</v>
+        <v>702</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3249,10 +3276,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>694</v>
+        <v>703</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3260,15 +3287,15 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>695</v>
+        <v>704</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -3276,21 +3303,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3298,10 +3325,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3309,15 +3336,15 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
       <c r="B24" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="24" customHeight="1">
@@ -3335,7 +3362,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD78"/>
+  <dimension ref="A1:XFD79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3349,20 +3376,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>703</v>
+        <v>712</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>704</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>705</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3373,10 +3400,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3384,10 +3411,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3395,15 +3422,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>710</v>
+        <v>719</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>711</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3411,10 +3438,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>712</v>
+        <v>721</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3422,15 +3449,15 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>713</v>
+        <v>722</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>714</v>
+        <v>723</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -3438,21 +3465,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>716</v>
+        <v>725</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>717</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3460,21 +3487,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>718</v>
+        <v>727</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>719</v>
+        <v>728</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>720</v>
+        <v>729</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>721</v>
+        <v>730</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3482,10 +3509,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>722</v>
+        <v>731</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>723</v>
+        <v>732</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3493,10 +3520,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3504,21 +3531,21 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3526,21 +3553,21 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>730</v>
+        <v>739</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>731</v>
+        <v>740</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>732</v>
+        <v>741</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>733</v>
+        <v>742</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3551,43 +3578,45 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>734</v>
+        <v>743</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>735</v>
+        <v>744</v>
       </c>
       <c r="AC37" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>736</v>
+        <v>745</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>738</v>
+        <v>747</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>739</v>
+        <v>748</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
-      <c r="B41" s="11"/>
+      <c r="B41" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>740</v>
+        <v>749</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>741</v>
+        <v>750</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3595,15 +3624,15 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="178" customHeight="1">
@@ -3611,21 +3640,21 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>745</v>
+        <v>754</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
       <c r="A49" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>747</v>
+        <v>756</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3636,55 +3665,57 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>750</v>
+        <v>759</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>751</v>
+        <v>760</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>752</v>
+        <v>761</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>753</v>
+        <v>762</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
-      <c r="B55" s="11"/>
+      <c r="B55" s="11" t="s">
+        <v>763</v>
+      </c>
       <c r="AA55" s="6" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>755</v>
+        <v>764</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>756</v>
+        <v>765</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>757</v>
+        <v>766</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3692,15 +3723,15 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>759</v>
+        <v>768</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
       <c r="B59" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="60" spans="1:30" ht="178" customHeight="1">
@@ -3708,10 +3739,10 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>760</v>
+        <v>769</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3719,15 +3750,15 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>761</v>
+        <v>770</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>762</v>
+        <v>771</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
       <c r="B64" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
@@ -3735,65 +3766,67 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>763</v>
+        <v>772</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>764</v>
+        <v>773</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>765</v>
+        <v>774</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>766</v>
+        <v>775</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>767</v>
+        <v>776</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>768</v>
+        <v>777</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
-      <c r="B73" s="11"/>
+      <c r="B73" s="11" t="s">
+        <v>779</v>
+      </c>
       <c r="AA73" s="6" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="AC73" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>773</v>
+        <v>782</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>775</v>
+        <v>784</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3802,22 +3835,41 @@
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="B78" s="11"/>
+      <c r="B78" s="11" t="s">
+        <v>757</v>
+      </c>
       <c r="AA78" s="6" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="AD78" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" ht="24" customHeight="1">
+      <c r="B79" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA79" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="AB79" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC79" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="AD79" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations count="10">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
@@ -3845,6 +3897,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
       <formula1>AA78:AD78</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
+      <formula1>AA79:AD79</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3852,7 +3907,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD67"/>
+  <dimension ref="A1:XFD68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3866,20 +3921,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3890,10 +3945,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3901,10 +3956,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -3912,15 +3967,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>783</v>
+        <v>792</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>784</v>
+        <v>793</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -3928,43 +3983,45 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>785</v>
+        <v>794</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>786</v>
+        <v>795</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>787</v>
+        <v>796</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
-      <c r="B15" s="11"/>
+      <c r="B15" s="11" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -3972,21 +4029,21 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>792</v>
+        <v>801</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>793</v>
+        <v>802</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -3995,260 +4052,287 @@
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>757</v>
+      </c>
       <c r="AA24" s="6" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" ht="24" customHeight="1">
-      <c r="A26" s="9" t="s">
-        <v>796</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>797</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" ht="24" customHeight="1">
+      <c r="B25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA25" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="AB25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC25" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
-      <c r="A27" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>798</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>799</v>
+      <c r="A27" s="9" t="s">
+        <v>805</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
-    </row>
-    <row r="30" spans="1:30" ht="24" customHeight="1">
-      <c r="A30" s="9" t="s">
-        <v>800</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>193</v>
-      </c>
+      <c r="A28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>807</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" ht="24" customHeight="1">
+      <c r="B29" s="11"/>
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
-      <c r="A31" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>801</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>802</v>
+      <c r="A31" s="9" t="s">
+        <v>809</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
-      <c r="B32" s="8" t="s">
-        <v>53</v>
+      <c r="A32" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>810</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
-    </row>
-    <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="A36" s="12" t="s">
-        <v>803</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>804</v>
-      </c>
+      <c r="B33" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="24" customHeight="1">
+      <c r="B34" s="11"/>
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
-      <c r="B37" s="13" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="24" customHeight="1">
-      <c r="A39" s="9" t="s">
-        <v>806</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>807</v>
+      <c r="A37" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="24" customHeight="1">
+      <c r="B38" s="13" t="s">
+        <v>814</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="A40" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>808</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>809</v>
+      <c r="A40" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
-      <c r="B41" s="11"/>
-    </row>
-    <row r="43" spans="1:29" ht="24" customHeight="1">
-      <c r="A43" s="9" t="s">
-        <v>810</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>215</v>
+      <c r="A41" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>817</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="24" customHeight="1">
+      <c r="B42" s="11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
-      <c r="A44" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="10" t="s">
-        <v>811</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>812</v>
+      <c r="A44" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
-      <c r="AA45" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB45" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC45" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>813</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>814</v>
+      <c r="A45" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>820</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="24" customHeight="1">
+      <c r="B46" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA46" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC46" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>815</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>816</v>
+      <c r="A48" s="9" t="s">
+        <v>822</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
+      <c r="A49" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="B49" s="10" t="s">
+        <v>824</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" ht="24" customHeight="1">
+      <c r="B50" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-      <c r="AA50" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="AB50" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="AC50" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="AD50" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:30" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>820</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>821</v>
+    <row r="51" spans="1:30" ht="24" customHeight="1">
+      <c r="B51" s="11"/>
+      <c r="AA51" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="AB51" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="AC51" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="AD51" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>822</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>823</v>
+      <c r="A53" s="9" t="s">
+        <v>829</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
-    </row>
-    <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
-        <v>824</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>825</v>
+      <c r="A54" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>831</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" ht="24" customHeight="1">
+      <c r="B55" s="11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
-      <c r="A57" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>826</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>827</v>
+      <c r="A57" s="9" t="s">
+        <v>833</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
-      <c r="B58" s="11"/>
-    </row>
-    <row r="61" spans="1:30" ht="24" customHeight="1">
-      <c r="A61" s="12" t="s">
-        <v>828</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>829</v>
+      <c r="A58" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>835</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="24" customHeight="1">
+      <c r="B59" s="11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
-      <c r="B62" s="13" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="64" spans="1:30" ht="24" customHeight="1">
-      <c r="A64" s="9" t="s">
-        <v>831</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>60</v>
+      <c r="A62" s="12" t="s">
+        <v>837</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="24" customHeight="1">
+      <c r="B63" s="13" t="s">
+        <v>839</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
-      <c r="A65" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>832</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>833</v>
+      <c r="A65" s="9" t="s">
+        <v>840</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="B66" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="178" customHeight="1">
-      <c r="B67" s="11"/>
+      <c r="A66" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>841</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="24" customHeight="1">
+      <c r="B67" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="178" customHeight="1">
+      <c r="B68" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
@@ -4258,19 +4342,22 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B24">
       <formula1>AA24:AD24</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25">
+      <formula1>AA25:AD25</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
-      <formula1>AA45:AC45</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
+      <formula1>AA46:AC46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>AA50:AD50</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
+      <formula1>AA51:AD51</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B58">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4377,7 +4464,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD105"/>
+  <dimension ref="A1:XFD107"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4422,14 +4509,16 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
-      <c r="B6" s="11"/>
+      <c r="B6" s="11" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -4437,15 +4526,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="24" customHeight="1">
@@ -4453,10 +4542,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -4464,26 +4553,28 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
-      <c r="B16" s="11"/>
+      <c r="B16" s="11" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="18" spans="1:32" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="24" customHeight="1">
@@ -4491,15 +4582,15 @@
         <v>46</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="24" customHeight="1">
       <c r="B20" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="178" customHeight="1">
@@ -4507,21 +4598,21 @@
     </row>
     <row r="23" spans="1:32" ht="24" customHeight="1">
       <c r="A23" s="9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:32" ht="24" customHeight="1">
       <c r="A24" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:32" ht="24" customHeight="1">
@@ -4532,30 +4623,30 @@
     <row r="26" spans="1:32" ht="24" customHeight="1">
       <c r="B26" s="11"/>
       <c r="AA26" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AB26" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AC26" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AE26" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AF26" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:32" ht="24" customHeight="1">
       <c r="A28" s="9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:32" ht="24" customHeight="1">
@@ -4563,10 +4654,10 @@
         <v>46</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:32" ht="24" customHeight="1">
@@ -4574,21 +4665,21 @@
     </row>
     <row r="32" spans="1:32" ht="24" customHeight="1">
       <c r="A32" s="9" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:33" ht="24" customHeight="1">
       <c r="A33" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:33" ht="24" customHeight="1">
@@ -4597,387 +4688,447 @@
       </c>
     </row>
     <row r="35" spans="1:33" ht="24" customHeight="1">
-      <c r="B35" s="11"/>
+      <c r="B35" s="11" t="s">
+        <v>84</v>
+      </c>
       <c r="AA35" s="6" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AD35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG35" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" ht="24" customHeight="1">
+      <c r="B36" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AE35" s="6" t="s">
+      <c r="AA36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB36" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AF35" s="6" t="s">
+      <c r="AC36" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AG35" s="6" t="s">
-        <v>73</v>
+      <c r="AD36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE36" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF36" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AG36" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
-      <c r="A37" s="9" t="s">
+      <c r="B37" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AD37" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="AE37" s="6" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="38" spans="1:33" ht="24" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="10" t="s">
+      <c r="AF37" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="AG37" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:33" ht="24" customHeight="1">
+      <c r="A39" s="9" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="39" spans="1:33" ht="24" customHeight="1">
-      <c r="B39" s="11"/>
+      <c r="B39" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" ht="24" customHeight="1">
+      <c r="A40" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="41" spans="1:33" ht="24" customHeight="1">
-      <c r="A41" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="42" spans="1:33" ht="24" customHeight="1">
-      <c r="A42" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="10" t="s">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="43" spans="1:33" ht="24" customHeight="1">
+      <c r="A43" s="9" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="43" spans="1:33" ht="24" customHeight="1">
-      <c r="B43" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:33" ht="178" customHeight="1">
-      <c r="B44" s="11"/>
-    </row>
-    <row r="47" spans="1:33" ht="24" customHeight="1">
-      <c r="A47" s="12" t="s">
+      <c r="B43" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="12" t="s">
+    </row>
+    <row r="44" spans="1:33" ht="24" customHeight="1">
+      <c r="A44" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="10" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="48" spans="1:33" ht="24" customHeight="1">
-      <c r="B48" s="13" t="s">
+      <c r="C44" s="10" t="s">
         <v>98</v>
       </c>
     </row>
+    <row r="45" spans="1:33" ht="24" customHeight="1">
+      <c r="B45" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:33" ht="178" customHeight="1">
+      <c r="B46" s="11"/>
+    </row>
+    <row r="49" spans="1:3" ht="24" customHeight="1">
+      <c r="A49" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
-      <c r="A50" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="24" customHeight="1">
-      <c r="A51" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51" s="10" t="s">
+      <c r="B50" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
-      <c r="B52" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="178" customHeight="1">
-      <c r="B53" s="11"/>
-    </row>
-    <row r="55" spans="1:3" ht="24" customHeight="1">
-      <c r="A55" s="9" t="s">
+      <c r="A52" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="24" customHeight="1">
-      <c r="A56" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B56" s="10" t="s">
+      <c r="B52" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="24" customHeight="1">
+      <c r="A53" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>104</v>
       </c>
     </row>
+    <row r="54" spans="1:3" ht="24" customHeight="1">
+      <c r="B54" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="178" customHeight="1">
+      <c r="B55" s="11"/>
+    </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
-      <c r="B57" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="178" customHeight="1">
-      <c r="B58" s="11"/>
-    </row>
-    <row r="60" spans="1:3" ht="24" customHeight="1">
-      <c r="A60" s="9" t="s">
+      <c r="A57" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B57" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="24" customHeight="1">
-      <c r="A61" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61" s="10" t="s">
+    <row r="58" spans="1:3" ht="24" customHeight="1">
+      <c r="A58" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>107</v>
       </c>
     </row>
+    <row r="59" spans="1:3" ht="24" customHeight="1">
+      <c r="B59" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="178" customHeight="1">
+      <c r="B60" s="11"/>
+    </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
-      <c r="B62" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="178" customHeight="1">
-      <c r="B63" s="11"/>
-    </row>
-    <row r="66" spans="1:3" ht="24" customHeight="1">
-      <c r="A66" s="12" t="s">
+      <c r="A62" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B62" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="24" customHeight="1">
+      <c r="A63" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="24" customHeight="1">
-      <c r="B67" s="13" t="s">
+      <c r="C63" s="10" t="s">
         <v>110</v>
       </c>
     </row>
+    <row r="64" spans="1:3" ht="24" customHeight="1">
+      <c r="B64" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="178" customHeight="1">
+      <c r="B65" s="11"/>
+    </row>
+    <row r="68" spans="1:3" ht="24" customHeight="1">
+      <c r="A68" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
-      <c r="A69" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="24" customHeight="1">
-      <c r="A70" s="14" t="s">
+      <c r="B69" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B70" s="10" t="s">
+    </row>
+    <row r="71" spans="1:3" ht="24" customHeight="1">
+      <c r="A71" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="B71" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
+    <row r="72" spans="1:3" ht="24" customHeight="1">
+      <c r="A72" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
-      <c r="A73" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="B73" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="24" customHeight="1">
-      <c r="A74" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="B74" s="10" t="s">
+      <c r="B73" s="11"/>
+    </row>
+    <row r="75" spans="1:3" ht="24" customHeight="1">
+      <c r="A75" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="B75" s="9" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="24" customHeight="1">
-      <c r="B75" s="11"/>
+    <row r="76" spans="1:3" ht="24" customHeight="1">
+      <c r="A76" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
-      <c r="A77" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="24" customHeight="1">
-      <c r="A78" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" s="10" t="s">
+      <c r="B77" s="11"/>
+    </row>
+    <row r="79" spans="1:3" ht="24" customHeight="1">
+      <c r="A79" s="9" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="24" customHeight="1">
-      <c r="B79" s="11"/>
-    </row>
-    <row r="82" spans="1:3" ht="24" customHeight="1">
-      <c r="A82" s="12" t="s">
+      <c r="B79" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B82" s="12" t="s">
+    </row>
+    <row r="80" spans="1:3" ht="24" customHeight="1">
+      <c r="A80" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="10" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="24" customHeight="1">
-      <c r="B83" s="13" t="s">
+      <c r="C80" s="10" t="s">
         <v>127</v>
       </c>
     </row>
+    <row r="81" spans="1:3" ht="24" customHeight="1">
+      <c r="B81" s="11"/>
+    </row>
+    <row r="84" spans="1:3" ht="24" customHeight="1">
+      <c r="A84" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
-      <c r="A85" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B85" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="24" customHeight="1">
-      <c r="A86" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B86" s="10" t="s">
+      <c r="B85" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="C86" s="10" t="s">
+    </row>
+    <row r="87" spans="1:3" ht="24" customHeight="1">
+      <c r="A87" s="9" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="24" customHeight="1">
-      <c r="B87" s="11"/>
+      <c r="B87" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="24" customHeight="1">
+      <c r="A88" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
-      <c r="A89" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B89" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="24" customHeight="1">
-      <c r="A90" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B90" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="C90" s="10" t="s">
+      <c r="B89" s="11"/>
+    </row>
+    <row r="91" spans="1:3" ht="24" customHeight="1">
+      <c r="A91" s="9" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="24" customHeight="1">
-      <c r="B91" s="11"/>
+      <c r="B91" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="24" customHeight="1">
+      <c r="A92" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
-      <c r="A93" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="24" customHeight="1">
-      <c r="A94" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B94" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="C94" s="10" t="s">
+      <c r="B93" s="11"/>
+    </row>
+    <row r="95" spans="1:3" ht="24" customHeight="1">
+      <c r="A95" s="9" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="24" customHeight="1">
-      <c r="B95" s="8" t="s">
-        <v>53</v>
+      <c r="B95" s="9" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
-      <c r="B96" s="11"/>
-    </row>
-    <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B99" s="12" t="s">
+      <c r="A96" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B96" s="10" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="13" t="s">
+      <c r="C96" s="10" t="s">
         <v>142</v>
       </c>
     </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="B97" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="24" customHeight="1">
+      <c r="B98" s="11"/>
+    </row>
+    <row r="101" spans="1:3" ht="24" customHeight="1">
+      <c r="A101" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
-      <c r="A102" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="24" customHeight="1">
-      <c r="A103" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B103" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="C103" s="10" t="s">
+      <c r="B102" s="13" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
-      <c r="B104" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="178" customHeight="1">
-      <c r="B105" s="11"/>
+      <c r="A104" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="A105" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="24" customHeight="1">
+      <c r="B106" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="178" customHeight="1">
+      <c r="B107" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26">
       <formula1>AA26:AF26</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
       <formula1>AA35:AG35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B36">
+      <formula1>AA36:AG36</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37">
+      <formula1>AA37:AG37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B75">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B77">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -5001,20 +5152,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5025,10 +5176,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5036,10 +5187,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -5047,15 +5198,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -5063,23 +5214,23 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
@@ -5087,15 +5238,15 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="B19" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="178" customHeight="1">
@@ -5103,21 +5254,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -5125,23 +5276,23 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -5149,15 +5300,15 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="B32" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="178" customHeight="1">
@@ -5165,21 +5316,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5214,20 +5365,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5238,10 +5389,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5249,10 +5400,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -5260,15 +5411,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -5276,10 +5427,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -5287,10 +5438,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -5298,21 +5449,21 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5320,10 +5471,10 @@
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
@@ -5331,15 +5482,15 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="B23" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -5347,23 +5498,23 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -5371,15 +5522,15 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
       <c r="B32" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="178" customHeight="1">
@@ -5387,10 +5538,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -5398,21 +5549,23 @@
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
-      <c r="B37" s="11"/>
+      <c r="B37" s="11" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -5420,21 +5573,23 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C40" s="10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24" customHeight="1">
+      <c r="B41" s="11" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="24" customHeight="1">
-      <c r="B41" s="11"/>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -5442,10 +5597,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -5453,10 +5608,10 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -5464,21 +5619,23 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
-      <c r="B49" s="11"/>
+      <c r="B49" s="11" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -5486,10 +5643,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -5497,21 +5654,21 @@
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -5519,10 +5676,10 @@
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -5530,10 +5687,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -5541,34 +5698,34 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -5576,21 +5733,21 @@
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -5601,66 +5758,66 @@
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AD74" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
       <c r="A77" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -5668,23 +5825,23 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -5692,15 +5849,15 @@
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="178" customHeight="1">
@@ -5708,21 +5865,21 @@
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -5730,10 +5887,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -5741,15 +5898,15 @@
         <v>46</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="B99" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="178" customHeight="1">
@@ -5757,10 +5914,10 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -5768,15 +5925,15 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="B104" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="178" customHeight="1">
@@ -5784,21 +5941,21 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -5806,21 +5963,21 @@
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
       <c r="A112" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:31" ht="24" customHeight="1">
@@ -5831,82 +5988,84 @@
     <row r="114" spans="1:31" ht="24" customHeight="1">
       <c r="B114" s="11"/>
       <c r="AA114" s="6" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AB114" s="6" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AC114" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="116" spans="1:31" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="1:31" ht="24" customHeight="1">
       <c r="A117" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="118" spans="1:31" ht="24" customHeight="1">
-      <c r="B118" s="11"/>
+      <c r="B118" s="11" t="s">
+        <v>288</v>
+      </c>
       <c r="AA118" s="6" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AB118" s="6" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AC118" s="6" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AD118" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AE118" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="121" spans="1:31" ht="24" customHeight="1">
       <c r="A121" s="12" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="122" spans="1:31" ht="24" customHeight="1">
       <c r="B122" s="13" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="124" spans="1:31" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:31" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="126" spans="1:31" ht="24" customHeight="1">
@@ -5914,10 +6073,10 @@
     </row>
     <row r="128" spans="1:31" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -5925,21 +6084,23 @@
         <v>46</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
-      <c r="B130" s="11"/>
+      <c r="B130" s="11" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
@@ -5947,15 +6108,15 @@
         <v>46</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="B134" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="178" customHeight="1">
@@ -5963,23 +6124,23 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="12" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="9" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B141" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
@@ -5987,15 +6148,15 @@
         <v>46</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
       <c r="B143" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="178" customHeight="1">
@@ -6003,21 +6164,21 @@
     </row>
     <row r="146" spans="1:33" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
       <c r="A147" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
@@ -6028,46 +6189,46 @@
     <row r="149" spans="1:33" ht="24" customHeight="1">
       <c r="B149" s="11"/>
       <c r="AA149" s="6" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="AB149" s="6" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="AC149" s="6" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="AD149" s="6" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AE149" s="6" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AF149" s="6" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AG149" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="12" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="153" spans="1:33" ht="24" customHeight="1">
       <c r="B153" s="13" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B155" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="156" spans="1:33" ht="24" customHeight="1">
@@ -6075,15 +6236,15 @@
         <v>46</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
     </row>
     <row r="157" spans="1:33" ht="24" customHeight="1">
       <c r="B157" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="158" spans="1:33" ht="178" customHeight="1">
@@ -6091,21 +6252,21 @@
     </row>
     <row r="160" spans="1:33" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161" spans="1:29" ht="24" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="1:29" ht="24" customHeight="1">
@@ -6113,10 +6274,10 @@
     </row>
     <row r="164" spans="1:29" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="165" spans="1:29" ht="24" customHeight="1">
@@ -6124,15 +6285,15 @@
         <v>46</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="24" customHeight="1">
       <c r="B166" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="167" spans="1:29" ht="178" customHeight="1">
@@ -6140,10 +6301,10 @@
     </row>
     <row r="169" spans="1:29" ht="24" customHeight="1">
       <c r="A169" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="170" spans="1:29" ht="24" customHeight="1">
@@ -6151,15 +6312,15 @@
         <v>46</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="24" customHeight="1">
       <c r="B171" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="172" spans="1:29" ht="178" customHeight="1">
@@ -6167,52 +6328,54 @@
     </row>
     <row r="174" spans="1:29" ht="24" customHeight="1">
       <c r="A174" s="9" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
     </row>
     <row r="175" spans="1:29" ht="24" customHeight="1">
       <c r="A175" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="24" customHeight="1">
-      <c r="B176" s="11"/>
+      <c r="B176" s="11" t="s">
+        <v>288</v>
+      </c>
       <c r="AA176" s="6" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="AB176" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AC176" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="24" customHeight="1">
       <c r="A179" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="180" spans="1:29" ht="24" customHeight="1">
@@ -6221,15 +6384,17 @@
       </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
-      <c r="B181" s="11"/>
+      <c r="B181" s="11" t="s">
+        <v>346</v>
+      </c>
       <c r="AA181" s="6" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="AB181" s="6" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="AC181" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -6286,7 +6451,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD68"/>
+  <dimension ref="A1:XFD74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6300,20 +6465,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6324,10 +6489,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6335,10 +6500,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -6346,15 +6511,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -6362,10 +6527,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -6373,15 +6538,15 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -6389,198 +6554,210 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11">
+        <v>8</v>
+      </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
-      <c r="B24" s="11"/>
+      <c r="B24" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="AA24" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="AA28" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
-      <c r="B32" s="11"/>
+      <c r="B32" s="11" t="s">
+        <v>238</v>
+      </c>
       <c r="AA32" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AC32" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
       <c r="A35" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
-      <c r="B36" s="11"/>
+      <c r="B36" s="11" t="s">
+        <v>373</v>
+      </c>
       <c r="AA36" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AC36" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
-      <c r="B40" s="11"/>
+      <c r="B40" s="11" t="s">
+        <v>373</v>
+      </c>
       <c r="AA40" s="6" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6589,180 +6766,311 @@
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
-      <c r="B45" s="11"/>
+      <c r="B45" s="11" t="s">
+        <v>390</v>
+      </c>
       <c r="AA45" s="6" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AC45" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="24" customHeight="1">
-      <c r="A47" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>338</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" ht="24" customHeight="1">
+      <c r="B46" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="AA46" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="AB46" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="AC46" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
-      <c r="A48" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>389</v>
+      <c r="A48" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
+      <c r="A49" s="14" t="s">
+        <v>67</v>
+      </c>
       <c r="B49" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31" ht="24" customHeight="1">
+      <c r="B50" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-      <c r="AA50" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB50" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC50" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="AD50" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="AE50" s="6" t="s">
-        <v>73</v>
+    <row r="51" spans="1:31" ht="24" customHeight="1">
+      <c r="B51" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA51" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB51" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC51" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD51" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE51" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>193</v>
+      <c r="B52" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="AA52" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="AB52" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC52" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD52" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE52" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B53" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="C53" s="10" t="s">
+      <c r="B53" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="AA53" s="6" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="54" spans="1:31" ht="24" customHeight="1">
-      <c r="B54" s="8" t="s">
-        <v>53</v>
+      <c r="AB53" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="AC53" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="AD53" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="AE53" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
-      <c r="B55" s="11"/>
+      <c r="A55" s="9" t="s">
+        <v>400</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31" ht="24" customHeight="1">
+      <c r="A56" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" ht="24" customHeight="1">
+      <c r="B57" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="58" spans="1:31" ht="24" customHeight="1">
-      <c r="A58" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" ht="24" customHeight="1">
-      <c r="B59" s="13" t="s">
-        <v>399</v>
-      </c>
+      <c r="B58" s="11"/>
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
-      <c r="A61" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>401</v>
+      <c r="A61" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
-      <c r="A62" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="63" spans="1:31" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
-      <c r="AA63" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB63" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="AC63" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="AD63" s="6" t="s">
-        <v>73</v>
+      <c r="B62" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" ht="24" customHeight="1">
+      <c r="A64" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="B65" s="9" t="s">
+      <c r="A65" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" ht="24" customHeight="1">
+      <c r="B66" s="11" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="66" spans="1:32" ht="24" customHeight="1">
-      <c r="A66" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="10" t="s">
-        <v>406</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="67" spans="1:32" ht="24" customHeight="1">
-      <c r="B67" s="10" t="s">
+      <c r="AA66" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB66" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AC66" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="AD66" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" ht="24" customHeight="1">
+      <c r="A68" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" ht="24" customHeight="1">
+      <c r="A69" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" ht="24" customHeight="1">
+      <c r="B70" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:32" ht="24" customHeight="1">
-      <c r="B68" s="11"/>
-      <c r="AA68" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="AB68" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="AC68" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="AD68" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="AE68" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="AF68" s="6" t="s">
-        <v>73</v>
+    <row r="71" spans="1:32" ht="24" customHeight="1">
+      <c r="B71" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="AA71" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB71" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC71" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD71" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE71" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF71" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" ht="24" customHeight="1">
+      <c r="B72" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="AA72" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB72" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC72" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD72" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE72" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF72" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" ht="24" customHeight="1">
+      <c r="B73" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="AA73" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB73" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC73" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD73" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE73" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF73" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" ht="24" customHeight="1">
+      <c r="B74" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA74" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AB74" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="AC74" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="AD74" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="AE74" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="AF74" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataValidations count="16">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
@@ -6784,14 +7092,32 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45">
       <formula1>AA45:AC45</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
-      <formula1>AA50:AE50</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46">
+      <formula1>AA46:AC46</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AD63</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B51">
+      <formula1>AA51:AE51</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68">
-      <formula1>AA68:AF68</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
+      <formula1>AA52:AE52</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B53">
+      <formula1>AA53:AE53</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66">
+      <formula1>AA66:AD66</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
+      <formula1>AA71:AF71</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+      <formula1>AA72:AF72</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
+      <formula1>AA73:AF73</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
+      <formula1>AA74:AF74</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6800,7 +7126,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD101"/>
+  <dimension ref="A1:XFD105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6814,20 +7140,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6838,10 +7164,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6849,10 +7175,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -6860,15 +7186,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -6876,21 +7202,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6898,21 +7224,21 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -6920,10 +7246,10 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
@@ -6931,15 +7257,15 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
       <c r="B23" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="178" customHeight="1">
@@ -6947,52 +7273,54 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
       <c r="A27" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
-      <c r="B28" s="11"/>
+      <c r="B28" s="11" t="s">
+        <v>441</v>
+      </c>
       <c r="AA28" s="6" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AC28" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7001,506 +7329,610 @@
       </c>
     </row>
     <row r="33" spans="1:39" ht="24" customHeight="1">
-      <c r="B33" s="11"/>
+      <c r="B33" s="11" t="s">
+        <v>447</v>
+      </c>
       <c r="AA33" s="6" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AE33" s="6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AF33" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" ht="24" customHeight="1">
+      <c r="B34" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="AA34" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB34" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC34" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="AD34" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE34" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF34" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
-      <c r="A35" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="36" spans="1:39" ht="24" customHeight="1">
-      <c r="A36" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="10" t="s">
+      <c r="B35" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="AC35" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>448</v>
+      <c r="AD35" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="AE35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF35" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:39" ht="24" customHeight="1">
-      <c r="B37" s="10" t="s">
+      <c r="A37" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" ht="24" customHeight="1">
+      <c r="A38" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" ht="24" customHeight="1">
+      <c r="B39" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:39" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
-      <c r="AA38" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="AB38" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="AC38" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="AD38" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="AE38" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="AF38" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="AG38" s="6" t="s">
+    <row r="40" spans="1:39" ht="24" customHeight="1">
+      <c r="B40" s="11"/>
+      <c r="AA40" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="AH38" s="6" t="s">
+      <c r="AB40" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="AI38" s="6" t="s">
+      <c r="AC40" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="AJ38" s="6" t="s">
+      <c r="AD40" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="AK38" s="6" t="s">
+      <c r="AE40" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="AL38" s="6" t="s">
+      <c r="AF40" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="AM38" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39" ht="24" customHeight="1">
-      <c r="A40" s="9" t="s">
+      <c r="AG40" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="AH40" s="6" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="41" spans="1:39" ht="24" customHeight="1">
-      <c r="A41" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" s="10" t="s">
+      <c r="AI40" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="AJ40" s="6" t="s">
         <v>464</v>
       </c>
+      <c r="AK40" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AL40" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AM40" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="42" spans="1:39" ht="24" customHeight="1">
-      <c r="B42" s="11"/>
-      <c r="AA42" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="AB42" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="AC42" s="6" t="s">
+      <c r="A42" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="AD42" s="6" t="s">
-        <v>73</v>
+      <c r="B42" s="9" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" ht="24" customHeight="1">
+      <c r="A43" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
-      <c r="A44" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="45" spans="1:39" ht="24" customHeight="1">
-      <c r="A45" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="C45" s="10" t="s">
+      <c r="B44" s="11" t="s">
         <v>471</v>
       </c>
+      <c r="AA44" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="AB44" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="AC44" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="AD44" s="6" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="46" spans="1:39" ht="24" customHeight="1">
-      <c r="B46" s="11"/>
+      <c r="A46" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" ht="24" customHeight="1">
+      <c r="A47" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="49" spans="1:30" ht="24" customHeight="1">
-      <c r="A49" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="50" spans="1:30" ht="24" customHeight="1">
-      <c r="B50" s="11"/>
-    </row>
-    <row r="52" spans="1:30" ht="24" customHeight="1">
-      <c r="A52" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30" ht="24" customHeight="1">
-      <c r="A53" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53" s="10" t="s">
+      <c r="B48" s="11"/>
+    </row>
+    <row r="50" spans="1:29" ht="24" customHeight="1">
+      <c r="A50" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="B50" s="9" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="24" customHeight="1">
-      <c r="B54" s="11"/>
-      <c r="AA54" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB54" s="6" t="s">
+    <row r="51" spans="1:29" ht="24" customHeight="1">
+      <c r="A51" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="AC54" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30" ht="24" customHeight="1">
-      <c r="A56" s="9" t="s">
+      <c r="C51" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="B56" s="9" t="s">
+    </row>
+    <row r="52" spans="1:29" ht="24" customHeight="1">
+      <c r="B52" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" ht="24" customHeight="1">
+      <c r="A54" s="9" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="57" spans="1:30" ht="24" customHeight="1">
-      <c r="A57" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B57" s="10" t="s">
+      <c r="B54" s="9" t="s">
         <v>483</v>
       </c>
-      <c r="C57" s="10" t="s">
+    </row>
+    <row r="55" spans="1:29" ht="24" customHeight="1">
+      <c r="A55" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="58" spans="1:30" ht="24" customHeight="1">
-      <c r="B58" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="59" spans="1:30" ht="178" customHeight="1">
-      <c r="B59" s="11"/>
-    </row>
-    <row r="61" spans="1:30" ht="24" customHeight="1">
-      <c r="A61" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="B61" s="9" t="s">
+    </row>
+    <row r="56" spans="1:29" ht="24" customHeight="1">
+      <c r="B56" s="11" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="62" spans="1:30" ht="24" customHeight="1">
-      <c r="A62" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="10" t="s">
+      <c r="AA56" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB56" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="AC56" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" ht="24" customHeight="1">
+      <c r="A58" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="B58" s="9" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="63" spans="1:30" ht="24" customHeight="1">
-      <c r="B63" s="11"/>
-      <c r="AA63" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="AB63" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="AC63" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="AD63" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" ht="24" customHeight="1">
-      <c r="A65" s="9" t="s">
+    <row r="59" spans="1:29" ht="24" customHeight="1">
+      <c r="A59" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="C59" s="10" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="66" spans="1:29" ht="24" customHeight="1">
-      <c r="A66" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B66" s="10" t="s">
+    <row r="60" spans="1:29" ht="24" customHeight="1">
+      <c r="B60" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" ht="178" customHeight="1">
+      <c r="B61" s="11"/>
+    </row>
+    <row r="63" spans="1:29" ht="24" customHeight="1">
+      <c r="A63" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="B63" s="9" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="67" spans="1:29" ht="24" customHeight="1">
-      <c r="B67" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" ht="178" customHeight="1">
-      <c r="B68" s="11"/>
-    </row>
-    <row r="70" spans="1:29" ht="24" customHeight="1">
-      <c r="A70" s="9" t="s">
+    <row r="64" spans="1:29" ht="24" customHeight="1">
+      <c r="A64" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="C64" s="10" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="71" spans="1:29" ht="24" customHeight="1">
-      <c r="A71" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B71" s="10" t="s">
+    <row r="65" spans="1:30" ht="24" customHeight="1">
+      <c r="B65" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA65" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="AB65" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AC65" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="AD65" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" ht="24" customHeight="1">
+      <c r="A67" s="9" t="s">
         <v>495</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="B67" s="9" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="24" customHeight="1">
-      <c r="B72" s="11"/>
-      <c r="AA72" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB72" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC72" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:29" ht="24" customHeight="1">
-      <c r="A74" s="9" t="s">
+    <row r="68" spans="1:30" ht="24" customHeight="1">
+      <c r="A68" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="C68" s="10" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="75" spans="1:29" ht="24" customHeight="1">
-      <c r="A75" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B75" s="10" t="s">
+    <row r="69" spans="1:30" ht="24" customHeight="1">
+      <c r="B69" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" ht="178" customHeight="1">
+      <c r="B70" s="11"/>
+    </row>
+    <row r="72" spans="1:30" ht="24" customHeight="1">
+      <c r="A72" s="9" t="s">
         <v>499</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="B72" s="9" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="76" spans="1:29" ht="24" customHeight="1">
-      <c r="B76" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" ht="178" customHeight="1">
-      <c r="B77" s="11"/>
-    </row>
-    <row r="79" spans="1:29" ht="24" customHeight="1">
-      <c r="A79" s="9" t="s">
+    <row r="73" spans="1:30" ht="24" customHeight="1">
+      <c r="A73" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="C73" s="10" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="80" spans="1:29" ht="24" customHeight="1">
-      <c r="A80" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B80" s="10" t="s">
+    <row r="74" spans="1:30" ht="24" customHeight="1">
+      <c r="B74" s="11"/>
+      <c r="AA74" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB74" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC74" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" ht="24" customHeight="1">
+      <c r="A76" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="B76" s="9" t="s">
         <v>504</v>
       </c>
     </row>
+    <row r="77" spans="1:30" ht="24" customHeight="1">
+      <c r="A77" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" ht="24" customHeight="1">
+      <c r="B78" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" ht="178" customHeight="1">
+      <c r="B79" s="11"/>
+    </row>
     <row r="81" spans="1:32" ht="24" customHeight="1">
-      <c r="B81" s="11"/>
-      <c r="AA81" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB81" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC81" s="6" t="s">
-        <v>73</v>
+      <c r="A81" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="82" spans="1:32" ht="24" customHeight="1">
+      <c r="A82" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>510</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
-      <c r="A83" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="B83" s="9" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="84" spans="1:32" ht="24" customHeight="1">
-      <c r="A84" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>508</v>
+      <c r="B83" s="11"/>
+      <c r="AA83" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB83" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="AC83" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="85" spans="1:32" ht="24" customHeight="1">
-      <c r="B85" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="86" spans="1:32" ht="178" customHeight="1">
-      <c r="B86" s="11"/>
-    </row>
-    <row r="88" spans="1:32" ht="24" customHeight="1">
-      <c r="A88" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="B88" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="89" spans="1:32" ht="24" customHeight="1">
-      <c r="A89" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B89" s="10" t="s">
+      <c r="A85" s="9" t="s">
         <v>511</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="B85" s="9" t="s">
         <v>512</v>
       </c>
     </row>
+    <row r="86" spans="1:32" ht="24" customHeight="1">
+      <c r="A86" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="87" spans="1:32" ht="24" customHeight="1">
+      <c r="B87" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="88" spans="1:32" ht="178" customHeight="1">
+      <c r="B88" s="11"/>
+    </row>
     <row r="90" spans="1:32" ht="24" customHeight="1">
-      <c r="B90" s="10" t="s">
+      <c r="A90" s="9" t="s">
+        <v>515</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="91" spans="1:32" ht="24" customHeight="1">
+      <c r="A91" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="92" spans="1:32" ht="24" customHeight="1">
+      <c r="B92" s="10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:32" ht="24" customHeight="1">
-      <c r="B91" s="11"/>
-      <c r="AA91" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="AB91" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="AC91" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="AD91" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="AE91" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="AF91" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
-      <c r="A93" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>518</v>
+      <c r="B93" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="AA93" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="AB93" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC93" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="AD93" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE93" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF93" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
-      <c r="A94" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B94" s="10" t="s">
+      <c r="B94" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="AA94" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="AB94" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC94" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="AD94" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="AE94" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF94" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="95" spans="1:32" ht="24" customHeight="1">
+      <c r="B95" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="AA95" s="6" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="95" spans="1:32" ht="24" customHeight="1">
-      <c r="B95" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="1:32" ht="178" customHeight="1">
-      <c r="B96" s="11"/>
+      <c r="AB95" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC95" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="AD95" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE95" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="AF95" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="24" customHeight="1">
+      <c r="A97" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
-      <c r="A98" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>193</v>
+      <c r="A98" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
-      <c r="A99" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B99" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="24" customHeight="1">
-      <c r="B100" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="24" customHeight="1">
-      <c r="B101" s="11"/>
+      <c r="B99" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="178" customHeight="1">
+      <c r="B100" s="11"/>
+    </row>
+    <row r="102" spans="1:3" ht="24" customHeight="1">
+      <c r="A102" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="24" customHeight="1">
+      <c r="A103" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="24" customHeight="1">
+      <c r="B104" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="24" customHeight="1">
+      <c r="B105" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="12">
+  <dataValidations count="16">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B15">
       <formula1>0</formula1>
     </dataValidation>
@@ -7513,29 +7945,41 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B33">
       <formula1>AA33:AF33</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B38">
-      <formula1>AA38:AM38</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B34">
+      <formula1>AA34:AF34</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42">
-      <formula1>AA42:AD42</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B35">
+      <formula1>AA35:AF35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40">
+      <formula1>AA40:AM40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B44">
+      <formula1>AA44:AD44</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B52">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54">
-      <formula1>AA54:AC54</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B56">
+      <formula1>AA56:AC56</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B63">
-      <formula1>AA63:AD63</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65">
+      <formula1>AA65:AD65</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
-      <formula1>AA72:AC72</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
+      <formula1>AA74:AC74</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81">
-      <formula1>AA81:AC81</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B83">
+      <formula1>AA83:AC83</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B91">
-      <formula1>AA91:AF91</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93">
+      <formula1>AA93:AF93</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B94">
+      <formula1>AA94:AF94</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B95">
+      <formula1>AA95:AF95</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7558,20 +8002,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7582,10 +8026,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7593,10 +8037,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -7604,15 +8048,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -7620,10 +8064,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -7631,15 +8075,15 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -7647,43 +8091,45 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
-      <c r="B20" s="11"/>
+      <c r="B20" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -7692,40 +8138,42 @@
       </c>
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
-      <c r="B25" s="11"/>
+      <c r="B25" s="11" t="s">
+        <v>550</v>
+      </c>
       <c r="AA25" s="6" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -7734,12 +8182,14 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>557</v>
+      </c>
       <c r="AA30" s="6" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="AB30" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -7774,20 +8224,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7798,10 +8248,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>557</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7809,10 +8259,10 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>558</v>
+        <v>564</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="24" customHeight="1">
@@ -7820,15 +8270,15 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
       <c r="B10" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="178" customHeight="1">
@@ -7836,10 +8286,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -7847,15 +8297,15 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="178" customHeight="1">
@@ -7863,21 +8313,21 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -7885,21 +8335,21 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -7910,24 +8360,24 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -7935,15 +8385,15 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
       <c r="B29" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:30" ht="24" customHeight="1">
@@ -7951,45 +8401,47 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
-      <c r="B38" s="11"/>
+      <c r="B38" s="11">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -7997,26 +8449,28 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
       <c r="B42" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
-      <c r="B43" s="11"/>
+      <c r="B43" s="11" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8024,15 +8478,15 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="B47" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="178" customHeight="1">
@@ -8040,23 +8494,23 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -8064,15 +8518,15 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>597</v>
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="B56" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="178" customHeight="1">
@@ -8080,23 +8534,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8104,15 +8558,15 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="B65" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="178" customHeight="1">
@@ -8120,10 +8574,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8131,15 +8585,15 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
       <c r="B70" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="178" customHeight="1">
@@ -8147,23 +8601,23 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>610</v>
+        <v>617</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>612</v>
+        <v>619</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -8171,15 +8625,15 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>613</v>
+        <v>620</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>614</v>
+        <v>621</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="B79" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="178" customHeight="1">
@@ -8187,97 +8641,101 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>615</v>
+        <v>622</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>616</v>
+        <v>623</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
       <c r="A83" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
-      <c r="B84" s="11"/>
+      <c r="B84" s="11" t="s">
+        <v>626</v>
+      </c>
       <c r="AA84" s="6" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="AE84" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
       <c r="A87" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
-      <c r="B88" s="11"/>
+      <c r="B88" s="11" t="s">
+        <v>635</v>
+      </c>
       <c r="AA88" s="6" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
       <c r="AE88" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="24" customHeight="1">
@@ -8285,10 +8743,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8296,23 +8754,23 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>637</v>
+        <v>645</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>638</v>
+        <v>646</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>639</v>
+        <v>647</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>640</v>
+        <v>648</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -8320,10 +8778,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8331,34 +8789,34 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>644</v>
+        <v>652</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>645</v>
+        <v>653</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -8366,10 +8824,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8377,15 +8835,15 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>649</v>
+        <v>657</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
       <c r="B116" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="24" customHeight="1">
@@ -8393,10 +8851,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8404,15 +8862,15 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
       <c r="B121" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="24" customHeight="1">
@@ -8420,10 +8878,10 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -8431,15 +8889,15 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
       <c r="B126" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="178" customHeight="1">
@@ -8447,34 +8905,34 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -8482,10 +8940,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -8493,26 +8951,28 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>663</v>
+        <v>671</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
-      <c r="B140" s="11"/>
+      <c r="B140" s="11" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -8520,15 +8980,15 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
       <c r="B144" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="24" customHeight="1">
@@ -8536,10 +8996,10 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -8547,15 +9007,15 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>655</v>
+        <v>663</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
       <c r="B149" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="178" customHeight="1">
@@ -8563,34 +9023,34 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -8598,10 +9058,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -8609,15 +9069,15 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
       <c r="B162" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="24" customHeight="1">
@@ -8625,10 +9085,10 @@
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>651</v>
+        <v>659</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -8636,15 +9096,15 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>652</v>
+        <v>660</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
       <c r="B167" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="24" customHeight="1">
@@ -8652,10 +9112,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -8663,10 +9123,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">

--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_land.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="874">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -237,123 +237,138 @@
     <t>cmip6.land.key_properties.land_atmosphere_flux_exchanges</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>nitrogen</t>
+  </si>
+  <si>
+    <t>phospherous</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Atmospheric Coupling Treatment</t>
+  </si>
+  <si>
+    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
+  </si>
+  <si>
+    <t>1.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Land Cover</t>
+  </si>
+  <si>
+    <t>Types of land cover defined in the land surface model</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover</t>
+  </si>
+  <si>
+    <t>Other: ice</t>
+  </si>
+  <si>
+    <t>bare soil</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>land ice</t>
+  </si>
+  <si>
+    <t>lake ice</t>
+  </si>
+  <si>
+    <t>vegetated</t>
+  </si>
+  <si>
+    <t>Bare soil</t>
+  </si>
+  <si>
+    <t>Vegetated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1.8 </t>
+  </si>
+  <si>
+    <t>Land Cover Change</t>
+  </si>
+  <si>
+    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover_change</t>
+  </si>
+  <si>
+    <t>1.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Tiling</t>
+  </si>
+  <si>
+    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.tiling</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation Properties</t>
+  </si>
+  <si>
+    <t>Convservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.1 </t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.2 </t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
-    <t>Energy</t>
+    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
     <t>Carbon</t>
   </si>
   <si>
-    <t>Nitrogen</t>
-  </si>
-  <si>
-    <t>Phospherous</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
-    <t>1.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Atmospheric Coupling Treatment</t>
-  </si>
-  <si>
-    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
-  </si>
-  <si>
-    <t>1.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Land Cover</t>
-  </si>
-  <si>
-    <t>Types of land cover defined in the land surface model</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover</t>
-  </si>
-  <si>
-    <t>Other: ice</t>
-  </si>
-  <si>
-    <t>Bare soil</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>Lake</t>
-  </si>
-  <si>
-    <t>Land ice</t>
-  </si>
-  <si>
-    <t>Lake ice</t>
-  </si>
-  <si>
-    <t>Vegetated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.8 </t>
-  </si>
-  <si>
-    <t>Land Cover Change</t>
-  </si>
-  <si>
-    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover_change</t>
-  </si>
-  <si>
-    <t>1.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Tiling</t>
-  </si>
-  <si>
-    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.tiling</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation Properties</t>
-  </si>
-  <si>
-    <t>Convservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.1 </t>
-  </si>
-  <si>
-    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.2 </t>
-  </si>
-  <si>
-    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.3 </t>
-  </si>
-  <si>
     <t>Describe if/how carbon is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -762,756 +777,807 @@
     <t>cmip6.land.soil.snow_free_albedo.functions</t>
   </si>
   <si>
+    <t>vegetation type</t>
+  </si>
+  <si>
+    <t>soil humidity</t>
+  </si>
+  <si>
+    <t>vegetation state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1.3 </t>
+  </si>
+  <si>
+    <t>Direct Diffuse</t>
+  </si>
+  <si>
+    <t>If prognostic, describe the distinction between direct and diffuse albedo</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.snow_free_albedo.direct_diffuse</t>
+  </si>
+  <si>
+    <t>distinction between direct and diffuse albedo</t>
+  </si>
+  <si>
+    <t>no distinction between direct and diffuse albedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.3.1.4 </t>
+  </si>
+  <si>
+    <t>Number Of Wavelength Bands</t>
+  </si>
+  <si>
+    <t>If prognostic, enter the number of wavelength bands used</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.snow_free_albedo.number_of_wavelength_bands</t>
+  </si>
+  <si>
+    <t>3.4.1</t>
+  </si>
+  <si>
+    <t>Soil --&gt; Hydrology</t>
+  </si>
+  <si>
+    <t>Key properties of the soil hydrology</t>
+  </si>
+  <si>
+    <t>3.4.1.1 *</t>
+  </si>
+  <si>
+    <t>General description of the soil hydrological model</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.description</t>
+  </si>
+  <si>
+    <t>3.4.1.2 *</t>
+  </si>
+  <si>
+    <t>Time step of river soil hydrology in seconds</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.time_step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.1.3 </t>
+  </si>
+  <si>
+    <t>Describe the soil hydrology tiling, if any.</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.tiling</t>
+  </si>
+  <si>
+    <t>3.4.1.4 *</t>
+  </si>
+  <si>
+    <t>Vertical Discretisation</t>
+  </si>
+  <si>
+    <t>Describe the typical vertical discretisation</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.vertical_discretisation</t>
+  </si>
+  <si>
+    <t>3.4.1.5 *</t>
+  </si>
+  <si>
+    <t>Number Of Ground Water Layers</t>
+  </si>
+  <si>
+    <t>The number of soil layers that may contain water</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.number_of_ground_water_layers</t>
+  </si>
+  <si>
+    <t>3.4.1.6 *</t>
+  </si>
+  <si>
+    <t>Lateral Connectivity</t>
+  </si>
+  <si>
+    <t>Describe the lateral connectivity between tiles</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
+  </si>
+  <si>
+    <t>perfect connectivity: Common soil for multiple tiles</t>
+  </si>
+  <si>
+    <t>Darcian flow: Darcian flow among hillslope tiles</t>
+  </si>
+  <si>
+    <t>3.4.1.7 *</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>The hydrological dynamics scheme in the land surface model</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.method</t>
+  </si>
+  <si>
+    <t>Explicit diffusion</t>
+  </si>
+  <si>
+    <t>Bucket</t>
+  </si>
+  <si>
+    <t>Force-restore</t>
+  </si>
+  <si>
+    <t>Choisnel</t>
+  </si>
+  <si>
+    <t>3.4.2</t>
+  </si>
+  <si>
+    <t>Soil --&gt; Hydrology --&gt; Freezing</t>
+  </si>
+  <si>
+    <t>Frozen soil treatment</t>
+  </si>
+  <si>
+    <t>3.4.2.1 *</t>
+  </si>
+  <si>
+    <t>Number Of Ground Ice Layers</t>
+  </si>
+  <si>
+    <t>How many soil layers may contain ground ice</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.freezing.number_of_ground_ice_layers</t>
+  </si>
+  <si>
+    <t>3.4.2.2 *</t>
+  </si>
+  <si>
+    <t>Ice Storage Method</t>
+  </si>
+  <si>
+    <t>Describe the method of ice storage</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.freezing.ice_storage_method</t>
+  </si>
+  <si>
+    <t>If the temperature is lower than the freezing point, the phase change occurs.</t>
+  </si>
+  <si>
+    <t>3.4.2.3 *</t>
+  </si>
+  <si>
+    <t>Permafrost</t>
+  </si>
+  <si>
+    <t>Describe the treatment of permafrost, if any, within the land surface scheme</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.freezing.permafrost</t>
+  </si>
+  <si>
+    <t>3.4.3</t>
+  </si>
+  <si>
+    <t>Soil --&gt; Hydrology --&gt; Drainage</t>
+  </si>
+  <si>
+    <t>Drainage treatment in the soil</t>
+  </si>
+  <si>
+    <t>3.4.3.1 *</t>
+  </si>
+  <si>
+    <t>General describe how drainage is included in the land surface scheme</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.drainage.description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.4.3.2 </t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Different types of runoff represented by the land surface model</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.hydrology.drainage.types</t>
+  </si>
+  <si>
+    <t>Gravity drainage</t>
+  </si>
+  <si>
+    <t>Horton mechanism</t>
+  </si>
+  <si>
+    <t>topmodel-based</t>
+  </si>
+  <si>
+    <t>Dunne mechanism</t>
+  </si>
+  <si>
+    <t>Lateral subsurface flow</t>
+  </si>
+  <si>
+    <t>Baseflow from groundwater</t>
+  </si>
+  <si>
+    <t>3.5.1</t>
+  </si>
+  <si>
+    <t>Soil --&gt; Heat Treatment</t>
+  </si>
+  <si>
+    <t>Soil heat treatment</t>
+  </si>
+  <si>
+    <t>3.5.1.1 *</t>
+  </si>
+  <si>
+    <t>General description of how heat treatment properties are defined</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.heat_treatment.description</t>
+  </si>
+  <si>
+    <t>3.5.1.2 *</t>
+  </si>
+  <si>
+    <t>Time step of soil heat scheme in seconds</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.heat_treatment.time_step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.5.1.3 </t>
+  </si>
+  <si>
+    <t>Describe the soil heat treatment tiling, if any.</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.heat_treatment.tiling</t>
+  </si>
+  <si>
+    <t>3.5.1.4 *</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.heat_treatment.vertical_discretisation</t>
+  </si>
+  <si>
+    <t>3.5.1.5 *</t>
+  </si>
+  <si>
+    <t>Heat Storage</t>
+  </si>
+  <si>
+    <t>Specify the method of heat storage</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.heat_treatment.heat_storage</t>
+  </si>
+  <si>
+    <t>3.5.1.6 *</t>
+  </si>
+  <si>
+    <t>Processes</t>
+  </si>
+  <si>
+    <t>Describe processes included in the treatment of soil heat</t>
+  </si>
+  <si>
+    <t>cmip6.land.soil.heat_treatment.processes</t>
+  </si>
+  <si>
+    <t>Soil moisture freeze-thaw</t>
+  </si>
+  <si>
+    <t>soil moisture freeze-thaw</t>
+  </si>
+  <si>
+    <t>coupling with snow temperature</t>
+  </si>
+  <si>
+    <t>4.1.1</t>
+  </si>
+  <si>
+    <t>Snow</t>
+  </si>
+  <si>
+    <t>Land surface snow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the snow in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of land surface snow in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1.1.3 </t>
+  </si>
+  <si>
+    <t>Describe the snow tiling, if any.</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.tiling</t>
+  </si>
+  <si>
+    <t>4.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Number Of Snow Layers</t>
+  </si>
+  <si>
+    <t>The number of snow levels used in the land surface scheme/model</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.number_of_snow_layers</t>
+  </si>
+  <si>
+    <t>4.1.1.5 *</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Description of the treatment of snow density</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.density</t>
+  </si>
+  <si>
+    <t>prognostic</t>
+  </si>
+  <si>
+    <t>constant</t>
+  </si>
+  <si>
+    <t>4.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Water Equivalent</t>
+  </si>
+  <si>
+    <t>Description of the treatment of the snow water equivalent</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.water_equivalent</t>
+  </si>
+  <si>
+    <t>diagnostic</t>
+  </si>
+  <si>
+    <t>4.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Heat Content</t>
+  </si>
+  <si>
+    <t>Description of the treatment of the heat content of snow</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.heat_content</t>
+  </si>
+  <si>
+    <t>4.1.1.8 *</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Description of the treatment of snow temperature</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.temperature</t>
+  </si>
+  <si>
+    <t>Diagnostic</t>
+  </si>
+  <si>
+    <t>4.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Liquid Water Content</t>
+  </si>
+  <si>
+    <t>Description of the treatment of snow liquid water</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.liquid_water_content</t>
+  </si>
+  <si>
+    <t>4.1.1.10 *</t>
+  </si>
+  <si>
+    <t>Snow Cover Fractions</t>
+  </si>
+  <si>
+    <t>Specify cover fractions used in the surface snow scheme</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.snow_cover_fractions</t>
+  </si>
+  <si>
+    <t>Ground snow fraction</t>
+  </si>
+  <si>
+    <t>ground snow fraction</t>
+  </si>
+  <si>
+    <t>vegetation snow fraction</t>
+  </si>
+  <si>
+    <t>Vegetation snow fraction</t>
+  </si>
+  <si>
+    <t>4.1.1.11 *</t>
+  </si>
+  <si>
+    <t>Snow related processes in the land surface scheme</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.processes</t>
+  </si>
+  <si>
+    <t>Other: snow refreezing</t>
+  </si>
+  <si>
+    <t>snow interception</t>
+  </si>
+  <si>
+    <t>snow melting</t>
+  </si>
+  <si>
+    <t>snow freezing</t>
+  </si>
+  <si>
+    <t>blowing snow</t>
+  </si>
+  <si>
+    <t>Snow interception</t>
+  </si>
+  <si>
+    <t>Snow melting</t>
+  </si>
+  <si>
+    <t>4.1.1.12 *</t>
+  </si>
+  <si>
+    <t>List the prognostic variables of the snow scheme</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.prognostic_variables</t>
+  </si>
+  <si>
+    <t>4.2.1</t>
+  </si>
+  <si>
+    <t>Snow --&gt; Snow Albedo</t>
+  </si>
+  <si>
+    <t>Snow albedo</t>
+  </si>
+  <si>
+    <t>4.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Describe the treatment of snow-covered land albedo</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.snow_albedo.type</t>
+  </si>
+  <si>
+    <t>prescribed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.2 </t>
+  </si>
+  <si>
+    <t>Describe the function types if prognostic snow albedo</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.snow_albedo.functions</t>
+  </si>
+  <si>
+    <t>Aerosol deposition</t>
+  </si>
+  <si>
+    <t>snow age</t>
+  </si>
+  <si>
+    <t>snow density</t>
+  </si>
+  <si>
+    <t>snow grain type</t>
+  </si>
+  <si>
+    <t>aerosol deposition</t>
+  </si>
+  <si>
+    <t>Snow density</t>
+  </si>
+  <si>
+    <t>Snow grain type</t>
+  </si>
+  <si>
     <t>Vegetation type</t>
   </si>
   <si>
-    <t>Soil humidity</t>
-  </si>
-  <si>
-    <t>Vegetation state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1.3 </t>
-  </si>
-  <si>
-    <t>Direct Diffuse</t>
-  </si>
-  <si>
-    <t>If prognostic, describe the distinction between direct and diffuse albedo</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.snow_free_albedo.direct_diffuse</t>
-  </si>
-  <si>
-    <t>Distinction between direct and diffuse albedo</t>
-  </si>
-  <si>
-    <t>No distinction between direct and diffuse albedo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3.1.4 </t>
-  </si>
-  <si>
-    <t>Number Of Wavelength Bands</t>
-  </si>
-  <si>
-    <t>If prognostic, enter the number of wavelength bands used</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.snow_free_albedo.number_of_wavelength_bands</t>
-  </si>
-  <si>
-    <t>3.4.1</t>
-  </si>
-  <si>
-    <t>Soil --&gt; Hydrology</t>
-  </si>
-  <si>
-    <t>Key properties of the soil hydrology</t>
-  </si>
-  <si>
-    <t>3.4.1.1 *</t>
-  </si>
-  <si>
-    <t>General description of the soil hydrological model</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.description</t>
-  </si>
-  <si>
-    <t>3.4.1.2 *</t>
-  </si>
-  <si>
-    <t>Time step of river soil hydrology in seconds</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.time_step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4.1.3 </t>
-  </si>
-  <si>
-    <t>Describe the soil hydrology tiling, if any.</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.tiling</t>
-  </si>
-  <si>
-    <t>3.4.1.4 *</t>
-  </si>
-  <si>
-    <t>Vertical Discretisation</t>
-  </si>
-  <si>
-    <t>Describe the typical vertical discretisation</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.vertical_discretisation</t>
-  </si>
-  <si>
-    <t>3.4.1.5 *</t>
-  </si>
-  <si>
-    <t>Number Of Ground Water Layers</t>
-  </si>
-  <si>
-    <t>The number of soil layers that may contain water</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.number_of_ground_water_layers</t>
-  </si>
-  <si>
-    <t>3.4.1.6 *</t>
-  </si>
-  <si>
-    <t>Lateral Connectivity</t>
-  </si>
-  <si>
-    <t>Describe the lateral connectivity between tiles</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
-  </si>
-  <si>
-    <t>Perfect connectivity</t>
-  </si>
-  <si>
-    <t>Darcian flow</t>
-  </si>
-  <si>
-    <t>3.4.1.7 *</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>The hydrological dynamics scheme in the land surface model</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.method</t>
-  </si>
-  <si>
-    <t>Explicit diffusion</t>
-  </si>
-  <si>
-    <t>Bucket</t>
-  </si>
-  <si>
-    <t>Force-restore</t>
-  </si>
-  <si>
-    <t>Choisnel</t>
-  </si>
-  <si>
-    <t>3.4.2</t>
-  </si>
-  <si>
-    <t>Soil --&gt; Hydrology --&gt; Freezing</t>
-  </si>
-  <si>
-    <t>Frozen soil treatment</t>
-  </si>
-  <si>
-    <t>3.4.2.1 *</t>
-  </si>
-  <si>
-    <t>Number Of Ground Ice Layers</t>
-  </si>
-  <si>
-    <t>How many soil layers may contain ground ice</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.freezing.number_of_ground_ice_layers</t>
-  </si>
-  <si>
-    <t>3.4.2.2 *</t>
-  </si>
-  <si>
-    <t>Ice Storage Method</t>
-  </si>
-  <si>
-    <t>Describe the method of ice storage</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.freezing.ice_storage_method</t>
-  </si>
-  <si>
-    <t>If the temperature is lower than the freezing point, the phase change occurs.</t>
-  </si>
-  <si>
-    <t>3.4.2.3 *</t>
-  </si>
-  <si>
-    <t>Permafrost</t>
-  </si>
-  <si>
-    <t>Describe the treatment of permafrost, if any, within the land surface scheme</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.freezing.permafrost</t>
-  </si>
-  <si>
-    <t>3.4.3</t>
-  </si>
-  <si>
-    <t>Soil --&gt; Hydrology --&gt; Drainage</t>
-  </si>
-  <si>
-    <t>Drainage treatment in the soil</t>
-  </si>
-  <si>
-    <t>3.4.3.1 *</t>
-  </si>
-  <si>
-    <t>General describe how drainage is included in the land surface scheme</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.drainage.description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.4.3.2 </t>
-  </si>
-  <si>
-    <t>Types</t>
-  </si>
-  <si>
-    <t>Different types of runoff represented by the land surface model</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.hydrology.drainage.types</t>
-  </si>
-  <si>
-    <t>Gravity drainage</t>
-  </si>
-  <si>
-    <t>Horton mechanism</t>
-  </si>
-  <si>
-    <t>Topmodel-based</t>
-  </si>
-  <si>
-    <t>Dunne mechanism</t>
-  </si>
-  <si>
-    <t>Lateral subsurface flow</t>
-  </si>
-  <si>
-    <t>Baseflow from groundwater</t>
-  </si>
-  <si>
-    <t>3.5.1</t>
-  </si>
-  <si>
-    <t>Soil --&gt; Heat Treatment</t>
-  </si>
-  <si>
-    <t>Soil heat treatment</t>
-  </si>
-  <si>
-    <t>3.5.1.1 *</t>
-  </si>
-  <si>
-    <t>General description of how heat treatment properties are defined</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.heat_treatment.description</t>
-  </si>
-  <si>
-    <t>3.5.1.2 *</t>
-  </si>
-  <si>
-    <t>Time step of soil heat scheme in seconds</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.heat_treatment.time_step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.5.1.3 </t>
-  </si>
-  <si>
-    <t>Describe the soil heat treatment tiling, if any.</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.heat_treatment.tiling</t>
-  </si>
-  <si>
-    <t>3.5.1.4 *</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.heat_treatment.vertical_discretisation</t>
-  </si>
-  <si>
-    <t>3.5.1.5 *</t>
-  </si>
-  <si>
-    <t>Heat Storage</t>
-  </si>
-  <si>
-    <t>Specify the method of heat storage</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.heat_treatment.heat_storage</t>
-  </si>
-  <si>
-    <t>3.5.1.6 *</t>
-  </si>
-  <si>
-    <t>Processes</t>
-  </si>
-  <si>
-    <t>Describe processes included in the treatment of soil heat</t>
-  </si>
-  <si>
-    <t>cmip6.land.soil.heat_treatment.processes</t>
-  </si>
-  <si>
-    <t>Soil moisture freeze-thaw</t>
-  </si>
-  <si>
-    <t>Coupling with snow temperature</t>
-  </si>
-  <si>
-    <t>4.1.1</t>
-  </si>
-  <si>
-    <t>Snow</t>
-  </si>
-  <si>
-    <t>Land surface snow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the snow in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of land surface snow in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.overview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1.1.3 </t>
-  </si>
-  <si>
-    <t>Describe the snow tiling, if any.</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.tiling</t>
-  </si>
-  <si>
-    <t>4.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Number Of Snow Layers</t>
-  </si>
-  <si>
-    <t>The number of snow levels used in the land surface scheme/model</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.number_of_snow_layers</t>
-  </si>
-  <si>
-    <t>4.1.1.5 *</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Description of the treatment of snow density</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.density</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>4.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Water Equivalent</t>
-  </si>
-  <si>
-    <t>Description of the treatment of the snow water equivalent</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.water_equivalent</t>
-  </si>
-  <si>
-    <t>Diagnostic</t>
-  </si>
-  <si>
-    <t>4.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Heat Content</t>
-  </si>
-  <si>
-    <t>Description of the treatment of the heat content of snow</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.heat_content</t>
-  </si>
-  <si>
-    <t>4.1.1.8 *</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Description of the treatment of snow temperature</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.temperature</t>
-  </si>
-  <si>
-    <t>4.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Liquid Water Content</t>
-  </si>
-  <si>
-    <t>Description of the treatment of snow liquid water</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.liquid_water_content</t>
-  </si>
-  <si>
-    <t>4.1.1.10 *</t>
-  </si>
-  <si>
-    <t>Snow Cover Fractions</t>
-  </si>
-  <si>
-    <t>Specify cover fractions used in the surface snow scheme</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.snow_cover_fractions</t>
-  </si>
-  <si>
-    <t>Ground snow fraction</t>
-  </si>
-  <si>
-    <t>Vegetation snow fraction</t>
-  </si>
-  <si>
-    <t>4.1.1.11 *</t>
-  </si>
-  <si>
-    <t>Snow related processes in the land surface scheme</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.processes</t>
-  </si>
-  <si>
-    <t>Other: snow refreezing</t>
-  </si>
-  <si>
-    <t>Snow interception</t>
-  </si>
-  <si>
-    <t>Snow melting</t>
-  </si>
-  <si>
-    <t>Snow freezing</t>
-  </si>
-  <si>
-    <t>Blowing snow</t>
-  </si>
-  <si>
-    <t>4.1.1.12 *</t>
-  </si>
-  <si>
-    <t>List the prognostic variables of the snow scheme</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.prognostic_variables</t>
-  </si>
-  <si>
-    <t>4.2.1</t>
-  </si>
-  <si>
-    <t>Snow --&gt; Snow Albedo</t>
-  </si>
-  <si>
-    <t>Snow albedo</t>
-  </si>
-  <si>
-    <t>4.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Describe the treatment of snow-covered land albedo</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.snow_albedo.type</t>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>Vegetation</t>
+  </si>
+  <si>
+    <t>Land surface vegetation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the vegetation in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of land surface vegetation in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.overview</t>
+  </si>
+  <si>
+    <t>5.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Time step of vegetation scheme in seconds</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.time_step</t>
+  </si>
+  <si>
+    <t>5.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Dynamic Vegetation</t>
+  </si>
+  <si>
+    <t>Is there dynamic evolution of vegetation?</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.dynamic_vegetation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.5 </t>
+  </si>
+  <si>
+    <t>Describe the vegetation tiling, if any.</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.tiling</t>
+  </si>
+  <si>
+    <t>5.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Vegetation Representation</t>
+  </si>
+  <si>
+    <t>Vegetation classification used</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_representation</t>
+  </si>
+  <si>
+    <t>Vegetation types</t>
+  </si>
+  <si>
+    <t>vegetation types</t>
+  </si>
+  <si>
+    <t>biome types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.7 </t>
+  </si>
+  <si>
+    <t>Vegetation Types</t>
+  </si>
+  <si>
+    <t>List of vegetation types in the classification, if any</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_types</t>
+  </si>
+  <si>
+    <t>C3 grass</t>
+  </si>
+  <si>
+    <t>broadleaf tree</t>
+  </si>
+  <si>
+    <t>needleleaf tree</t>
+  </si>
+  <si>
+    <t>C4 grass</t>
+  </si>
+  <si>
+    <t>Broadleaf tree</t>
+  </si>
+  <si>
+    <t>Needleleaf tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.8 </t>
+  </si>
+  <si>
+    <t>Biome Types</t>
+  </si>
+  <si>
+    <t>List of biome types in the classification, if any</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.biome_types</t>
+  </si>
+  <si>
+    <t>evergreen needleleaf forest</t>
+  </si>
+  <si>
+    <t>evergreen broadleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous needleleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous broadleaf forest</t>
+  </si>
+  <si>
+    <t>mixed forest</t>
+  </si>
+  <si>
+    <t>woodland</t>
+  </si>
+  <si>
+    <t>wooded grassland</t>
+  </si>
+  <si>
+    <t>closed shrubland</t>
+  </si>
+  <si>
+    <t>opne shrubland</t>
+  </si>
+  <si>
+    <t>grassland</t>
+  </si>
+  <si>
+    <t>cropland</t>
+  </si>
+  <si>
+    <t>wetlands</t>
+  </si>
+  <si>
+    <t>5.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Vegetation Time Variation</t>
+  </si>
+  <si>
+    <t>How the vegetation fractions in each tile are varying with time</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_time_variation</t>
+  </si>
+  <si>
+    <t>Prescribed (varying from files)</t>
+  </si>
+  <si>
+    <t>fixed (not varying)</t>
+  </si>
+  <si>
+    <t>prescribed (varying from files)</t>
+  </si>
+  <si>
+    <t>dynamical (varying from simulation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.10 </t>
+  </si>
+  <si>
+    <t>Vegetation Map</t>
+  </si>
+  <si>
+    <t>If vegetation fractions are not dynamically updated , describe the vegetation map used (common name and reference, if possible)</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_map</t>
+  </si>
+  <si>
+    <t>5.1.1.11 *</t>
+  </si>
+  <si>
+    <t>Interception</t>
+  </si>
+  <si>
+    <t>Is vegetation interception of rainwater represented?</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.interception</t>
+  </si>
+  <si>
+    <t>5.1.1.12 *</t>
+  </si>
+  <si>
+    <t>Phenology</t>
+  </si>
+  <si>
+    <t>Treatment of vegetation phenology</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.phenology</t>
+  </si>
+  <si>
+    <t>Diagnostic (vegetation map)</t>
+  </si>
+  <si>
+    <t>diagnostic (vegetation map)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.13 </t>
+  </si>
+  <si>
+    <t>Phenology Description</t>
+  </si>
+  <si>
+    <t>General description of the treatment of vegetation phenology</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.phenology_description</t>
+  </si>
+  <si>
+    <t>5.1.1.14 *</t>
+  </si>
+  <si>
+    <t>Leaf Area Index</t>
+  </si>
+  <si>
+    <t>Treatment of vegetation leaf area index</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.leaf_area_index</t>
   </si>
   <si>
     <t>Prescribed</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.1.2 </t>
-  </si>
-  <si>
-    <t>Describe the function types if prognostic snow albedo</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.snow_albedo.functions</t>
-  </si>
-  <si>
-    <t>Aerosol deposition</t>
-  </si>
-  <si>
-    <t>Snow age</t>
-  </si>
-  <si>
-    <t>Snow density</t>
-  </si>
-  <si>
-    <t>Snow grain type</t>
-  </si>
-  <si>
-    <t>5.1.1</t>
-  </si>
-  <si>
-    <t>Vegetation</t>
-  </si>
-  <si>
-    <t>Land surface vegetation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the vegetation in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of land surface vegetation in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.overview</t>
-  </si>
-  <si>
-    <t>5.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Time step of vegetation scheme in seconds</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.time_step</t>
-  </si>
-  <si>
-    <t>5.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Dynamic Vegetation</t>
-  </si>
-  <si>
-    <t>Is there dynamic evolution of vegetation?</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.dynamic_vegetation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.5 </t>
-  </si>
-  <si>
-    <t>Describe the vegetation tiling, if any.</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.tiling</t>
-  </si>
-  <si>
-    <t>5.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Vegetation Representation</t>
-  </si>
-  <si>
-    <t>Vegetation classification used</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_representation</t>
-  </si>
-  <si>
-    <t>Vegetation types</t>
-  </si>
-  <si>
-    <t>Biome types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.7 </t>
-  </si>
-  <si>
-    <t>Vegetation Types</t>
-  </si>
-  <si>
-    <t>List of vegetation types in the classification, if any</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_types</t>
-  </si>
-  <si>
-    <t>C3 grass</t>
-  </si>
-  <si>
-    <t>Broadleaf tree</t>
-  </si>
-  <si>
-    <t>Needleleaf tree</t>
-  </si>
-  <si>
-    <t>C4 grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.8 </t>
-  </si>
-  <si>
-    <t>Biome Types</t>
-  </si>
-  <si>
-    <t>List of biome types in the classification, if any</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.biome_types</t>
-  </si>
-  <si>
-    <t>Evergreen needleleaf forest</t>
-  </si>
-  <si>
-    <t>Evergreen broadleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous needleleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous broadleaf forest</t>
-  </si>
-  <si>
-    <t>Mixed forest</t>
-  </si>
-  <si>
-    <t>Woodland</t>
-  </si>
-  <si>
-    <t>Wooded grassland</t>
-  </si>
-  <si>
-    <t>Closed shrubland</t>
-  </si>
-  <si>
-    <t>Opne shrubland</t>
-  </si>
-  <si>
-    <t>Grassland</t>
-  </si>
-  <si>
-    <t>Cropland</t>
-  </si>
-  <si>
-    <t>Wetlands</t>
-  </si>
-  <si>
-    <t>5.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Vegetation Time Variation</t>
-  </si>
-  <si>
-    <t>How the vegetation fractions in each tile are varying with time</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_time_variation</t>
-  </si>
-  <si>
-    <t>Prescribed (varying from files)</t>
-  </si>
-  <si>
-    <t>Fixed (not varying)</t>
-  </si>
-  <si>
-    <t>Dynamical (varying from simulation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.10 </t>
-  </si>
-  <si>
-    <t>Vegetation Map</t>
-  </si>
-  <si>
-    <t>If vegetation fractions are not dynamically updated , describe the vegetation map used (common name and reference, if possible)</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_map</t>
-  </si>
-  <si>
-    <t>5.1.1.11 *</t>
-  </si>
-  <si>
-    <t>Interception</t>
-  </si>
-  <si>
-    <t>Is vegetation interception of rainwater represented?</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.interception</t>
-  </si>
-  <si>
-    <t>5.1.1.12 *</t>
-  </si>
-  <si>
-    <t>Phenology</t>
-  </si>
-  <si>
-    <t>Treatment of vegetation phenology</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.phenology</t>
-  </si>
-  <si>
-    <t>Diagnostic (vegetation map)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.13 </t>
-  </si>
-  <si>
-    <t>Phenology Description</t>
-  </si>
-  <si>
-    <t>General description of the treatment of vegetation phenology</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.phenology_description</t>
-  </si>
-  <si>
-    <t>5.1.1.14 *</t>
-  </si>
-  <si>
-    <t>Leaf Area Index</t>
-  </si>
-  <si>
-    <t>Treatment of vegetation leaf area index</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.leaf_area_index</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.15 </t>
   </si>
   <si>
@@ -1587,15 +1653,24 @@
     <t>CO2</t>
   </si>
   <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>water availability</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
     <t>Light</t>
   </si>
   <si>
     <t>Water availability</t>
   </si>
   <si>
-    <t>O3</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.21 </t>
   </si>
   <si>
@@ -1680,10 +1755,13 @@
     <t>Combined</t>
   </si>
   <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Beta</t>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>combined</t>
   </si>
   <si>
     <t>Monteith potential evaporation</t>
@@ -1701,6 +1779,9 @@
     <t>Transpiration</t>
   </si>
   <si>
+    <t>transpiration</t>
+  </si>
+  <si>
     <t>7.1.1</t>
   </si>
   <si>
@@ -1758,13 +1839,13 @@
     <t>cmip6.land.carbon_cycle.anthropogenic_carbon</t>
   </si>
   <si>
-    <t>Grand slam protocol</t>
-  </si>
-  <si>
-    <t>Residence time</t>
-  </si>
-  <si>
-    <t>Decay time</t>
+    <t>grand slam protocol</t>
+  </si>
+  <si>
+    <t>residence time</t>
+  </si>
+  <si>
+    <t>decay time</t>
   </si>
   <si>
     <t>7.1.1.6 *</t>
@@ -1908,16 +1989,16 @@
     <t>Other: leaves + stems and roots (leafy + woody)</t>
   </si>
   <si>
-    <t>Leaves + stems + roots</t>
-  </si>
-  <si>
-    <t>Leaves + stems + roots (leafy + woody)</t>
-  </si>
-  <si>
-    <t>Leaves + fine roots + coarse roots + stems</t>
-  </si>
-  <si>
-    <t>Whole plant (no distinction)</t>
+    <t>leaves + stems + roots</t>
+  </si>
+  <si>
+    <t>leaves + stems + roots (leafy + woody)</t>
+  </si>
+  <si>
+    <t>leaves + fine roots + coarse roots + stems</t>
+  </si>
+  <si>
+    <t>whole plant (no distinction)</t>
   </si>
   <si>
     <t>7.2.4.3 *</t>
@@ -1935,13 +2016,16 @@
     <t>Function of plant allometry</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Function of vegetation type</t>
-  </si>
-  <si>
-    <t>Explicitly calculated</t>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>function of vegetation type</t>
+  </si>
+  <si>
+    <t>function of plant allometry</t>
+  </si>
+  <si>
+    <t>explicitly calculated</t>
   </si>
   <si>
     <t>7.2.5</t>
@@ -2256,10 +2340,10 @@
     <t>cmip6.land.river_routing.water_re_evaporation</t>
   </si>
   <si>
-    <t>Flood plains</t>
-  </si>
-  <si>
-    <t>Irrigation</t>
+    <t>flood plains</t>
+  </si>
+  <si>
+    <t>irrigation</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.9 </t>
@@ -2298,90 +2382,99 @@
     <t>cmip6.land.river_routing.quantities_exchanged_with_atmosphere</t>
   </si>
   <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>tracers</t>
+  </si>
+  <si>
+    <t>9.1.1.12 *</t>
+  </si>
+  <si>
+    <t>Basin Flow Direction Map</t>
+  </si>
+  <si>
+    <t>What type of basin flow direction map is being used?</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.basin_flow_direction_map</t>
+  </si>
+  <si>
+    <t>Present day</t>
+  </si>
+  <si>
+    <t>present day</t>
+  </si>
+  <si>
+    <t>adapted for other periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1.1.13 </t>
+  </si>
+  <si>
+    <t>Flooding</t>
+  </si>
+  <si>
+    <t>Describe the representation of flooding, if any</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.flooding</t>
+  </si>
+  <si>
+    <t>9.1.1.14 *</t>
+  </si>
+  <si>
+    <t>List the prognostic variables of the river routing</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.prognostic_variables</t>
+  </si>
+  <si>
+    <t>9.2.1</t>
+  </si>
+  <si>
+    <t>River Routing --&gt; Oceanic Discharge</t>
+  </si>
+  <si>
+    <t>Oceanic discharge treatment in river routing</t>
+  </si>
+  <si>
+    <t>9.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Discharge Type</t>
+  </si>
+  <si>
+    <t>Specify how rivers are discharged to the ocean</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.oceanic_discharge.discharge_type</t>
+  </si>
+  <si>
+    <t>Direct (large rivers)</t>
+  </si>
+  <si>
+    <t>direct (large rivers)</t>
+  </si>
+  <si>
+    <t>diffuse</t>
+  </si>
+  <si>
+    <t>9.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Quantities Transported</t>
+  </si>
+  <si>
+    <t>Quantities that are exchanged from river-routing to the ocean model component</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.oceanic_discharge.quantities_transported</t>
+  </si>
+  <si>
     <t>Heat</t>
   </si>
   <si>
-    <t>Tracers</t>
-  </si>
-  <si>
-    <t>9.1.1.12 *</t>
-  </si>
-  <si>
-    <t>Basin Flow Direction Map</t>
-  </si>
-  <si>
-    <t>What type of basin flow direction map is being used?</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.basin_flow_direction_map</t>
-  </si>
-  <si>
-    <t>Present day</t>
-  </si>
-  <si>
-    <t>Adapted for other periods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1.1.13 </t>
-  </si>
-  <si>
-    <t>Flooding</t>
-  </si>
-  <si>
-    <t>Describe the representation of flooding, if any</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.flooding</t>
-  </si>
-  <si>
-    <t>9.1.1.14 *</t>
-  </si>
-  <si>
-    <t>List the prognostic variables of the river routing</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.prognostic_variables</t>
-  </si>
-  <si>
-    <t>9.2.1</t>
-  </si>
-  <si>
-    <t>River Routing --&gt; Oceanic Discharge</t>
-  </si>
-  <si>
-    <t>Oceanic discharge treatment in river routing</t>
-  </si>
-  <si>
-    <t>9.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Discharge Type</t>
-  </si>
-  <si>
-    <t>Specify how rivers are discharged to the ocean</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.oceanic_discharge.discharge_type</t>
-  </si>
-  <si>
-    <t>Direct (large rivers)</t>
-  </si>
-  <si>
-    <t>Diffuse</t>
-  </si>
-  <si>
-    <t>9.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Quantities Transported</t>
-  </si>
-  <si>
-    <t>Quantities that are exchanged from river-routing to the ocean model component</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.oceanic_discharge.quantities_transported</t>
-  </si>
-  <si>
     <t>10.1.1</t>
   </si>
   <si>
@@ -2508,10 +2601,10 @@
     <t>No lake dynamics</t>
   </si>
   <si>
-    <t>Vertical</t>
-  </si>
-  <si>
-    <t>Horizontal</t>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>horizontal</t>
   </si>
   <si>
     <t>10.2.1.4 *</t>
@@ -3214,20 +3307,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>695</v>
+        <v>723</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>696</v>
+        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>697</v>
+        <v>725</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3238,10 +3331,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>698</v>
+        <v>726</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>699</v>
+        <v>727</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3249,7 +3342,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3260,10 +3353,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>701</v>
+        <v>729</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3276,10 +3369,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>703</v>
+        <v>731</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3287,10 +3380,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>705</v>
+        <v>733</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3303,21 +3396,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>706</v>
+        <v>734</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>707</v>
+        <v>735</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>708</v>
+        <v>736</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3325,10 +3418,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>709</v>
+        <v>737</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3336,10 +3429,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>711</v>
+        <v>739</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3376,20 +3469,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>713</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>714</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>715</v>
+        <v>743</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3400,10 +3493,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>716</v>
+        <v>744</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>717</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3411,7 +3504,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>718</v>
+        <v>746</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3422,10 +3515,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>719</v>
+        <v>747</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>720</v>
+        <v>748</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3438,10 +3531,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3449,10 +3542,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3465,21 +3558,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>726</v>
+        <v>754</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3487,21 +3580,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>727</v>
+        <v>755</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>729</v>
+        <v>757</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>730</v>
+        <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3509,10 +3602,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>731</v>
+        <v>759</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>732</v>
+        <v>760</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3520,10 +3613,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>733</v>
+        <v>761</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>734</v>
+        <v>762</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3531,21 +3624,21 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>735</v>
+        <v>763</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>736</v>
+        <v>764</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>737</v>
+        <v>765</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>738</v>
+        <v>766</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3553,10 +3646,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>739</v>
+        <v>767</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>740</v>
+        <v>768</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -3564,10 +3657,10 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>741</v>
+        <v>769</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>742</v>
+        <v>770</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3578,10 +3671,10 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>743</v>
+        <v>771</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>744</v>
+        <v>772</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>75</v>
@@ -3589,21 +3682,21 @@
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>745</v>
+        <v>773</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>746</v>
+        <v>774</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>747</v>
+        <v>775</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>748</v>
+        <v>776</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -3613,10 +3706,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>749</v>
+        <v>777</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>750</v>
+        <v>778</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3624,10 +3717,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>751</v>
+        <v>779</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>752</v>
+        <v>780</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -3640,10 +3733,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>753</v>
+        <v>781</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>754</v>
+        <v>782</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -3651,10 +3744,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>755</v>
+        <v>783</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>756</v>
+        <v>784</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3665,13 +3758,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>757</v>
+        <v>785</v>
       </c>
       <c r="AB51" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>75</v>
@@ -3679,10 +3772,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>759</v>
+        <v>787</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>760</v>
+        <v>788</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -3690,21 +3783,21 @@
         <v>67</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>761</v>
+        <v>789</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>762</v>
+        <v>790</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>763</v>
+        <v>791</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>763</v>
+        <v>792</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>764</v>
+        <v>793</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>75</v>
@@ -3712,10 +3805,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>765</v>
+        <v>794</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>766</v>
+        <v>795</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3723,10 +3816,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>767</v>
+        <v>796</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>768</v>
+        <v>797</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -3739,10 +3832,10 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>769</v>
+        <v>798</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3750,10 +3843,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>770</v>
+        <v>799</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>771</v>
+        <v>800</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
@@ -3766,23 +3859,23 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>772</v>
+        <v>801</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>773</v>
+        <v>802</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>774</v>
+        <v>803</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>775</v>
+        <v>804</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>776</v>
+        <v>805</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3790,21 +3883,21 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>777</v>
+        <v>806</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>778</v>
+        <v>807</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>779</v>
+        <v>808</v>
       </c>
       <c r="AA73" s="6" t="s">
-        <v>779</v>
+        <v>809</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>75</v>
@@ -3812,10 +3905,10 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>781</v>
+        <v>811</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>782</v>
+        <v>812</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
@@ -3823,10 +3916,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>783</v>
+        <v>813</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>784</v>
+        <v>814</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3836,16 +3929,16 @@
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11" t="s">
-        <v>757</v>
+        <v>815</v>
       </c>
       <c r="AA78" s="6" t="s">
-        <v>757</v>
+        <v>785</v>
       </c>
       <c r="AB78" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="AD78" s="6" t="s">
         <v>75</v>
@@ -3853,16 +3946,16 @@
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
       <c r="B79" s="11" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="AA79" s="6" t="s">
-        <v>757</v>
+        <v>785</v>
       </c>
       <c r="AB79" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="AD79" s="6" t="s">
         <v>75</v>
@@ -3921,20 +4014,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>785</v>
+        <v>816</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>786</v>
+        <v>817</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>787</v>
+        <v>818</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3945,10 +4038,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>789</v>
+        <v>820</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>790</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3956,7 +4049,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>791</v>
+        <v>822</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3967,10 +4060,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>792</v>
+        <v>823</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>793</v>
+        <v>824</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3983,21 +4076,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>795</v>
+        <v>826</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>796</v>
+        <v>827</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>797</v>
+        <v>828</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -4007,21 +4100,21 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>798</v>
+        <v>829</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>799</v>
+        <v>830</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>800</v>
+        <v>831</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4029,10 +4122,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>801</v>
+        <v>832</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>802</v>
+        <v>833</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4040,10 +4133,10 @@
         <v>67</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>803</v>
+        <v>834</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>804</v>
+        <v>835</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4053,16 +4146,16 @@
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>757</v>
+        <v>815</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>757</v>
+        <v>785</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>75</v>
@@ -4070,16 +4163,16 @@
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>757</v>
+        <v>785</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>758</v>
+        <v>786</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>75</v>
@@ -4087,10 +4180,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>805</v>
+        <v>836</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>806</v>
+        <v>837</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4098,10 +4191,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>807</v>
+        <v>838</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>808</v>
+        <v>839</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -4109,10 +4202,10 @@
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>809</v>
+        <v>840</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4120,10 +4213,10 @@
         <v>46</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>810</v>
+        <v>841</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>811</v>
+        <v>842</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
@@ -4136,34 +4229,34 @@
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>812</v>
+        <v>843</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>813</v>
+        <v>844</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="B38" s="13" t="s">
-        <v>814</v>
+        <v>845</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>815</v>
+        <v>846</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>816</v>
+        <v>847</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>817</v>
+        <v>848</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>818</v>
+        <v>849</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
@@ -4173,10 +4266,10 @@
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>819</v>
+        <v>850</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -4184,21 +4277,21 @@
         <v>67</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>820</v>
+        <v>851</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>821</v>
+        <v>852</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>75</v>
@@ -4206,10 +4299,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>822</v>
+        <v>853</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>823</v>
+        <v>854</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4217,10 +4310,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>824</v>
+        <v>855</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>825</v>
+        <v>856</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -4231,13 +4324,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>826</v>
+        <v>857</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>827</v>
+        <v>858</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>828</v>
+        <v>859</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>75</v>
@@ -4245,21 +4338,21 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>829</v>
+        <v>860</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>830</v>
+        <v>861</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>831</v>
+        <v>862</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>832</v>
+        <v>863</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -4269,21 +4362,21 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>833</v>
+        <v>864</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>834</v>
+        <v>865</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>835</v>
+        <v>866</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>836</v>
+        <v>867</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -4293,20 +4386,20 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>837</v>
+        <v>868</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>838</v>
+        <v>869</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>839</v>
+        <v>870</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>840</v>
+        <v>871</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>62</v>
@@ -4317,10 +4410,10 @@
         <v>46</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>841</v>
+        <v>872</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>842</v>
+        <v>873</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -4715,7 +4808,7 @@
     </row>
     <row r="36" spans="1:33" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AA36" s="6" t="s">
         <v>85</v>
@@ -4741,7 +4834,7 @@
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA37" s="6" t="s">
         <v>85</v>
@@ -4767,10 +4860,10 @@
     </row>
     <row r="39" spans="1:33" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:33" ht="24" customHeight="1">
@@ -4778,10 +4871,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:33" ht="24" customHeight="1">
@@ -4789,10 +4882,10 @@
     </row>
     <row r="43" spans="1:33" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:33" ht="24" customHeight="1">
@@ -4800,10 +4893,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="24" customHeight="1">
@@ -4816,23 +4909,23 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="B50" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -4840,10 +4933,10 @@
         <v>46</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -4856,10 +4949,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -4867,10 +4960,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -4883,10 +4976,10 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
@@ -4894,10 +4987,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -4910,34 +5003,34 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
@@ -4945,21 +5038,21 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -4967,10 +5060,10 @@
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
@@ -4978,10 +5071,10 @@
         <v>46</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
@@ -4989,23 +5082,23 @@
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="B85" s="13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
@@ -5013,10 +5106,10 @@
         <v>46</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -5024,10 +5117,10 @@
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
@@ -5035,10 +5128,10 @@
         <v>46</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -5046,10 +5139,10 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
@@ -5057,10 +5150,10 @@
         <v>46</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -5073,20 +5166,20 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="12" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="B102" s="13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>62</v>
@@ -5097,10 +5190,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -5152,20 +5245,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5176,10 +5269,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5187,7 +5280,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5198,10 +5291,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5214,20 +5307,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>62</v>
@@ -5238,10 +5331,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5254,21 +5347,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -5276,20 +5369,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>62</v>
@@ -5300,10 +5393,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5316,21 +5409,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5365,20 +5458,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5389,10 +5482,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5400,7 +5493,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5411,10 +5504,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5427,10 +5520,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -5438,10 +5531,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -5449,21 +5542,21 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5471,10 +5564,10 @@
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
@@ -5482,10 +5575,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -5498,20 +5591,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>62</v>
@@ -5522,10 +5615,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5538,10 +5631,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -5549,23 +5642,23 @@
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -5573,23 +5666,23 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -5597,10 +5690,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -5608,10 +5701,10 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -5619,23 +5712,23 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -5643,10 +5736,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -5654,21 +5747,21 @@
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -5676,10 +5769,10 @@
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -5687,10 +5780,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -5698,34 +5791,34 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -5733,10 +5826,10 @@
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -5744,10 +5837,10 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -5758,13 +5851,13 @@
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AD74" s="6" t="s">
         <v>75</v>
@@ -5772,10 +5865,10 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -5783,19 +5876,19 @@
         <v>67</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AC78" s="6" t="s">
         <v>75</v>
@@ -5803,21 +5896,21 @@
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -5825,20 +5918,20 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>62</v>
@@ -5849,10 +5942,10 @@
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -5865,21 +5958,21 @@
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -5887,10 +5980,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -5898,10 +5991,10 @@
         <v>46</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -5914,10 +6007,10 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -5925,10 +6018,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -5941,21 +6034,21 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -5963,10 +6056,10 @@
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -5974,10 +6067,10 @@
         <v>67</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:31" ht="24" customHeight="1">
@@ -5988,10 +6081,10 @@
     <row r="114" spans="1:31" ht="24" customHeight="1">
       <c r="B114" s="11"/>
       <c r="AA114" s="6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AB114" s="6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AC114" s="6" t="s">
         <v>75</v>
@@ -5999,10 +6092,10 @@
     </row>
     <row r="116" spans="1:31" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="117" spans="1:31" ht="24" customHeight="1">
@@ -6010,27 +6103,27 @@
         <v>67</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="1:31" ht="24" customHeight="1">
       <c r="B118" s="11" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AA118" s="6" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AB118" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AC118" s="6" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AD118" s="6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AE118" s="6" t="s">
         <v>75</v>
@@ -6038,34 +6131,34 @@
     </row>
     <row r="121" spans="1:31" ht="24" customHeight="1">
       <c r="A121" s="12" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="122" spans="1:31" ht="24" customHeight="1">
       <c r="B122" s="13" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="124" spans="1:31" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:31" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="126" spans="1:31" ht="24" customHeight="1">
@@ -6073,10 +6166,10 @@
     </row>
     <row r="128" spans="1:31" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -6084,23 +6177,23 @@
         <v>46</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="B130" s="11" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
@@ -6108,10 +6201,10 @@
         <v>46</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -6124,20 +6217,20 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="12" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="9" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>62</v>
@@ -6148,10 +6241,10 @@
         <v>46</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -6164,10 +6257,10 @@
     </row>
     <row r="146" spans="1:33" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
@@ -6175,10 +6268,10 @@
         <v>67</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
@@ -6189,22 +6282,22 @@
     <row r="149" spans="1:33" ht="24" customHeight="1">
       <c r="B149" s="11"/>
       <c r="AA149" s="6" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AB149" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AC149" s="6" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AD149" s="6" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AE149" s="6" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AF149" s="6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AG149" s="6" t="s">
         <v>75</v>
@@ -6212,20 +6305,20 @@
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="12" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="153" spans="1:33" ht="24" customHeight="1">
       <c r="B153" s="13" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>62</v>
@@ -6236,10 +6329,10 @@
         <v>46</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="157" spans="1:33" ht="24" customHeight="1">
@@ -6252,21 +6345,21 @@
     </row>
     <row r="160" spans="1:33" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="161" spans="1:29" ht="24" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="162" spans="1:29" ht="24" customHeight="1">
@@ -6274,10 +6367,10 @@
     </row>
     <row r="164" spans="1:29" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165" spans="1:29" ht="24" customHeight="1">
@@ -6285,10 +6378,10 @@
         <v>46</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="24" customHeight="1">
@@ -6301,10 +6394,10 @@
     </row>
     <row r="169" spans="1:29" ht="24" customHeight="1">
       <c r="A169" s="9" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="170" spans="1:29" ht="24" customHeight="1">
@@ -6312,10 +6405,10 @@
         <v>46</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="24" customHeight="1">
@@ -6328,10 +6421,10 @@
     </row>
     <row r="174" spans="1:29" ht="24" customHeight="1">
       <c r="A174" s="9" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:29" ht="24" customHeight="1">
@@ -6339,21 +6432,21 @@
         <v>67</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="24" customHeight="1">
       <c r="B176" s="11" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AA176" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AB176" s="6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AC176" s="6" t="s">
         <v>75</v>
@@ -6361,10 +6454,10 @@
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="24" customHeight="1">
@@ -6372,10 +6465,10 @@
         <v>67</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="180" spans="1:29" ht="24" customHeight="1">
@@ -6385,13 +6478,13 @@
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="B181" s="11" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AA181" s="6" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AB181" s="6" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AC181" s="6" t="s">
         <v>75</v>
@@ -6465,20 +6558,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6489,10 +6582,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6500,7 +6593,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6511,10 +6604,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6527,10 +6620,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -6538,10 +6631,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6554,21 +6647,21 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
@@ -6578,10 +6671,10 @@
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -6589,21 +6682,21 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>75</v>
@@ -6611,10 +6704,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -6622,21 +6715,21 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -6644,10 +6737,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -6655,21 +6748,21 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>75</v>
@@ -6677,10 +6770,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -6688,21 +6781,21 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>75</v>
@@ -6710,10 +6803,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -6721,21 +6814,21 @@
         <v>67</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>373</v>
+        <v>389</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>75</v>
@@ -6743,10 +6836,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -6754,10 +6847,10 @@
         <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6767,13 +6860,13 @@
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>75</v>
@@ -6781,13 +6874,13 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>75</v>
@@ -6795,10 +6888,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
@@ -6806,10 +6899,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6819,19 +6912,19 @@
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AE51" s="6" t="s">
         <v>75</v>
@@ -6839,19 +6932,19 @@
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>75</v>
@@ -6859,19 +6952,19 @@
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="AE53" s="6" t="s">
         <v>75</v>
@@ -6879,10 +6972,10 @@
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6890,10 +6983,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
@@ -6906,23 +6999,23 @@
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
@@ -6930,24 +7023,24 @@
         <v>67</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>75</v>
@@ -6955,10 +7048,10 @@
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="24" customHeight="1">
@@ -6966,10 +7059,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
@@ -6979,22 +7072,22 @@
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="11" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="AA71" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AB71" s="6" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="AE71" s="6" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="AF71" s="6" t="s">
         <v>75</v>
@@ -7002,22 +7095,22 @@
     </row>
     <row r="72" spans="1:32" ht="24" customHeight="1">
       <c r="B72" s="11" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="AA72" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AB72" s="6" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="AC72" s="6" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="AD72" s="6" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="AE72" s="6" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="AF72" s="6" t="s">
         <v>75</v>
@@ -7025,22 +7118,22 @@
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="AA73" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="AC73" s="6" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="AD73" s="6" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="AE73" s="6" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="AF73" s="6" t="s">
         <v>75</v>
@@ -7048,22 +7141,22 @@
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="B74" s="11" t="s">
-        <v>245</v>
+        <v>433</v>
       </c>
       <c r="AA74" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="AD74" s="6" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="AE74" s="6" t="s">
-        <v>414</v>
+        <v>430</v>
       </c>
       <c r="AF74" s="6" t="s">
         <v>75</v>
@@ -7140,20 +7233,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>418</v>
+        <v>434</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>419</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>420</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>421</v>
+        <v>437</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7164,10 +7257,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7175,7 +7268,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7186,10 +7279,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7202,21 +7295,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>428</v>
+        <v>444</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7224,21 +7317,21 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>431</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>432</v>
+        <v>448</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -7246,10 +7339,10 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
@@ -7257,10 +7350,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>436</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -7273,10 +7366,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>438</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -7284,21 +7377,21 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>439</v>
+        <v>455</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>440</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>441</v>
+        <v>457</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -7306,10 +7399,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>443</v>
+        <v>460</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>444</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -7317,10 +7410,10 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>445</v>
+        <v>462</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>446</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7330,19 +7423,19 @@
     </row>
     <row r="33" spans="1:39" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="AE33" s="6" t="s">
         <v>90</v>
@@ -7353,19 +7446,19 @@
     </row>
     <row r="34" spans="1:39" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="AE34" s="6" t="s">
         <v>90</v>
@@ -7376,19 +7469,19 @@
     </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>449</v>
+        <v>469</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>448</v>
+        <v>465</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>447</v>
+        <v>464</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>450</v>
+        <v>467</v>
       </c>
       <c r="AE35" s="6" t="s">
         <v>90</v>
@@ -7399,10 +7492,10 @@
     </row>
     <row r="37" spans="1:39" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="24" customHeight="1">
@@ -7410,10 +7503,10 @@
         <v>67</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:39" ht="24" customHeight="1">
@@ -7424,40 +7517,40 @@
     <row r="40" spans="1:39" ht="24" customHeight="1">
       <c r="B40" s="11"/>
       <c r="AA40" s="6" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>458</v>
+        <v>477</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
       <c r="AJ40" s="6" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="AK40" s="6" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="AL40" s="6" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="AM40" s="6" t="s">
         <v>75</v>
@@ -7465,10 +7558,10 @@
     </row>
     <row r="42" spans="1:39" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
     </row>
     <row r="43" spans="1:39" ht="24" customHeight="1">
@@ -7476,24 +7569,24 @@
         <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
       <c r="B44" s="11" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="AD44" s="6" t="s">
         <v>75</v>
@@ -7501,10 +7594,10 @@
     </row>
     <row r="46" spans="1:39" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>474</v>
+        <v>494</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>475</v>
+        <v>495</v>
       </c>
     </row>
     <row r="47" spans="1:39" ht="24" customHeight="1">
@@ -7512,10 +7605,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>476</v>
+        <v>496</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>477</v>
+        <v>497</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
@@ -7523,21 +7616,21 @@
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>478</v>
+        <v>498</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>479</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>481</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -7547,10 +7640,10 @@
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>482</v>
+        <v>502</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>483</v>
+        <v>503</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
@@ -7558,21 +7651,21 @@
         <v>67</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>484</v>
+        <v>504</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>485</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>486</v>
+        <v>506</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>75</v>
@@ -7580,10 +7673,10 @@
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
@@ -7591,10 +7684,10 @@
         <v>46</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -7607,10 +7700,10 @@
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -7618,24 +7711,24 @@
         <v>67</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="11" t="s">
-        <v>410</v>
+        <v>516</v>
       </c>
       <c r="AA65" s="6" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="AB65" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AC65" s="6" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AD65" s="6" t="s">
         <v>75</v>
@@ -7643,10 +7736,10 @@
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
@@ -7654,10 +7747,10 @@
         <v>46</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -7670,10 +7763,10 @@
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -7681,19 +7774,19 @@
         <v>67</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AC74" s="6" t="s">
         <v>75</v>
@@ -7701,10 +7794,10 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -7712,10 +7805,10 @@
         <v>46</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7728,10 +7821,10 @@
     </row>
     <row r="81" spans="1:32" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
@@ -7739,19 +7832,19 @@
         <v>67</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
       <c r="B83" s="11"/>
       <c r="AA83" s="6" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AC83" s="6" t="s">
         <v>75</v>
@@ -7759,10 +7852,10 @@
     </row>
     <row r="85" spans="1:32" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
@@ -7770,10 +7863,10 @@
         <v>46</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
@@ -7786,10 +7879,10 @@
     </row>
     <row r="90" spans="1:32" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>516</v>
+        <v>538</v>
       </c>
     </row>
     <row r="91" spans="1:32" ht="24" customHeight="1">
@@ -7797,10 +7890,10 @@
         <v>67</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>518</v>
+        <v>540</v>
       </c>
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
@@ -7810,22 +7903,22 @@
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
       <c r="B93" s="11" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="AA93" s="6" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>379</v>
+        <v>543</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="AE93" s="6" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="AF93" s="6" t="s">
         <v>75</v>
@@ -7833,22 +7926,22 @@
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
       <c r="B94" s="11" t="s">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="AA94" s="6" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>379</v>
+        <v>543</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="AE94" s="6" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="AF94" s="6" t="s">
         <v>75</v>
@@ -7856,22 +7949,22 @@
     </row>
     <row r="95" spans="1:32" ht="24" customHeight="1">
       <c r="B95" s="11" t="s">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="AA95" s="6" t="s">
-        <v>520</v>
+        <v>542</v>
       </c>
       <c r="AB95" s="6" t="s">
-        <v>379</v>
+        <v>543</v>
       </c>
       <c r="AC95" s="6" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="AD95" s="6" t="s">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="AE95" s="6" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="AF95" s="6" t="s">
         <v>75</v>
@@ -7879,10 +7972,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>523</v>
+        <v>548</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>524</v>
+        <v>549</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -7890,10 +7983,10 @@
         <v>46</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>525</v>
+        <v>550</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>526</v>
+        <v>551</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -7906,10 +7999,10 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>527</v>
+        <v>552</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -7917,10 +8010,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>528</v>
+        <v>553</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>529</v>
+        <v>554</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8002,20 +8095,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>530</v>
+        <v>555</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>531</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>532</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>533</v>
+        <v>558</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8026,10 +8119,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>534</v>
+        <v>559</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>535</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8037,7 +8130,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>536</v>
+        <v>561</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8048,10 +8141,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>537</v>
+        <v>562</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>538</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8064,10 +8157,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>539</v>
+        <v>564</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8075,10 +8168,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>540</v>
+        <v>565</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>541</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8091,21 +8184,21 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>542</v>
+        <v>567</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>543</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>544</v>
+        <v>569</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>545</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -8115,10 +8208,10 @@
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>546</v>
+        <v>571</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>547</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -8126,10 +8219,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>548</v>
+        <v>573</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>549</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -8139,19 +8232,19 @@
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>550</v>
+        <v>575</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>551</v>
+        <v>576</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>552</v>
+        <v>577</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>550</v>
+        <v>578</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>553</v>
+        <v>579</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>75</v>
@@ -8159,10 +8252,10 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>554</v>
+        <v>580</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
@@ -8170,10 +8263,10 @@
         <v>67</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>556</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -8183,10 +8276,10 @@
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>557</v>
+        <v>584</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>75</v>
@@ -8224,20 +8317,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>558</v>
+        <v>585</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>559</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>560</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>561</v>
+        <v>588</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8248,10 +8341,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>562</v>
+        <v>589</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>563</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8259,7 +8352,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8270,10 +8363,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>565</v>
+        <v>592</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>566</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8286,10 +8379,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>567</v>
+        <v>594</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8297,10 +8390,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>568</v>
+        <v>595</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>569</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8313,21 +8406,21 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>570</v>
+        <v>597</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>572</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -8335,10 +8428,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>573</v>
+        <v>600</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>574</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -8346,10 +8439,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>575</v>
+        <v>602</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>576</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -8360,13 +8453,13 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>577</v>
+        <v>604</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>578</v>
+        <v>605</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>579</v>
+        <v>606</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>75</v>
@@ -8374,10 +8467,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -8385,10 +8478,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>582</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -8401,34 +8494,34 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>583</v>
+        <v>610</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>584</v>
+        <v>611</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>585</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>586</v>
+        <v>613</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>587</v>
+        <v>614</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>589</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -8438,10 +8531,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>590</v>
+        <v>617</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>591</v>
+        <v>618</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -8449,10 +8542,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>592</v>
+        <v>619</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>593</v>
+        <v>620</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -8462,15 +8555,15 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>594</v>
+        <v>621</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>595</v>
+        <v>622</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>596</v>
+        <v>623</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8478,10 +8571,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>597</v>
+        <v>624</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>598</v>
+        <v>625</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -8494,23 +8587,23 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>599</v>
+        <v>626</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>600</v>
+        <v>627</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>601</v>
+        <v>628</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>602</v>
+        <v>629</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -8518,10 +8611,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>603</v>
+        <v>630</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>604</v>
+        <v>631</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -8534,23 +8627,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>605</v>
+        <v>632</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>606</v>
+        <v>633</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>608</v>
+        <v>635</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8558,10 +8651,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>610</v>
+        <v>637</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>611</v>
+        <v>638</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -8574,10 +8667,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>612</v>
+        <v>639</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>613</v>
+        <v>640</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8585,10 +8678,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>614</v>
+        <v>641</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>615</v>
+        <v>642</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -8601,23 +8694,23 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>616</v>
+        <v>643</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>617</v>
+        <v>644</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -8625,10 +8718,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>621</v>
+        <v>648</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -8641,10 +8734,10 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>623</v>
+        <v>650</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8652,27 +8745,27 @@
         <v>67</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>624</v>
+        <v>651</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>625</v>
+        <v>652</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
       <c r="AA84" s="6" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>628</v>
+        <v>655</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>75</v>
@@ -8680,10 +8773,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>632</v>
+        <v>659</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8691,27 +8784,27 @@
         <v>67</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="AA88" s="6" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>637</v>
+        <v>664</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>635</v>
+        <v>665</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>638</v>
+        <v>666</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>75</v>
@@ -8719,23 +8812,23 @@
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>640</v>
+        <v>668</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>641</v>
+        <v>669</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>642</v>
+        <v>670</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="24" customHeight="1">
@@ -8743,10 +8836,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>643</v>
+        <v>671</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>644</v>
+        <v>672</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8754,23 +8847,23 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>645</v>
+        <v>673</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>646</v>
+        <v>674</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>647</v>
+        <v>675</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>648</v>
+        <v>676</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -8778,10 +8871,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>649</v>
+        <v>677</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>650</v>
+        <v>678</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8789,34 +8882,34 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>651</v>
+        <v>679</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>652</v>
+        <v>680</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>653</v>
+        <v>681</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>654</v>
+        <v>682</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>587</v>
+        <v>614</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>655</v>
+        <v>683</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -8824,10 +8917,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>656</v>
+        <v>684</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>591</v>
+        <v>618</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8835,10 +8928,10 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>592</v>
+        <v>619</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>657</v>
+        <v>685</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -8851,10 +8944,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>658</v>
+        <v>686</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8862,10 +8955,10 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>661</v>
+        <v>689</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -8878,10 +8971,10 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>662</v>
+        <v>690</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -8889,10 +8982,10 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>663</v>
+        <v>691</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>664</v>
+        <v>692</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -8905,34 +8998,34 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>665</v>
+        <v>693</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>666</v>
+        <v>694</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>667</v>
+        <v>695</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>668</v>
+        <v>696</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>587</v>
+        <v>614</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>588</v>
+        <v>615</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>669</v>
+        <v>697</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -8940,10 +9033,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>591</v>
+        <v>618</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -8951,10 +9044,10 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>592</v>
+        <v>619</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>671</v>
+        <v>699</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -8964,15 +9057,15 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11" t="s">
-        <v>672</v>
+        <v>700</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>673</v>
+        <v>701</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -8980,10 +9073,10 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>674</v>
+        <v>702</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -8996,10 +9089,10 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>675</v>
+        <v>703</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -9007,10 +9100,10 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>663</v>
+        <v>691</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>676</v>
+        <v>704</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -9023,34 +9116,34 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>677</v>
+        <v>705</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>678</v>
+        <v>706</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>679</v>
+        <v>707</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>680</v>
+        <v>708</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>681</v>
+        <v>709</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>682</v>
+        <v>710</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>683</v>
+        <v>711</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -9058,10 +9151,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>684</v>
+        <v>712</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>685</v>
+        <v>713</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -9069,10 +9162,10 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>686</v>
+        <v>714</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>687</v>
+        <v>715</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -9085,10 +9178,10 @@
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>688</v>
+        <v>716</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>659</v>
+        <v>687</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -9096,10 +9189,10 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>660</v>
+        <v>688</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>689</v>
+        <v>717</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -9112,10 +9205,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>690</v>
+        <v>718</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -9123,10 +9216,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">

--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_land.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="843">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -237,19 +237,19 @@
     <t>cmip6.land.key_properties.land_atmosphere_flux_exchanges</t>
   </si>
   <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>carbon</t>
-  </si>
-  <si>
-    <t>nitrogen</t>
-  </si>
-  <si>
-    <t>phospherous</t>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Carbon</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>Phospherous</t>
   </si>
   <si>
     <t>Other: document in cell to the right</t>
@@ -282,27 +282,21 @@
     <t>Other: ice</t>
   </si>
   <si>
-    <t>bare soil</t>
-  </si>
-  <si>
-    <t>urban</t>
-  </si>
-  <si>
-    <t>lake</t>
-  </si>
-  <si>
-    <t>land ice</t>
-  </si>
-  <si>
-    <t>lake ice</t>
-  </si>
-  <si>
-    <t>vegetated</t>
-  </si>
-  <si>
     <t>Bare soil</t>
   </si>
   <si>
+    <t>Urban</t>
+  </si>
+  <si>
+    <t>Lake</t>
+  </si>
+  <si>
+    <t>Land ice</t>
+  </si>
+  <si>
+    <t>Lake ice</t>
+  </si>
+  <si>
     <t>Vegetated</t>
   </si>
   <si>
@@ -342,9 +336,6 @@
     <t xml:space="preserve">1.2.1.1 </t>
   </si>
   <si>
-    <t>Energy</t>
-  </si>
-  <si>
     <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -354,9 +345,6 @@
     <t xml:space="preserve">1.2.1.2 </t>
   </si>
   <si>
-    <t>Water</t>
-  </si>
-  <si>
     <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -366,9 +354,6 @@
     <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
-    <t>Carbon</t>
-  </si>
-  <si>
     <t>Describe if/how carbon is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -777,13 +762,13 @@
     <t>cmip6.land.soil.snow_free_albedo.functions</t>
   </si>
   <si>
-    <t>vegetation type</t>
-  </si>
-  <si>
-    <t>soil humidity</t>
-  </si>
-  <si>
-    <t>vegetation state</t>
+    <t>Vegetation type</t>
+  </si>
+  <si>
+    <t>Soil humidity</t>
+  </si>
+  <si>
+    <t>Vegetation state</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.3 </t>
@@ -798,10 +783,10 @@
     <t>cmip6.land.soil.snow_free_albedo.direct_diffuse</t>
   </si>
   <si>
-    <t>distinction between direct and diffuse albedo</t>
-  </si>
-  <si>
-    <t>no distinction between direct and diffuse albedo</t>
+    <t>Distinction between direct and diffuse albedo</t>
+  </si>
+  <si>
+    <t>No distinction between direct and diffuse albedo</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.4 </t>
@@ -888,10 +873,10 @@
     <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
   </si>
   <si>
-    <t>perfect connectivity: Common soil for multiple tiles</t>
-  </si>
-  <si>
-    <t>Darcian flow: Darcian flow among hillslope tiles</t>
+    <t>Perfect connectivity</t>
+  </si>
+  <si>
+    <t>Darcian flow</t>
   </si>
   <si>
     <t>3.4.1.7 *</t>
@@ -1002,7 +987,7 @@
     <t>Horton mechanism</t>
   </si>
   <si>
-    <t>topmodel-based</t>
+    <t>Topmodel-based</t>
   </si>
   <si>
     <t>Dunne mechanism</t>
@@ -1083,10 +1068,7 @@
     <t>Soil moisture freeze-thaw</t>
   </si>
   <si>
-    <t>soil moisture freeze-thaw</t>
-  </si>
-  <si>
-    <t>coupling with snow temperature</t>
+    <t>Coupling with snow temperature</t>
   </si>
   <si>
     <t>4.1.1</t>
@@ -1149,10 +1131,7 @@
     <t>cmip6.land.snow.density</t>
   </si>
   <si>
-    <t>prognostic</t>
-  </si>
-  <si>
-    <t>constant</t>
+    <t>Constant</t>
   </si>
   <si>
     <t>4.1.1.6 *</t>
@@ -1167,7 +1146,7 @@
     <t>cmip6.land.snow.water_equivalent</t>
   </si>
   <si>
-    <t>diagnostic</t>
+    <t>Diagnostic</t>
   </si>
   <si>
     <t>4.1.1.7 *</t>
@@ -1194,9 +1173,6 @@
     <t>cmip6.land.snow.temperature</t>
   </si>
   <si>
-    <t>Diagnostic</t>
-  </si>
-  <si>
     <t>4.1.1.9 *</t>
   </si>
   <si>
@@ -1224,12 +1200,6 @@
     <t>Ground snow fraction</t>
   </si>
   <si>
-    <t>ground snow fraction</t>
-  </si>
-  <si>
-    <t>vegetation snow fraction</t>
-  </si>
-  <si>
     <t>Vegetation snow fraction</t>
   </si>
   <si>
@@ -1245,24 +1215,18 @@
     <t>Other: snow refreezing</t>
   </si>
   <si>
-    <t>snow interception</t>
-  </si>
-  <si>
-    <t>snow melting</t>
-  </si>
-  <si>
-    <t>snow freezing</t>
-  </si>
-  <si>
-    <t>blowing snow</t>
-  </si>
-  <si>
     <t>Snow interception</t>
   </si>
   <si>
     <t>Snow melting</t>
   </si>
   <si>
+    <t>Snow freezing</t>
+  </si>
+  <si>
+    <t>Blowing snow</t>
+  </si>
+  <si>
     <t>4.1.1.12 *</t>
   </si>
   <si>
@@ -1293,7 +1257,7 @@
     <t>cmip6.land.snow.snow_albedo.type</t>
   </si>
   <si>
-    <t>prescribed</t>
+    <t>Prescribed</t>
   </si>
   <si>
     <t xml:space="preserve">4.2.1.2 </t>
@@ -1308,16 +1272,7 @@
     <t>Aerosol deposition</t>
   </si>
   <si>
-    <t>snow age</t>
-  </si>
-  <si>
-    <t>snow density</t>
-  </si>
-  <si>
-    <t>snow grain type</t>
-  </si>
-  <si>
-    <t>aerosol deposition</t>
+    <t>Snow age</t>
   </si>
   <si>
     <t>Snow density</t>
@@ -1326,9 +1281,6 @@
     <t>Snow grain type</t>
   </si>
   <si>
-    <t>Vegetation type</t>
-  </si>
-  <si>
     <t>5.1.1</t>
   </si>
   <si>
@@ -1401,10 +1353,7 @@
     <t>Vegetation types</t>
   </si>
   <si>
-    <t>vegetation types</t>
-  </si>
-  <si>
-    <t>biome types</t>
+    <t>Biome types</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.7 </t>
@@ -1422,21 +1371,15 @@
     <t>C3 grass</t>
   </si>
   <si>
-    <t>broadleaf tree</t>
-  </si>
-  <si>
-    <t>needleleaf tree</t>
+    <t>Broadleaf tree</t>
+  </si>
+  <si>
+    <t>Needleleaf tree</t>
   </si>
   <si>
     <t>C4 grass</t>
   </si>
   <si>
-    <t>Broadleaf tree</t>
-  </si>
-  <si>
-    <t>Needleleaf tree</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.8 </t>
   </si>
   <si>
@@ -1449,40 +1392,40 @@
     <t>cmip6.land.vegetation.biome_types</t>
   </si>
   <si>
-    <t>evergreen needleleaf forest</t>
-  </si>
-  <si>
-    <t>evergreen broadleaf forest</t>
-  </si>
-  <si>
-    <t>deciduous needleleaf forest</t>
-  </si>
-  <si>
-    <t>deciduous broadleaf forest</t>
-  </si>
-  <si>
-    <t>mixed forest</t>
-  </si>
-  <si>
-    <t>woodland</t>
-  </si>
-  <si>
-    <t>wooded grassland</t>
-  </si>
-  <si>
-    <t>closed shrubland</t>
-  </si>
-  <si>
-    <t>opne shrubland</t>
-  </si>
-  <si>
-    <t>grassland</t>
-  </si>
-  <si>
-    <t>cropland</t>
-  </si>
-  <si>
-    <t>wetlands</t>
+    <t>Evergreen needleleaf forest</t>
+  </si>
+  <si>
+    <t>Evergreen broadleaf forest</t>
+  </si>
+  <si>
+    <t>Deciduous needleleaf forest</t>
+  </si>
+  <si>
+    <t>Deciduous broadleaf forest</t>
+  </si>
+  <si>
+    <t>Mixed forest</t>
+  </si>
+  <si>
+    <t>Woodland</t>
+  </si>
+  <si>
+    <t>Wooded grassland</t>
+  </si>
+  <si>
+    <t>Closed shrubland</t>
+  </si>
+  <si>
+    <t>Opne shrubland</t>
+  </si>
+  <si>
+    <t>Grassland</t>
+  </si>
+  <si>
+    <t>Cropland</t>
+  </si>
+  <si>
+    <t>Wetlands</t>
   </si>
   <si>
     <t>5.1.1.9 *</t>
@@ -1500,13 +1443,10 @@
     <t>Prescribed (varying from files)</t>
   </si>
   <si>
-    <t>fixed (not varying)</t>
-  </si>
-  <si>
-    <t>prescribed (varying from files)</t>
-  </si>
-  <si>
-    <t>dynamical (varying from simulation)</t>
+    <t>Fixed (not varying)</t>
+  </si>
+  <si>
+    <t>Dynamical (varying from simulation)</t>
   </si>
   <si>
     <t xml:space="preserve">5.1.1.10 </t>
@@ -1548,9 +1488,6 @@
     <t>Diagnostic (vegetation map)</t>
   </si>
   <si>
-    <t>diagnostic (vegetation map)</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.13 </t>
   </si>
   <si>
@@ -1575,9 +1512,6 @@
     <t>cmip6.land.vegetation.leaf_area_index</t>
   </si>
   <si>
-    <t>Prescribed</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.15 </t>
   </si>
   <si>
@@ -1653,24 +1587,15 @@
     <t>CO2</t>
   </si>
   <si>
-    <t>light</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
-    <t>water availability</t>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Water availability</t>
   </si>
   <si>
     <t>O3</t>
   </si>
   <si>
-    <t>Light</t>
-  </si>
-  <si>
-    <t>Water availability</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.21 </t>
   </si>
   <si>
@@ -1755,13 +1680,10 @@
     <t>Combined</t>
   </si>
   <si>
-    <t>alpha</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>combined</t>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Beta</t>
   </si>
   <si>
     <t>Monteith potential evaporation</t>
@@ -1779,9 +1701,6 @@
     <t>Transpiration</t>
   </si>
   <si>
-    <t>transpiration</t>
-  </si>
-  <si>
     <t>7.1.1</t>
   </si>
   <si>
@@ -1839,13 +1758,13 @@
     <t>cmip6.land.carbon_cycle.anthropogenic_carbon</t>
   </si>
   <si>
-    <t>grand slam protocol</t>
-  </si>
-  <si>
-    <t>residence time</t>
-  </si>
-  <si>
-    <t>decay time</t>
+    <t>Grand slam protocol</t>
+  </si>
+  <si>
+    <t>Residence time</t>
+  </si>
+  <si>
+    <t>Decay time</t>
   </si>
   <si>
     <t>7.1.1.6 *</t>
@@ -1989,16 +1908,16 @@
     <t>Other: leaves + stems and roots (leafy + woody)</t>
   </si>
   <si>
-    <t>leaves + stems + roots</t>
-  </si>
-  <si>
-    <t>leaves + stems + roots (leafy + woody)</t>
-  </si>
-  <si>
-    <t>leaves + fine roots + coarse roots + stems</t>
-  </si>
-  <si>
-    <t>whole plant (no distinction)</t>
+    <t>Leaves + stems + roots</t>
+  </si>
+  <si>
+    <t>Leaves + stems + roots (leafy + woody)</t>
+  </si>
+  <si>
+    <t>Leaves + fine roots + coarse roots + stems</t>
+  </si>
+  <si>
+    <t>Whole plant (no distinction)</t>
   </si>
   <si>
     <t>7.2.4.3 *</t>
@@ -2016,16 +1935,13 @@
     <t>Function of plant allometry</t>
   </si>
   <si>
-    <t>fixed</t>
-  </si>
-  <si>
-    <t>function of vegetation type</t>
-  </si>
-  <si>
-    <t>function of plant allometry</t>
-  </si>
-  <si>
-    <t>explicitly calculated</t>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Function of vegetation type</t>
+  </si>
+  <si>
+    <t>Explicitly calculated</t>
   </si>
   <si>
     <t>7.2.5</t>
@@ -2340,10 +2256,10 @@
     <t>cmip6.land.river_routing.water_re_evaporation</t>
   </si>
   <si>
-    <t>flood plains</t>
-  </si>
-  <si>
-    <t>irrigation</t>
+    <t>Flood plains</t>
+  </si>
+  <si>
+    <t>Irrigation</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.9 </t>
@@ -2382,10 +2298,10 @@
     <t>cmip6.land.river_routing.quantities_exchanged_with_atmosphere</t>
   </si>
   <si>
-    <t>heat</t>
-  </si>
-  <si>
-    <t>tracers</t>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>Tracers</t>
   </si>
   <si>
     <t>9.1.1.12 *</t>
@@ -2403,10 +2319,7 @@
     <t>Present day</t>
   </si>
   <si>
-    <t>present day</t>
-  </si>
-  <si>
-    <t>adapted for other periods</t>
+    <t>Adapted for other periods</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.13 </t>
@@ -2454,10 +2367,7 @@
     <t>Direct (large rivers)</t>
   </si>
   <si>
-    <t>direct (large rivers)</t>
-  </si>
-  <si>
-    <t>diffuse</t>
+    <t>Diffuse</t>
   </si>
   <si>
     <t>9.2.1.2 *</t>
@@ -2472,9 +2382,6 @@
     <t>cmip6.land.river_routing.oceanic_discharge.quantities_transported</t>
   </si>
   <si>
-    <t>Heat</t>
-  </si>
-  <si>
     <t>10.1.1</t>
   </si>
   <si>
@@ -2601,10 +2508,10 @@
     <t>No lake dynamics</t>
   </si>
   <si>
-    <t>vertical</t>
-  </si>
-  <si>
-    <t>horizontal</t>
+    <t>Vertical</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
   </si>
   <si>
     <t>10.2.1.4 *</t>
@@ -3307,20 +3214,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>722</v>
+        <v>694</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>723</v>
+        <v>695</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>724</v>
+        <v>696</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>725</v>
+        <v>697</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3331,10 +3238,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>726</v>
+        <v>698</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>727</v>
+        <v>699</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3342,7 +3249,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>728</v>
+        <v>700</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3353,10 +3260,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>729</v>
+        <v>701</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>730</v>
+        <v>702</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3369,10 +3276,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>731</v>
+        <v>703</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3380,10 +3287,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>732</v>
+        <v>704</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>733</v>
+        <v>705</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3396,21 +3303,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>734</v>
+        <v>706</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>735</v>
+        <v>707</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>736</v>
+        <v>708</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3418,10 +3325,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>737</v>
+        <v>709</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3429,10 +3336,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>738</v>
+        <v>710</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>739</v>
+        <v>711</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3469,20 +3376,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>740</v>
+        <v>712</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>741</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>743</v>
+        <v>715</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3493,10 +3400,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>744</v>
+        <v>716</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>745</v>
+        <v>717</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3504,7 +3411,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>746</v>
+        <v>718</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3515,10 +3422,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>747</v>
+        <v>719</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>748</v>
+        <v>720</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3531,10 +3438,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>749</v>
+        <v>721</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3542,10 +3449,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>750</v>
+        <v>722</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>751</v>
+        <v>723</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3558,21 +3465,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>752</v>
+        <v>724</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>753</v>
+        <v>725</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>754</v>
+        <v>726</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3580,21 +3487,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>755</v>
+        <v>727</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>756</v>
+        <v>728</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>758</v>
+        <v>730</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3602,10 +3509,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>759</v>
+        <v>731</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3613,10 +3520,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>761</v>
+        <v>733</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3624,21 +3531,21 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3646,10 +3553,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>767</v>
+        <v>739</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>768</v>
+        <v>740</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -3657,10 +3564,10 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>769</v>
+        <v>741</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>770</v>
+        <v>742</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3671,10 +3578,10 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>771</v>
+        <v>743</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>772</v>
+        <v>744</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>75</v>
@@ -3682,21 +3589,21 @@
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>773</v>
+        <v>745</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>774</v>
+        <v>746</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>775</v>
+        <v>747</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>776</v>
+        <v>748</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -3706,10 +3613,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>777</v>
+        <v>749</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>778</v>
+        <v>750</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3717,10 +3624,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>779</v>
+        <v>751</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>780</v>
+        <v>752</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -3733,10 +3640,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>781</v>
+        <v>753</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>782</v>
+        <v>754</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -3744,10 +3651,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>783</v>
+        <v>755</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>784</v>
+        <v>756</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3758,13 +3665,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="AB51" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>75</v>
@@ -3772,10 +3679,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>787</v>
+        <v>759</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>788</v>
+        <v>760</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -3783,21 +3690,21 @@
         <v>67</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>789</v>
+        <v>761</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>790</v>
+        <v>762</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>791</v>
+        <v>763</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>792</v>
+        <v>763</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>793</v>
+        <v>764</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>75</v>
@@ -3805,10 +3712,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>794</v>
+        <v>765</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>795</v>
+        <v>766</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3816,10 +3723,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>796</v>
+        <v>767</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>797</v>
+        <v>768</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -3832,10 +3739,10 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>798</v>
+        <v>769</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3843,10 +3750,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>799</v>
+        <v>770</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>800</v>
+        <v>771</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
@@ -3859,23 +3766,23 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>801</v>
+        <v>772</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>802</v>
+        <v>773</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>803</v>
+        <v>774</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>804</v>
+        <v>775</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>805</v>
+        <v>776</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3883,21 +3790,21 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>806</v>
+        <v>777</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>807</v>
+        <v>778</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>808</v>
+        <v>779</v>
       </c>
       <c r="AA73" s="6" t="s">
-        <v>809</v>
+        <v>779</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>810</v>
+        <v>780</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>75</v>
@@ -3905,10 +3812,10 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>811</v>
+        <v>781</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>812</v>
+        <v>782</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
@@ -3916,10 +3823,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>813</v>
+        <v>783</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>814</v>
+        <v>784</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3929,16 +3836,16 @@
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11" t="s">
-        <v>815</v>
+        <v>757</v>
       </c>
       <c r="AA78" s="6" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="AB78" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="AD78" s="6" t="s">
         <v>75</v>
@@ -3946,16 +3853,16 @@
     </row>
     <row r="79" spans="1:30" ht="24" customHeight="1">
       <c r="B79" s="11" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="AA79" s="6" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="AB79" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC79" s="6" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="AD79" s="6" t="s">
         <v>75</v>
@@ -4014,20 +3921,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>816</v>
+        <v>785</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>817</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>818</v>
+        <v>787</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>819</v>
+        <v>788</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -4038,10 +3945,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>820</v>
+        <v>789</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>821</v>
+        <v>790</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4049,7 +3956,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>822</v>
+        <v>791</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -4060,10 +3967,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>823</v>
+        <v>792</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>824</v>
+        <v>793</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -4076,21 +3983,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>825</v>
+        <v>794</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>826</v>
+        <v>795</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>827</v>
+        <v>796</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>828</v>
+        <v>797</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -4100,21 +4007,21 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>829</v>
+        <v>798</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>830</v>
+        <v>799</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>831</v>
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4122,10 +4029,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>832</v>
+        <v>801</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>833</v>
+        <v>802</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4133,10 +4040,10 @@
         <v>67</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>834</v>
+        <v>803</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>835</v>
+        <v>804</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4146,16 +4053,16 @@
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>815</v>
+        <v>757</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>75</v>
@@ -4163,16 +4070,16 @@
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>785</v>
+        <v>757</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>786</v>
+        <v>758</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>75</v>
@@ -4180,10 +4087,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>836</v>
+        <v>805</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>837</v>
+        <v>806</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4191,10 +4098,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>838</v>
+        <v>807</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>839</v>
+        <v>808</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -4202,10 +4109,10 @@
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>840</v>
+        <v>809</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4213,10 +4120,10 @@
         <v>46</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>841</v>
+        <v>810</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>842</v>
+        <v>811</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
@@ -4229,34 +4136,34 @@
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>843</v>
+        <v>812</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>844</v>
+        <v>813</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="B38" s="13" t="s">
-        <v>845</v>
+        <v>814</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>846</v>
+        <v>815</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>847</v>
+        <v>816</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>848</v>
+        <v>817</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>849</v>
+        <v>818</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
@@ -4266,10 +4173,10 @@
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>850</v>
+        <v>819</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -4277,21 +4184,21 @@
         <v>67</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>851</v>
+        <v>820</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>852</v>
+        <v>821</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>75</v>
@@ -4299,10 +4206,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>853</v>
+        <v>822</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>854</v>
+        <v>823</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4310,10 +4217,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>855</v>
+        <v>824</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>856</v>
+        <v>825</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -4324,13 +4231,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>857</v>
+        <v>826</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>858</v>
+        <v>827</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>859</v>
+        <v>828</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>75</v>
@@ -4338,21 +4245,21 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>860</v>
+        <v>829</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>861</v>
+        <v>830</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>862</v>
+        <v>831</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>863</v>
+        <v>832</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -4362,21 +4269,21 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>864</v>
+        <v>833</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>865</v>
+        <v>834</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>866</v>
+        <v>835</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>867</v>
+        <v>836</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -4386,20 +4293,20 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>868</v>
+        <v>837</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>869</v>
+        <v>838</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>870</v>
+        <v>839</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>871</v>
+        <v>840</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>62</v>
@@ -4410,10 +4317,10 @@
         <v>46</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>872</v>
+        <v>841</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>873</v>
+        <v>842</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -4808,7 +4715,7 @@
     </row>
     <row r="36" spans="1:33" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AA36" s="6" t="s">
         <v>85</v>
@@ -4834,7 +4741,7 @@
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA37" s="6" t="s">
         <v>85</v>
@@ -4860,10 +4767,10 @@
     </row>
     <row r="39" spans="1:33" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:33" ht="24" customHeight="1">
@@ -4871,10 +4778,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:33" ht="24" customHeight="1">
@@ -4882,10 +4789,10 @@
     </row>
     <row r="43" spans="1:33" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:33" ht="24" customHeight="1">
@@ -4893,10 +4800,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="24" customHeight="1">
@@ -4909,23 +4816,23 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="B50" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -4933,10 +4840,10 @@
         <v>46</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -4949,10 +4856,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>109</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -4960,10 +4867,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -4976,10 +4883,10 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
@@ -4987,10 +4894,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -5003,34 +4910,34 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
@@ -5038,21 +4945,21 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -5060,10 +4967,10 @@
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
@@ -5071,10 +4978,10 @@
         <v>46</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
@@ -5082,23 +4989,23 @@
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="B85" s="13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
@@ -5106,10 +5013,10 @@
         <v>46</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -5117,10 +5024,10 @@
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
@@ -5128,10 +5035,10 @@
         <v>46</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -5139,10 +5046,10 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
@@ -5150,10 +5057,10 @@
         <v>46</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -5166,20 +5073,20 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="12" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="B102" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>62</v>
@@ -5190,10 +5097,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -5245,20 +5152,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5269,10 +5176,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5280,7 +5187,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5291,10 +5198,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5307,20 +5214,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>62</v>
@@ -5331,10 +5238,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5347,21 +5254,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -5369,20 +5276,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>62</v>
@@ -5393,10 +5300,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5409,21 +5316,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5458,20 +5365,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5482,10 +5389,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5493,7 +5400,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5504,10 +5411,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5520,10 +5427,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -5531,10 +5438,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -5542,21 +5449,21 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5564,10 +5471,10 @@
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
@@ -5575,10 +5482,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -5591,20 +5498,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>62</v>
@@ -5615,10 +5522,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5631,10 +5538,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -5642,23 +5549,23 @@
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -5666,23 +5573,23 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -5690,10 +5597,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -5701,10 +5608,10 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -5712,23 +5619,23 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -5736,10 +5643,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -5747,21 +5654,21 @@
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -5769,10 +5676,10 @@
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -5780,10 +5687,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -5791,34 +5698,34 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -5826,10 +5733,10 @@
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -5837,10 +5744,10 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -5851,13 +5758,13 @@
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="AD74" s="6" t="s">
         <v>75</v>
@@ -5865,10 +5772,10 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -5876,19 +5783,19 @@
         <v>67</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AC78" s="6" t="s">
         <v>75</v>
@@ -5896,21 +5803,21 @@
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -5918,20 +5825,20 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>62</v>
@@ -5942,10 +5849,10 @@
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -5958,21 +5865,21 @@
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -5980,10 +5887,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -5991,10 +5898,10 @@
         <v>46</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -6007,10 +5914,10 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -6018,10 +5925,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -6034,21 +5941,21 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -6056,10 +5963,10 @@
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -6067,10 +5974,10 @@
         <v>67</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:31" ht="24" customHeight="1">
@@ -6081,10 +5988,10 @@
     <row r="114" spans="1:31" ht="24" customHeight="1">
       <c r="B114" s="11"/>
       <c r="AA114" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AB114" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AC114" s="6" t="s">
         <v>75</v>
@@ -6092,10 +5999,10 @@
     </row>
     <row r="116" spans="1:31" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="1:31" ht="24" customHeight="1">
@@ -6103,27 +6010,27 @@
         <v>67</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="118" spans="1:31" ht="24" customHeight="1">
       <c r="B118" s="11" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AA118" s="6" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="AB118" s="6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AC118" s="6" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="AD118" s="6" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AE118" s="6" t="s">
         <v>75</v>
@@ -6131,34 +6038,34 @@
     </row>
     <row r="121" spans="1:31" ht="24" customHeight="1">
       <c r="A121" s="12" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="122" spans="1:31" ht="24" customHeight="1">
       <c r="B122" s="13" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="124" spans="1:31" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="125" spans="1:31" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="126" spans="1:31" ht="24" customHeight="1">
@@ -6166,10 +6073,10 @@
     </row>
     <row r="128" spans="1:31" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -6177,23 +6084,23 @@
         <v>46</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="B130" s="11" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
@@ -6201,10 +6108,10 @@
         <v>46</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -6217,20 +6124,20 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="12" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="9" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>62</v>
@@ -6241,10 +6148,10 @@
         <v>46</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -6257,10 +6164,10 @@
     </row>
     <row r="146" spans="1:33" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
@@ -6268,10 +6175,10 @@
         <v>67</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
@@ -6282,22 +6189,22 @@
     <row r="149" spans="1:33" ht="24" customHeight="1">
       <c r="B149" s="11"/>
       <c r="AA149" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="AB149" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="AC149" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="AD149" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="AE149" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF149" s="6" t="s">
         <v>323</v>
-      </c>
-      <c r="AB149" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="AC149" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="AD149" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="AE149" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="AF149" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="AG149" s="6" t="s">
         <v>75</v>
@@ -6305,20 +6212,20 @@
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="12" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="153" spans="1:33" ht="24" customHeight="1">
       <c r="B153" s="13" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>62</v>
@@ -6329,10 +6236,10 @@
         <v>46</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="157" spans="1:33" ht="24" customHeight="1">
@@ -6345,21 +6252,21 @@
     </row>
     <row r="160" spans="1:33" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="161" spans="1:29" ht="24" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="162" spans="1:29" ht="24" customHeight="1">
@@ -6367,10 +6274,10 @@
     </row>
     <row r="164" spans="1:29" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="165" spans="1:29" ht="24" customHeight="1">
@@ -6378,10 +6285,10 @@
         <v>46</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="24" customHeight="1">
@@ -6394,10 +6301,10 @@
     </row>
     <row r="169" spans="1:29" ht="24" customHeight="1">
       <c r="A169" s="9" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="170" spans="1:29" ht="24" customHeight="1">
@@ -6405,10 +6312,10 @@
         <v>46</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="24" customHeight="1">
@@ -6421,10 +6328,10 @@
     </row>
     <row r="174" spans="1:29" ht="24" customHeight="1">
       <c r="A174" s="9" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="175" spans="1:29" ht="24" customHeight="1">
@@ -6432,21 +6339,21 @@
         <v>67</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="24" customHeight="1">
       <c r="B176" s="11" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AA176" s="6" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AB176" s="6" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="AC176" s="6" t="s">
         <v>75</v>
@@ -6454,10 +6361,10 @@
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="24" customHeight="1">
@@ -6465,10 +6372,10 @@
         <v>67</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="180" spans="1:29" ht="24" customHeight="1">
@@ -6478,13 +6385,13 @@
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
       <c r="B181" s="11" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AA181" s="6" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="AB181" s="6" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AC181" s="6" t="s">
         <v>75</v>
@@ -6558,20 +6465,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6582,10 +6489,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6593,7 +6500,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6604,10 +6511,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6620,10 +6527,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -6631,10 +6538,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6647,21 +6554,21 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
@@ -6671,10 +6578,10 @@
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -6682,21 +6589,21 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>75</v>
@@ -6704,10 +6611,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -6715,21 +6622,21 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -6737,10 +6644,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -6748,21 +6655,21 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>75</v>
@@ -6770,10 +6677,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -6781,21 +6688,21 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>75</v>
@@ -6803,10 +6710,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -6814,21 +6721,21 @@
         <v>67</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>75</v>
@@ -6836,10 +6743,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -6847,10 +6754,10 @@
         <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6860,13 +6767,13 @@
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>75</v>
@@ -6874,13 +6781,13 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>75</v>
@@ -6888,10 +6795,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
@@ -6899,10 +6806,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6912,19 +6819,19 @@
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="AE51" s="6" t="s">
         <v>75</v>
@@ -6932,19 +6839,19 @@
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>75</v>
@@ -6952,19 +6859,19 @@
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="AE53" s="6" t="s">
         <v>75</v>
@@ -6972,10 +6879,10 @@
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6983,10 +6890,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
@@ -6999,23 +6906,23 @@
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
@@ -7023,24 +6930,24 @@
         <v>67</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>75</v>
@@ -7048,10 +6955,10 @@
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="24" customHeight="1">
@@ -7059,10 +6966,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
@@ -7072,22 +6979,22 @@
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
       <c r="B71" s="11" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="AA71" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AB71" s="6" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="AE71" s="6" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="AF71" s="6" t="s">
         <v>75</v>
@@ -7095,22 +7002,22 @@
     </row>
     <row r="72" spans="1:32" ht="24" customHeight="1">
       <c r="B72" s="11" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="AA72" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AB72" s="6" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="AC72" s="6" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="AD72" s="6" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="AE72" s="6" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="AF72" s="6" t="s">
         <v>75</v>
@@ -7118,22 +7025,22 @@
     </row>
     <row r="73" spans="1:32" ht="24" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="AA73" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="AC73" s="6" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="AD73" s="6" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="AE73" s="6" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="AF73" s="6" t="s">
         <v>75</v>
@@ -7141,22 +7048,22 @@
     </row>
     <row r="74" spans="1:32" ht="24" customHeight="1">
       <c r="B74" s="11" t="s">
-        <v>433</v>
+        <v>245</v>
       </c>
       <c r="AA74" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="AD74" s="6" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="AE74" s="6" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="AF74" s="6" t="s">
         <v>75</v>
@@ -7233,20 +7140,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7257,10 +7164,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7268,7 +7175,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7279,10 +7186,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7295,21 +7202,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7317,21 +7224,21 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -7339,10 +7246,10 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
@@ -7350,10 +7257,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -7366,10 +7273,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -7377,21 +7284,21 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -7399,10 +7306,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -7410,10 +7317,10 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7423,19 +7330,19 @@
     </row>
     <row r="33" spans="1:39" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="AE33" s="6" t="s">
         <v>90</v>
@@ -7446,19 +7353,19 @@
     </row>
     <row r="34" spans="1:39" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="AE34" s="6" t="s">
         <v>90</v>
@@ -7469,19 +7376,19 @@
     </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="AE35" s="6" t="s">
         <v>90</v>
@@ -7492,10 +7399,10 @@
     </row>
     <row r="37" spans="1:39" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="24" customHeight="1">
@@ -7503,10 +7410,10 @@
         <v>67</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
     </row>
     <row r="39" spans="1:39" ht="24" customHeight="1">
@@ -7517,40 +7424,40 @@
     <row r="40" spans="1:39" ht="24" customHeight="1">
       <c r="B40" s="11"/>
       <c r="AA40" s="6" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="AJ40" s="6" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="AK40" s="6" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="AL40" s="6" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="AM40" s="6" t="s">
         <v>75</v>
@@ -7558,10 +7465,10 @@
     </row>
     <row r="42" spans="1:39" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="1:39" ht="24" customHeight="1">
@@ -7569,24 +7476,24 @@
         <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
       <c r="B44" s="11" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>492</v>
+        <v>471</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="AD44" s="6" t="s">
         <v>75</v>
@@ -7594,10 +7501,10 @@
     </row>
     <row r="46" spans="1:39" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>494</v>
+        <v>474</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>495</v>
+        <v>475</v>
       </c>
     </row>
     <row r="47" spans="1:39" ht="24" customHeight="1">
@@ -7605,10 +7512,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>496</v>
+        <v>476</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>497</v>
+        <v>477</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
@@ -7616,21 +7523,21 @@
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>498</v>
+        <v>478</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>499</v>
+        <v>479</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>500</v>
+        <v>480</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>501</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -7640,10 +7547,10 @@
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>502</v>
+        <v>482</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>503</v>
+        <v>483</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
@@ -7651,21 +7558,21 @@
         <v>67</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>504</v>
+        <v>484</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>505</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>507</v>
+        <v>486</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>75</v>
@@ -7673,10 +7580,10 @@
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>508</v>
+        <v>487</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>509</v>
+        <v>488</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
@@ -7684,10 +7591,10 @@
         <v>46</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>510</v>
+        <v>489</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>511</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -7700,10 +7607,10 @@
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>512</v>
+        <v>491</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>513</v>
+        <v>492</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -7711,24 +7618,24 @@
         <v>67</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>515</v>
+        <v>494</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="11" t="s">
-        <v>516</v>
+        <v>410</v>
       </c>
       <c r="AA65" s="6" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="AB65" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AC65" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AD65" s="6" t="s">
         <v>75</v>
@@ -7736,10 +7643,10 @@
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
@@ -7747,10 +7654,10 @@
         <v>46</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -7763,10 +7670,10 @@
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -7774,19 +7681,19 @@
         <v>67</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AC74" s="6" t="s">
         <v>75</v>
@@ -7794,10 +7701,10 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -7805,10 +7712,10 @@
         <v>46</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7821,10 +7728,10 @@
     </row>
     <row r="81" spans="1:32" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
@@ -7832,19 +7739,19 @@
         <v>67</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
       <c r="B83" s="11"/>
       <c r="AA83" s="6" t="s">
-        <v>374</v>
+        <v>238</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="AC83" s="6" t="s">
         <v>75</v>
@@ -7852,10 +7759,10 @@
     </row>
     <row r="85" spans="1:32" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
@@ -7863,10 +7770,10 @@
         <v>46</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
@@ -7879,10 +7786,10 @@
     </row>
     <row r="90" spans="1:32" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>537</v>
+        <v>515</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>538</v>
+        <v>516</v>
       </c>
     </row>
     <row r="91" spans="1:32" ht="24" customHeight="1">
@@ -7890,10 +7797,10 @@
         <v>67</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>539</v>
+        <v>517</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>540</v>
+        <v>518</v>
       </c>
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
@@ -7903,22 +7810,22 @@
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
       <c r="B93" s="11" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="AA93" s="6" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>543</v>
+        <v>379</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="AE93" s="6" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="AF93" s="6" t="s">
         <v>75</v>
@@ -7926,22 +7833,22 @@
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
       <c r="B94" s="11" t="s">
-        <v>546</v>
+        <v>520</v>
       </c>
       <c r="AA94" s="6" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>543</v>
+        <v>379</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="AE94" s="6" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="AF94" s="6" t="s">
         <v>75</v>
@@ -7949,22 +7856,22 @@
     </row>
     <row r="95" spans="1:32" ht="24" customHeight="1">
       <c r="B95" s="11" t="s">
-        <v>547</v>
+        <v>521</v>
       </c>
       <c r="AA95" s="6" t="s">
-        <v>542</v>
+        <v>520</v>
       </c>
       <c r="AB95" s="6" t="s">
-        <v>543</v>
+        <v>379</v>
       </c>
       <c r="AC95" s="6" t="s">
-        <v>544</v>
+        <v>521</v>
       </c>
       <c r="AD95" s="6" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="AE95" s="6" t="s">
-        <v>545</v>
+        <v>522</v>
       </c>
       <c r="AF95" s="6" t="s">
         <v>75</v>
@@ -7972,10 +7879,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>548</v>
+        <v>523</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -7983,10 +7890,10 @@
         <v>46</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -7999,10 +7906,10 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -8010,10 +7917,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8095,20 +8002,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8119,10 +8026,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8130,7 +8037,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8141,10 +8048,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8157,10 +8064,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8168,10 +8075,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8184,21 +8091,21 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -8208,10 +8115,10 @@
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -8219,10 +8126,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -8232,19 +8139,19 @@
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>579</v>
+        <v>553</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>75</v>
@@ -8252,10 +8159,10 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>580</v>
+        <v>554</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
@@ -8263,10 +8170,10 @@
         <v>67</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>581</v>
+        <v>555</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>582</v>
+        <v>556</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -8276,10 +8183,10 @@
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
       <c r="B30" s="11" t="s">
-        <v>583</v>
+        <v>557</v>
       </c>
       <c r="AA30" s="6" t="s">
-        <v>584</v>
+        <v>557</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>75</v>
@@ -8317,20 +8224,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>585</v>
+        <v>558</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>586</v>
+        <v>559</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>587</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>588</v>
+        <v>561</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8341,10 +8248,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>589</v>
+        <v>562</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>590</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8352,7 +8259,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>591</v>
+        <v>564</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8363,10 +8270,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>592</v>
+        <v>565</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>593</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8379,10 +8286,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>594</v>
+        <v>567</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8390,10 +8297,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>595</v>
+        <v>568</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8406,21 +8313,21 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>598</v>
+        <v>571</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>599</v>
+        <v>572</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -8428,10 +8335,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>600</v>
+        <v>573</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>601</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -8439,10 +8346,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>602</v>
+        <v>575</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -8453,13 +8360,13 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>604</v>
+        <v>577</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>605</v>
+        <v>578</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>606</v>
+        <v>579</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>75</v>
@@ -8467,10 +8374,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>607</v>
+        <v>580</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -8478,10 +8385,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>608</v>
+        <v>581</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>609</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -8494,34 +8401,34 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>611</v>
+        <v>584</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>612</v>
+        <v>585</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>615</v>
+        <v>588</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>616</v>
+        <v>589</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -8531,10 +8438,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>618</v>
+        <v>591</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -8542,10 +8449,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>619</v>
+        <v>592</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>620</v>
+        <v>593</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -8555,15 +8462,15 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>621</v>
+        <v>594</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>622</v>
+        <v>595</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>623</v>
+        <v>596</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8571,10 +8478,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>624</v>
+        <v>597</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>625</v>
+        <v>598</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -8587,23 +8494,23 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>626</v>
+        <v>599</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>627</v>
+        <v>600</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>628</v>
+        <v>601</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>629</v>
+        <v>602</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -8611,10 +8518,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>630</v>
+        <v>603</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>631</v>
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -8627,23 +8534,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>632</v>
+        <v>605</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>633</v>
+        <v>606</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>634</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>635</v>
+        <v>608</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>636</v>
+        <v>609</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8651,10 +8558,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>637</v>
+        <v>610</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>638</v>
+        <v>611</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -8667,10 +8574,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>639</v>
+        <v>612</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>640</v>
+        <v>613</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8678,10 +8585,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>641</v>
+        <v>614</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>642</v>
+        <v>615</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -8694,23 +8601,23 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>643</v>
+        <v>616</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>644</v>
+        <v>617</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>645</v>
+        <v>618</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>646</v>
+        <v>619</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -8718,10 +8625,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>647</v>
+        <v>620</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>648</v>
+        <v>621</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -8734,10 +8641,10 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>649</v>
+        <v>622</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>650</v>
+        <v>623</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8745,27 +8652,27 @@
         <v>67</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>651</v>
+        <v>624</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>652</v>
+        <v>625</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>653</v>
+        <v>626</v>
       </c>
       <c r="AA84" s="6" t="s">
-        <v>654</v>
+        <v>627</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>655</v>
+        <v>628</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>656</v>
+        <v>629</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>657</v>
+        <v>630</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>75</v>
@@ -8773,10 +8680,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>658</v>
+        <v>631</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>659</v>
+        <v>632</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8784,27 +8691,27 @@
         <v>67</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>660</v>
+        <v>633</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>661</v>
+        <v>634</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11" t="s">
-        <v>662</v>
+        <v>635</v>
       </c>
       <c r="AA88" s="6" t="s">
-        <v>663</v>
+        <v>636</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>664</v>
+        <v>637</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>665</v>
+        <v>635</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>666</v>
+        <v>638</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>75</v>
@@ -8812,23 +8719,23 @@
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>667</v>
+        <v>639</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>668</v>
+        <v>640</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>669</v>
+        <v>641</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>670</v>
+        <v>642</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="24" customHeight="1">
@@ -8836,10 +8743,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>671</v>
+        <v>643</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>672</v>
+        <v>644</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8847,23 +8754,23 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>673</v>
+        <v>645</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>674</v>
+        <v>646</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>675</v>
+        <v>647</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>676</v>
+        <v>648</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -8871,10 +8778,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>677</v>
+        <v>649</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>678</v>
+        <v>650</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8882,34 +8789,34 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>679</v>
+        <v>651</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>680</v>
+        <v>652</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>681</v>
+        <v>653</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>682</v>
+        <v>654</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>615</v>
+        <v>588</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -8917,10 +8824,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>684</v>
+        <v>656</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>618</v>
+        <v>591</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8928,10 +8835,10 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>619</v>
+        <v>592</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>685</v>
+        <v>657</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -8944,10 +8851,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>686</v>
+        <v>658</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8955,10 +8862,10 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>688</v>
+        <v>660</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>689</v>
+        <v>661</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -8971,10 +8878,10 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -8982,10 +8889,10 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>691</v>
+        <v>663</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>692</v>
+        <v>664</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -8998,34 +8905,34 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>694</v>
+        <v>666</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>695</v>
+        <v>667</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>696</v>
+        <v>668</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>615</v>
+        <v>588</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>697</v>
+        <v>669</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -9033,10 +8940,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>698</v>
+        <v>670</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>618</v>
+        <v>591</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -9044,10 +8951,10 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>619</v>
+        <v>592</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>699</v>
+        <v>671</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -9057,15 +8964,15 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11" t="s">
-        <v>700</v>
+        <v>672</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>701</v>
+        <v>673</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -9073,10 +8980,10 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>688</v>
+        <v>660</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>702</v>
+        <v>674</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -9089,10 +8996,10 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>703</v>
+        <v>675</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -9100,10 +9007,10 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>691</v>
+        <v>663</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>704</v>
+        <v>676</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -9116,34 +9023,34 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>705</v>
+        <v>677</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>707</v>
+        <v>679</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>708</v>
+        <v>680</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>709</v>
+        <v>681</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>710</v>
+        <v>682</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>711</v>
+        <v>683</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -9151,10 +9058,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>713</v>
+        <v>685</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -9162,10 +9069,10 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>714</v>
+        <v>686</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>715</v>
+        <v>687</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -9178,10 +9085,10 @@
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>716</v>
+        <v>688</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>687</v>
+        <v>659</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -9189,10 +9096,10 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>688</v>
+        <v>660</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>717</v>
+        <v>689</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -9205,10 +9112,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>718</v>
+        <v>690</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>719</v>
+        <v>691</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -9216,10 +9123,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>720</v>
+        <v>692</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>721</v>
+        <v>693</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">

--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_land.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="868">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -237,123 +237,138 @@
     <t>cmip6.land.key_properties.land_atmosphere_flux_exchanges</t>
   </si>
   <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>carbon</t>
+  </si>
+  <si>
+    <t>nitrogen</t>
+  </si>
+  <si>
+    <t>phospherous</t>
+  </si>
+  <si>
+    <t>Other: document in cell to the right</t>
+  </si>
+  <si>
+    <t>1.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Atmospheric Coupling Treatment</t>
+  </si>
+  <si>
+    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
+  </si>
+  <si>
+    <t>1.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Land Cover</t>
+  </si>
+  <si>
+    <t>Types of land cover defined in the land surface model</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover</t>
+  </si>
+  <si>
+    <t>Other: ice</t>
+  </si>
+  <si>
+    <t>bare soil</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>lake</t>
+  </si>
+  <si>
+    <t>land ice</t>
+  </si>
+  <si>
+    <t>lake ice</t>
+  </si>
+  <si>
+    <t>vegetated</t>
+  </si>
+  <si>
+    <t>Bare soil</t>
+  </si>
+  <si>
+    <t>Vegetated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1.1.8 </t>
+  </si>
+  <si>
+    <t>Land Cover Change</t>
+  </si>
+  <si>
+    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.land_cover_change</t>
+  </si>
+  <si>
+    <t>1.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Tiling</t>
+  </si>
+  <si>
+    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.tiling</t>
+  </si>
+  <si>
+    <t>1.2.1</t>
+  </si>
+  <si>
+    <t>Key Properties --&gt; Conservation Properties</t>
+  </si>
+  <si>
+    <t>Convservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.1 </t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.2 </t>
+  </si>
+  <si>
     <t>Water</t>
   </si>
   <si>
-    <t>Energy</t>
+    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
+  </si>
+  <si>
+    <t>cmip6.land.key_properties.conservation_properties.water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.2.1.3 </t>
   </si>
   <si>
     <t>Carbon</t>
   </si>
   <si>
-    <t>Nitrogen</t>
-  </si>
-  <si>
-    <t>Phospherous</t>
-  </si>
-  <si>
-    <t>Other: document in cell to the right</t>
-  </si>
-  <si>
-    <t>1.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Atmospheric Coupling Treatment</t>
-  </si>
-  <si>
-    <t>Describe the treatment of land surface coupling with the Atmosphere model component, which may be different for different quantities (e.g. dust: semi-implicit, water vapour: explicit)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.atmospheric_coupling_treatment</t>
-  </si>
-  <si>
-    <t>1.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Land Cover</t>
-  </si>
-  <si>
-    <t>Types of land cover defined in the land surface model</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover</t>
-  </si>
-  <si>
-    <t>Other: ice</t>
-  </si>
-  <si>
-    <t>Bare soil</t>
-  </si>
-  <si>
-    <t>Urban</t>
-  </si>
-  <si>
-    <t>Lake</t>
-  </si>
-  <si>
-    <t>Land ice</t>
-  </si>
-  <si>
-    <t>Lake ice</t>
-  </si>
-  <si>
-    <t>Vegetated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.1.1.8 </t>
-  </si>
-  <si>
-    <t>Land Cover Change</t>
-  </si>
-  <si>
-    <t>Describe how land cover change is managed (e.g. the use of net or gross transitions)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.land_cover_change</t>
-  </si>
-  <si>
-    <t>1.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Tiling</t>
-  </si>
-  <si>
-    <t>Describe the general tiling procedure used in the land surface (if any). Include treatment of physiography, land/sea, (dynamic) vegetation coverage and orography/roughness</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.tiling</t>
-  </si>
-  <si>
-    <t>1.2.1</t>
-  </si>
-  <si>
-    <t>Key Properties --&gt; Conservation Properties</t>
-  </si>
-  <si>
-    <t>Convservation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.1 </t>
-  </si>
-  <si>
-    <t>Describe if/how energy is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.energy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.2 </t>
-  </si>
-  <si>
-    <t>Describe if/how water is conserved globally and to what level (e.g. within X [units]/year)</t>
-  </si>
-  <si>
-    <t>cmip6.land.key_properties.conservation_properties.water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.2.1.3 </t>
-  </si>
-  <si>
     <t>Describe if/how carbon is conserved globally and to what level (e.g. within X [units]/year)</t>
   </si>
   <si>
@@ -762,13 +777,13 @@
     <t>cmip6.land.soil.snow_free_albedo.functions</t>
   </si>
   <si>
-    <t>Vegetation type</t>
-  </si>
-  <si>
-    <t>Soil humidity</t>
-  </si>
-  <si>
-    <t>Vegetation state</t>
+    <t>vegetation type</t>
+  </si>
+  <si>
+    <t>soil humidity</t>
+  </si>
+  <si>
+    <t>vegetation state</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.3 </t>
@@ -783,10 +798,10 @@
     <t>cmip6.land.soil.snow_free_albedo.direct_diffuse</t>
   </si>
   <si>
-    <t>Distinction between direct and diffuse albedo</t>
-  </si>
-  <si>
-    <t>No distinction between direct and diffuse albedo</t>
+    <t>distinction between direct and diffuse albedo</t>
+  </si>
+  <si>
+    <t>no distinction between direct and diffuse albedo</t>
   </si>
   <si>
     <t xml:space="preserve">3.3.1.4 </t>
@@ -873,10 +888,10 @@
     <t>cmip6.land.soil.hydrology.lateral_connectivity</t>
   </si>
   <si>
-    <t>Perfect connectivity</t>
-  </si>
-  <si>
-    <t>Darcian flow</t>
+    <t>perfect connectivity: Common soil for multiple tiles</t>
+  </si>
+  <si>
+    <t>Darcian flow: Darcian flow among hillslope tiles</t>
   </si>
   <si>
     <t>3.4.1.7 *</t>
@@ -987,7 +1002,7 @@
     <t>Horton mechanism</t>
   </si>
   <si>
-    <t>Topmodel-based</t>
+    <t>topmodel-based</t>
   </si>
   <si>
     <t>Dunne mechanism</t>
@@ -1065,10 +1080,10 @@
     <t>cmip6.land.soil.heat_treatment.processes</t>
   </si>
   <si>
-    <t>Soil moisture freeze-thaw</t>
-  </si>
-  <si>
-    <t>Coupling with snow temperature</t>
+    <t>soil moisture freeze-thaw</t>
+  </si>
+  <si>
+    <t>coupling with snow temperature</t>
   </si>
   <si>
     <t>4.1.1</t>
@@ -1131,7 +1146,10 @@
     <t>cmip6.land.snow.density</t>
   </si>
   <si>
-    <t>Constant</t>
+    <t>prognostic</t>
+  </si>
+  <si>
+    <t>constant</t>
   </si>
   <si>
     <t>4.1.1.6 *</t>
@@ -1146,33 +1164,36 @@
     <t>cmip6.land.snow.water_equivalent</t>
   </si>
   <si>
+    <t>diagnostic</t>
+  </si>
+  <si>
+    <t>4.1.1.7 *</t>
+  </si>
+  <si>
+    <t>Heat Content</t>
+  </si>
+  <si>
+    <t>Description of the treatment of the heat content of snow</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.heat_content</t>
+  </si>
+  <si>
+    <t>4.1.1.8 *</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Description of the treatment of snow temperature</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.temperature</t>
+  </si>
+  <si>
     <t>Diagnostic</t>
   </si>
   <si>
-    <t>4.1.1.7 *</t>
-  </si>
-  <si>
-    <t>Heat Content</t>
-  </si>
-  <si>
-    <t>Description of the treatment of the heat content of snow</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.heat_content</t>
-  </si>
-  <si>
-    <t>4.1.1.8 *</t>
-  </si>
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Description of the treatment of snow temperature</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.temperature</t>
-  </si>
-  <si>
     <t>4.1.1.9 *</t>
   </si>
   <si>
@@ -1200,6 +1221,12 @@
     <t>Ground snow fraction</t>
   </si>
   <si>
+    <t>ground snow fraction</t>
+  </si>
+  <si>
+    <t>vegetation snow fraction</t>
+  </si>
+  <si>
     <t>Vegetation snow fraction</t>
   </si>
   <si>
@@ -1215,18 +1242,24 @@
     <t>Other: snow refreezing</t>
   </si>
   <si>
+    <t>snow interception</t>
+  </si>
+  <si>
+    <t>snow melting</t>
+  </si>
+  <si>
+    <t>snow freezing</t>
+  </si>
+  <si>
+    <t>blowing snow</t>
+  </si>
+  <si>
     <t>Snow interception</t>
   </si>
   <si>
     <t>Snow melting</t>
   </si>
   <si>
-    <t>Snow freezing</t>
-  </si>
-  <si>
-    <t>Blowing snow</t>
-  </si>
-  <si>
     <t>4.1.1.12 *</t>
   </si>
   <si>
@@ -1257,261 +1290,279 @@
     <t>cmip6.land.snow.snow_albedo.type</t>
   </si>
   <si>
+    <t>prescribed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.2.1.2 </t>
+  </si>
+  <si>
+    <t>Describe the function types if prognostic snow albedo</t>
+  </si>
+  <si>
+    <t>cmip6.land.snow.snow_albedo.functions</t>
+  </si>
+  <si>
+    <t>snow age</t>
+  </si>
+  <si>
+    <t>snow density</t>
+  </si>
+  <si>
+    <t>snow grain type</t>
+  </si>
+  <si>
+    <t>aerosol deposition</t>
+  </si>
+  <si>
+    <t>5.1.1</t>
+  </si>
+  <si>
+    <t>Vegetation</t>
+  </si>
+  <si>
+    <t>Land surface vegetation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the vegetation in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of land surface vegetation in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.overview</t>
+  </si>
+  <si>
+    <t>5.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Time step of vegetation scheme in seconds</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.time_step</t>
+  </si>
+  <si>
+    <t>5.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Dynamic Vegetation</t>
+  </si>
+  <si>
+    <t>Is there dynamic evolution of vegetation?</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.dynamic_vegetation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.5 </t>
+  </si>
+  <si>
+    <t>Describe the vegetation tiling, if any.</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.tiling</t>
+  </si>
+  <si>
+    <t>5.1.1.6 *</t>
+  </si>
+  <si>
+    <t>Vegetation Representation</t>
+  </si>
+  <si>
+    <t>Vegetation classification used</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_representation</t>
+  </si>
+  <si>
+    <t>Vegetation types</t>
+  </si>
+  <si>
+    <t>vegetation types</t>
+  </si>
+  <si>
+    <t>biome types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.7 </t>
+  </si>
+  <si>
+    <t>Vegetation Types</t>
+  </si>
+  <si>
+    <t>List of vegetation types in the classification, if any</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_types</t>
+  </si>
+  <si>
+    <t>C3 grass</t>
+  </si>
+  <si>
+    <t>broadleaf tree</t>
+  </si>
+  <si>
+    <t>needleleaf tree</t>
+  </si>
+  <si>
+    <t>C4 grass</t>
+  </si>
+  <si>
+    <t>Broadleaf tree</t>
+  </si>
+  <si>
+    <t>Needleleaf tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.8 </t>
+  </si>
+  <si>
+    <t>Biome Types</t>
+  </si>
+  <si>
+    <t>List of biome types in the classification, if any</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.biome_types</t>
+  </si>
+  <si>
+    <t>evergreen needleleaf forest</t>
+  </si>
+  <si>
+    <t>evergreen broadleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous needleleaf forest</t>
+  </si>
+  <si>
+    <t>deciduous broadleaf forest</t>
+  </si>
+  <si>
+    <t>mixed forest</t>
+  </si>
+  <si>
+    <t>woodland</t>
+  </si>
+  <si>
+    <t>wooded grassland</t>
+  </si>
+  <si>
+    <t>closed shrubland</t>
+  </si>
+  <si>
+    <t>opne shrubland</t>
+  </si>
+  <si>
+    <t>grassland</t>
+  </si>
+  <si>
+    <t>cropland</t>
+  </si>
+  <si>
+    <t>wetlands</t>
+  </si>
+  <si>
+    <t>5.1.1.9 *</t>
+  </si>
+  <si>
+    <t>Vegetation Time Variation</t>
+  </si>
+  <si>
+    <t>How the vegetation fractions in each tile are varying with time</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_time_variation</t>
+  </si>
+  <si>
+    <t>Prescribed (varying from files)</t>
+  </si>
+  <si>
+    <t>fixed (not varying)</t>
+  </si>
+  <si>
+    <t>prescribed (varying from files)</t>
+  </si>
+  <si>
+    <t>dynamical (varying from simulation)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.10 </t>
+  </si>
+  <si>
+    <t>Vegetation Map</t>
+  </si>
+  <si>
+    <t>If vegetation fractions are not dynamically updated , describe the vegetation map used (common name and reference, if possible)</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.vegetation_map</t>
+  </si>
+  <si>
+    <t>5.1.1.11 *</t>
+  </si>
+  <si>
+    <t>Interception</t>
+  </si>
+  <si>
+    <t>Is vegetation interception of rainwater represented?</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.interception</t>
+  </si>
+  <si>
+    <t>5.1.1.12 *</t>
+  </si>
+  <si>
+    <t>Phenology</t>
+  </si>
+  <si>
+    <t>Treatment of vegetation phenology</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.phenology</t>
+  </si>
+  <si>
+    <t>Diagnostic (vegetation map)</t>
+  </si>
+  <si>
+    <t>diagnostic (vegetation map)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.1.1.13 </t>
+  </si>
+  <si>
+    <t>Phenology Description</t>
+  </si>
+  <si>
+    <t>General description of the treatment of vegetation phenology</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.phenology_description</t>
+  </si>
+  <si>
+    <t>5.1.1.14 *</t>
+  </si>
+  <si>
+    <t>Leaf Area Index</t>
+  </si>
+  <si>
+    <t>Treatment of vegetation leaf area index</t>
+  </si>
+  <si>
+    <t>cmip6.land.vegetation.leaf_area_index</t>
+  </si>
+  <si>
     <t>Prescribed</t>
   </si>
   <si>
-    <t xml:space="preserve">4.2.1.2 </t>
-  </si>
-  <si>
-    <t>Describe the function types if prognostic snow albedo</t>
-  </si>
-  <si>
-    <t>cmip6.land.snow.snow_albedo.functions</t>
-  </si>
-  <si>
-    <t>Aerosol deposition</t>
-  </si>
-  <si>
-    <t>Snow age</t>
-  </si>
-  <si>
-    <t>Snow density</t>
-  </si>
-  <si>
-    <t>Snow grain type</t>
-  </si>
-  <si>
-    <t>5.1.1</t>
-  </si>
-  <si>
-    <t>Vegetation</t>
-  </si>
-  <si>
-    <t>Land surface vegetation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the vegetation in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of land surface vegetation in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.overview</t>
-  </si>
-  <si>
-    <t>5.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Time step of vegetation scheme in seconds</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.time_step</t>
-  </si>
-  <si>
-    <t>5.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Dynamic Vegetation</t>
-  </si>
-  <si>
-    <t>Is there dynamic evolution of vegetation?</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.dynamic_vegetation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.5 </t>
-  </si>
-  <si>
-    <t>Describe the vegetation tiling, if any.</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.tiling</t>
-  </si>
-  <si>
-    <t>5.1.1.6 *</t>
-  </si>
-  <si>
-    <t>Vegetation Representation</t>
-  </si>
-  <si>
-    <t>Vegetation classification used</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_representation</t>
-  </si>
-  <si>
-    <t>Vegetation types</t>
-  </si>
-  <si>
-    <t>Biome types</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.7 </t>
-  </si>
-  <si>
-    <t>Vegetation Types</t>
-  </si>
-  <si>
-    <t>List of vegetation types in the classification, if any</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_types</t>
-  </si>
-  <si>
-    <t>C3 grass</t>
-  </si>
-  <si>
-    <t>Broadleaf tree</t>
-  </si>
-  <si>
-    <t>Needleleaf tree</t>
-  </si>
-  <si>
-    <t>C4 grass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.8 </t>
-  </si>
-  <si>
-    <t>Biome Types</t>
-  </si>
-  <si>
-    <t>List of biome types in the classification, if any</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.biome_types</t>
-  </si>
-  <si>
-    <t>Evergreen needleleaf forest</t>
-  </si>
-  <si>
-    <t>Evergreen broadleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous needleleaf forest</t>
-  </si>
-  <si>
-    <t>Deciduous broadleaf forest</t>
-  </si>
-  <si>
-    <t>Mixed forest</t>
-  </si>
-  <si>
-    <t>Woodland</t>
-  </si>
-  <si>
-    <t>Wooded grassland</t>
-  </si>
-  <si>
-    <t>Closed shrubland</t>
-  </si>
-  <si>
-    <t>Opne shrubland</t>
-  </si>
-  <si>
-    <t>Grassland</t>
-  </si>
-  <si>
-    <t>Cropland</t>
-  </si>
-  <si>
-    <t>Wetlands</t>
-  </si>
-  <si>
-    <t>5.1.1.9 *</t>
-  </si>
-  <si>
-    <t>Vegetation Time Variation</t>
-  </si>
-  <si>
-    <t>How the vegetation fractions in each tile are varying with time</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_time_variation</t>
-  </si>
-  <si>
-    <t>Prescribed (varying from files)</t>
-  </si>
-  <si>
-    <t>Fixed (not varying)</t>
-  </si>
-  <si>
-    <t>Dynamical (varying from simulation)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.10 </t>
-  </si>
-  <si>
-    <t>Vegetation Map</t>
-  </si>
-  <si>
-    <t>If vegetation fractions are not dynamically updated , describe the vegetation map used (common name and reference, if possible)</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.vegetation_map</t>
-  </si>
-  <si>
-    <t>5.1.1.11 *</t>
-  </si>
-  <si>
-    <t>Interception</t>
-  </si>
-  <si>
-    <t>Is vegetation interception of rainwater represented?</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.interception</t>
-  </si>
-  <si>
-    <t>5.1.1.12 *</t>
-  </si>
-  <si>
-    <t>Phenology</t>
-  </si>
-  <si>
-    <t>Treatment of vegetation phenology</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.phenology</t>
-  </si>
-  <si>
-    <t>Diagnostic (vegetation map)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.1.1.13 </t>
-  </si>
-  <si>
-    <t>Phenology Description</t>
-  </si>
-  <si>
-    <t>General description of the treatment of vegetation phenology</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.phenology_description</t>
-  </si>
-  <si>
-    <t>5.1.1.14 *</t>
-  </si>
-  <si>
-    <t>Leaf Area Index</t>
-  </si>
-  <si>
-    <t>Treatment of vegetation leaf area index</t>
-  </si>
-  <si>
-    <t>cmip6.land.vegetation.leaf_area_index</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.15 </t>
   </si>
   <si>
@@ -1587,15 +1638,24 @@
     <t>CO2</t>
   </si>
   <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>water availability</t>
+  </si>
+  <si>
+    <t>O3</t>
+  </si>
+  <si>
     <t>Light</t>
   </si>
   <si>
     <t>Water availability</t>
   </si>
   <si>
-    <t>O3</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.1.1.21 </t>
   </si>
   <si>
@@ -1680,10 +1740,13 @@
     <t>Combined</t>
   </si>
   <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>Beta</t>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>combined</t>
   </si>
   <si>
     <t>Monteith potential evaporation</t>
@@ -1698,7 +1761,7 @@
     <t>cmip6.land.energy_balance.processes</t>
   </si>
   <si>
-    <t>Transpiration</t>
+    <t>transpiration</t>
   </si>
   <si>
     <t>7.1.1</t>
@@ -1758,13 +1821,13 @@
     <t>cmip6.land.carbon_cycle.anthropogenic_carbon</t>
   </si>
   <si>
-    <t>Grand slam protocol</t>
-  </si>
-  <si>
-    <t>Residence time</t>
-  </si>
-  <si>
-    <t>Decay time</t>
+    <t>grand slam protocol</t>
+  </si>
+  <si>
+    <t>residence time</t>
+  </si>
+  <si>
+    <t>decay time</t>
   </si>
   <si>
     <t>7.1.1.6 *</t>
@@ -1908,16 +1971,16 @@
     <t>Other: leaves + stems and roots (leafy + woody)</t>
   </si>
   <si>
-    <t>Leaves + stems + roots</t>
-  </si>
-  <si>
-    <t>Leaves + stems + roots (leafy + woody)</t>
-  </si>
-  <si>
-    <t>Leaves + fine roots + coarse roots + stems</t>
-  </si>
-  <si>
-    <t>Whole plant (no distinction)</t>
+    <t>leaves + stems + roots</t>
+  </si>
+  <si>
+    <t>leaves + stems + roots (leafy + woody)</t>
+  </si>
+  <si>
+    <t>leaves + fine roots + coarse roots + stems</t>
+  </si>
+  <si>
+    <t>whole plant (no distinction)</t>
   </si>
   <si>
     <t>7.2.4.3 *</t>
@@ -1935,13 +1998,16 @@
     <t>Function of plant allometry</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Function of vegetation type</t>
-  </si>
-  <si>
-    <t>Explicitly calculated</t>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t>function of vegetation type</t>
+  </si>
+  <si>
+    <t>function of plant allometry</t>
+  </si>
+  <si>
+    <t>explicitly calculated</t>
   </si>
   <si>
     <t>7.2.5</t>
@@ -2256,10 +2322,10 @@
     <t>cmip6.land.river_routing.water_re_evaporation</t>
   </si>
   <si>
-    <t>Flood plains</t>
-  </si>
-  <si>
-    <t>Irrigation</t>
+    <t>flood plains</t>
+  </si>
+  <si>
+    <t>irrigation</t>
   </si>
   <si>
     <t xml:space="preserve">9.1.1.9 </t>
@@ -2298,150 +2364,159 @@
     <t>cmip6.land.river_routing.quantities_exchanged_with_atmosphere</t>
   </si>
   <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>tracers</t>
+  </si>
+  <si>
+    <t>9.1.1.12 *</t>
+  </si>
+  <si>
+    <t>Basin Flow Direction Map</t>
+  </si>
+  <si>
+    <t>What type of basin flow direction map is being used?</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.basin_flow_direction_map</t>
+  </si>
+  <si>
+    <t>Present day</t>
+  </si>
+  <si>
+    <t>present day</t>
+  </si>
+  <si>
+    <t>adapted for other periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1.1.13 </t>
+  </si>
+  <si>
+    <t>Flooding</t>
+  </si>
+  <si>
+    <t>Describe the representation of flooding, if any</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.flooding</t>
+  </si>
+  <si>
+    <t>9.1.1.14 *</t>
+  </si>
+  <si>
+    <t>List the prognostic variables of the river routing</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.prognostic_variables</t>
+  </si>
+  <si>
+    <t>9.2.1</t>
+  </si>
+  <si>
+    <t>River Routing --&gt; Oceanic Discharge</t>
+  </si>
+  <si>
+    <t>Oceanic discharge treatment in river routing</t>
+  </si>
+  <si>
+    <t>9.2.1.1 *</t>
+  </si>
+  <si>
+    <t>Discharge Type</t>
+  </si>
+  <si>
+    <t>Specify how rivers are discharged to the ocean</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.oceanic_discharge.discharge_type</t>
+  </si>
+  <si>
+    <t>Direct (large rivers)</t>
+  </si>
+  <si>
+    <t>direct (large rivers)</t>
+  </si>
+  <si>
+    <t>diffuse</t>
+  </si>
+  <si>
+    <t>9.2.1.2 *</t>
+  </si>
+  <si>
+    <t>Quantities Transported</t>
+  </si>
+  <si>
+    <t>Quantities that are exchanged from river-routing to the ocean model component</t>
+  </si>
+  <si>
+    <t>cmip6.land.river_routing.oceanic_discharge.quantities_transported</t>
+  </si>
+  <si>
+    <t>10.1.1</t>
+  </si>
+  <si>
+    <t>Lakes</t>
+  </si>
+  <si>
+    <t>Land surface lakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1.1.1 </t>
+  </si>
+  <si>
+    <t>Commonly used name for the lakes in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.lakes.name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1.1.2 </t>
+  </si>
+  <si>
+    <t>Overview of land surface lakes in land model.</t>
+  </si>
+  <si>
+    <t>cmip6.land.lakes.overview</t>
+  </si>
+  <si>
+    <t>10.1.1.3 *</t>
+  </si>
+  <si>
+    <t>Coupling With Rivers</t>
+  </si>
+  <si>
+    <t>Are lakes coupled to the river routing model component?</t>
+  </si>
+  <si>
+    <t>cmip6.land.lakes.coupling_with_rivers</t>
+  </si>
+  <si>
+    <t>10.1.1.4 *</t>
+  </si>
+  <si>
+    <t>Time step of lake scheme in seconds</t>
+  </si>
+  <si>
+    <t>cmip6.land.lakes.time_step</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.1.1.5 </t>
+  </si>
+  <si>
+    <t>Quantities Exchanged With Rivers</t>
+  </si>
+  <si>
+    <t>If coupling with rivers, which quantities are exchanged between the lakes and rivers</t>
+  </si>
+  <si>
+    <t>cmip6.land.lakes.quantities_exchanged_with_rivers</t>
+  </si>
+  <si>
     <t>Heat</t>
   </si>
   <si>
-    <t>Tracers</t>
-  </si>
-  <si>
-    <t>9.1.1.12 *</t>
-  </si>
-  <si>
-    <t>Basin Flow Direction Map</t>
-  </si>
-  <si>
-    <t>What type of basin flow direction map is being used?</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.basin_flow_direction_map</t>
-  </si>
-  <si>
-    <t>Present day</t>
-  </si>
-  <si>
-    <t>Adapted for other periods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.1.1.13 </t>
-  </si>
-  <si>
-    <t>Flooding</t>
-  </si>
-  <si>
-    <t>Describe the representation of flooding, if any</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.flooding</t>
-  </si>
-  <si>
-    <t>9.1.1.14 *</t>
-  </si>
-  <si>
-    <t>List the prognostic variables of the river routing</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.prognostic_variables</t>
-  </si>
-  <si>
-    <t>9.2.1</t>
-  </si>
-  <si>
-    <t>River Routing --&gt; Oceanic Discharge</t>
-  </si>
-  <si>
-    <t>Oceanic discharge treatment in river routing</t>
-  </si>
-  <si>
-    <t>9.2.1.1 *</t>
-  </si>
-  <si>
-    <t>Discharge Type</t>
-  </si>
-  <si>
-    <t>Specify how rivers are discharged to the ocean</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.oceanic_discharge.discharge_type</t>
-  </si>
-  <si>
-    <t>Direct (large rivers)</t>
-  </si>
-  <si>
-    <t>Diffuse</t>
-  </si>
-  <si>
-    <t>9.2.1.2 *</t>
-  </si>
-  <si>
-    <t>Quantities Transported</t>
-  </si>
-  <si>
-    <t>Quantities that are exchanged from river-routing to the ocean model component</t>
-  </si>
-  <si>
-    <t>cmip6.land.river_routing.oceanic_discharge.quantities_transported</t>
-  </si>
-  <si>
-    <t>10.1.1</t>
-  </si>
-  <si>
-    <t>Lakes</t>
-  </si>
-  <si>
-    <t>Land surface lakes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1.1.1 </t>
-  </si>
-  <si>
-    <t>Commonly used name for the lakes in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.lakes.name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1.1.2 </t>
-  </si>
-  <si>
-    <t>Overview of land surface lakes in land model.</t>
-  </si>
-  <si>
-    <t>cmip6.land.lakes.overview</t>
-  </si>
-  <si>
-    <t>10.1.1.3 *</t>
-  </si>
-  <si>
-    <t>Coupling With Rivers</t>
-  </si>
-  <si>
-    <t>Are lakes coupled to the river routing model component?</t>
-  </si>
-  <si>
-    <t>cmip6.land.lakes.coupling_with_rivers</t>
-  </si>
-  <si>
-    <t>10.1.1.4 *</t>
-  </si>
-  <si>
-    <t>Time step of lake scheme in seconds</t>
-  </si>
-  <si>
-    <t>cmip6.land.lakes.time_step</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.1.1.5 </t>
-  </si>
-  <si>
-    <t>Quantities Exchanged With Rivers</t>
-  </si>
-  <si>
-    <t>If coupling with rivers, which quantities are exchanged between the lakes and rivers</t>
-  </si>
-  <si>
-    <t>cmip6.land.lakes.quantities_exchanged_with_rivers</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.1.1.6 </t>
   </si>
   <si>
@@ -2508,10 +2583,10 @@
     <t>No lake dynamics</t>
   </si>
   <si>
-    <t>Vertical</t>
-  </si>
-  <si>
-    <t>Horizontal</t>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>horizontal</t>
   </si>
   <si>
     <t>10.2.1.4 *</t>
@@ -3214,20 +3289,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>694</v>
+        <v>716</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3238,10 +3313,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>699</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3249,7 +3324,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3260,10 +3335,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>702</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3276,10 +3351,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>703</v>
+        <v>725</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3287,10 +3362,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>704</v>
+        <v>726</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>705</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3303,21 +3378,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>706</v>
+        <v>728</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>707</v>
+        <v>729</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>708</v>
+        <v>730</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3325,10 +3400,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>709</v>
+        <v>731</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3336,10 +3411,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>710</v>
+        <v>732</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>711</v>
+        <v>733</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3362,7 +3437,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD79"/>
+  <dimension ref="A1:XFD78"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3376,20 +3451,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>712</v>
+        <v>734</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>713</v>
+        <v>735</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>714</v>
+        <v>736</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>715</v>
+        <v>737</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3400,10 +3475,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>716</v>
+        <v>738</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>717</v>
+        <v>739</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3411,7 +3486,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>718</v>
+        <v>740</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3422,10 +3497,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>719</v>
+        <v>741</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>720</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3438,10 +3513,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>721</v>
+        <v>743</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -3449,10 +3524,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>722</v>
+        <v>744</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>723</v>
+        <v>745</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3465,21 +3540,21 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>724</v>
+        <v>746</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>725</v>
+        <v>747</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>726</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3487,21 +3562,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>727</v>
+        <v>749</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>728</v>
+        <v>750</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>729</v>
+        <v>751</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>730</v>
+        <v>752</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3509,10 +3584,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>731</v>
+        <v>753</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>732</v>
+        <v>754</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3520,10 +3595,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>733</v>
+        <v>755</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>734</v>
+        <v>756</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3531,21 +3606,21 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>735</v>
+        <v>757</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>736</v>
+        <v>758</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
       <c r="A31" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>737</v>
+        <v>759</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>738</v>
+        <v>760</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3553,10 +3628,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>739</v>
+        <v>761</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>740</v>
+        <v>762</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -3564,10 +3639,10 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>741</v>
+        <v>763</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>742</v>
+        <v>764</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3578,10 +3653,10 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>743</v>
+        <v>765</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>744</v>
+        <v>766</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>75</v>
@@ -3589,21 +3664,21 @@
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>745</v>
+        <v>767</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>746</v>
+        <v>768</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>747</v>
+        <v>769</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>748</v>
+        <v>770</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -3613,10 +3688,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>749</v>
+        <v>771</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>750</v>
+        <v>772</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3624,10 +3699,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>751</v>
+        <v>773</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>752</v>
+        <v>774</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -3640,10 +3715,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>753</v>
+        <v>775</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>754</v>
+        <v>776</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -3651,10 +3726,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>755</v>
+        <v>777</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>756</v>
+        <v>778</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3665,13 +3740,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="AB51" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>75</v>
@@ -3679,10 +3754,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>759</v>
+        <v>781</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>760</v>
+        <v>782</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -3690,21 +3765,21 @@
         <v>67</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>761</v>
+        <v>783</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>762</v>
+        <v>784</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>763</v>
+        <v>785</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>763</v>
+        <v>786</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>764</v>
+        <v>787</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>75</v>
@@ -3712,10 +3787,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>765</v>
+        <v>788</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>766</v>
+        <v>789</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3723,10 +3798,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>767</v>
+        <v>790</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>768</v>
+        <v>791</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -3739,10 +3814,10 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>769</v>
+        <v>792</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
@@ -3750,10 +3825,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>770</v>
+        <v>793</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>771</v>
+        <v>794</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
@@ -3766,23 +3841,23 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>772</v>
+        <v>795</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>773</v>
+        <v>796</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>774</v>
+        <v>797</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>775</v>
+        <v>798</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>776</v>
+        <v>799</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3790,21 +3865,21 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>777</v>
+        <v>800</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>778</v>
+        <v>801</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>779</v>
+        <v>802</v>
       </c>
       <c r="AA73" s="6" t="s">
-        <v>779</v>
+        <v>803</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>780</v>
+        <v>804</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>75</v>
@@ -3812,10 +3887,10 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>781</v>
+        <v>805</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>782</v>
+        <v>806</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
@@ -3823,10 +3898,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>783</v>
+        <v>807</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>784</v>
+        <v>808</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3835,41 +3910,22 @@
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="B78" s="11" t="s">
-        <v>757</v>
-      </c>
+      <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="AB78" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
       <c r="AD78" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="1:30" ht="24" customHeight="1">
-      <c r="B79" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA79" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="AB79" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC79" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="AD79" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="10">
+  <dataValidations count="9">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
@@ -3897,9 +3953,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
       <formula1>AA78:AD78</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
-      <formula1>AA79:AD79</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3921,20 +3974,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>785</v>
+        <v>809</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>786</v>
+        <v>810</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>787</v>
+        <v>811</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>788</v>
+        <v>812</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3945,10 +3998,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>789</v>
+        <v>813</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>790</v>
+        <v>814</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3956,7 +4009,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>791</v>
+        <v>815</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3967,10 +4020,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>792</v>
+        <v>816</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>793</v>
+        <v>817</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3983,21 +4036,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>794</v>
+        <v>818</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>795</v>
+        <v>819</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>797</v>
+        <v>821</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -4007,21 +4060,21 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>798</v>
+        <v>822</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>799</v>
+        <v>823</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4029,10 +4082,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>801</v>
+        <v>825</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>802</v>
+        <v>826</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4040,10 +4093,10 @@
         <v>67</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>803</v>
+        <v>827</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4053,16 +4106,16 @@
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>757</v>
+        <v>829</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>75</v>
@@ -4070,16 +4123,16 @@
     </row>
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>757</v>
+        <v>779</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>758</v>
+        <v>780</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>75</v>
@@ -4087,10 +4140,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>805</v>
+        <v>830</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>806</v>
+        <v>831</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4098,10 +4151,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>807</v>
+        <v>832</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>808</v>
+        <v>833</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -4109,10 +4162,10 @@
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>809</v>
+        <v>834</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:30" ht="24" customHeight="1">
@@ -4120,10 +4173,10 @@
         <v>46</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>810</v>
+        <v>835</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>811</v>
+        <v>836</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
@@ -4136,34 +4189,34 @@
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>812</v>
+        <v>837</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>813</v>
+        <v>838</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="B38" s="13" t="s">
-        <v>814</v>
+        <v>839</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>815</v>
+        <v>840</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>816</v>
+        <v>841</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
       <c r="A41" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>817</v>
+        <v>842</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>818</v>
+        <v>843</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
@@ -4173,10 +4226,10 @@
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>819</v>
+        <v>844</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -4184,21 +4237,21 @@
         <v>67</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>820</v>
+        <v>845</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>821</v>
+        <v>846</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA46" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="AA46" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="AB46" s="6" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>75</v>
@@ -4206,10 +4259,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>822</v>
+        <v>847</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>823</v>
+        <v>848</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4217,10 +4270,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>824</v>
+        <v>849</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>825</v>
+        <v>850</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -4231,13 +4284,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>826</v>
+        <v>851</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>827</v>
+        <v>852</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>828</v>
+        <v>853</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>75</v>
@@ -4245,21 +4298,21 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>829</v>
+        <v>854</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>830</v>
+        <v>855</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
       <c r="A54" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>831</v>
+        <v>856</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>832</v>
+        <v>857</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -4269,21 +4322,21 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>833</v>
+        <v>858</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>834</v>
+        <v>859</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
       <c r="A58" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>835</v>
+        <v>860</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>836</v>
+        <v>861</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -4293,20 +4346,20 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>837</v>
+        <v>862</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>838</v>
+        <v>863</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>839</v>
+        <v>864</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>840</v>
+        <v>865</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>62</v>
@@ -4317,10 +4370,10 @@
         <v>46</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>841</v>
+        <v>866</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>842</v>
+        <v>867</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -4715,7 +4768,7 @@
     </row>
     <row r="36" spans="1:33" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="AA36" s="6" t="s">
         <v>85</v>
@@ -4741,7 +4794,7 @@
     </row>
     <row r="37" spans="1:33" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA37" s="6" t="s">
         <v>85</v>
@@ -4767,10 +4820,10 @@
     </row>
     <row r="39" spans="1:33" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:33" ht="24" customHeight="1">
@@ -4778,10 +4831,10 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:33" ht="24" customHeight="1">
@@ -4789,10 +4842,10 @@
     </row>
     <row r="43" spans="1:33" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:33" ht="24" customHeight="1">
@@ -4800,10 +4853,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:33" ht="24" customHeight="1">
@@ -4816,23 +4869,23 @@
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="24" customHeight="1">
       <c r="B50" s="13" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -4840,10 +4893,10 @@
         <v>46</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
@@ -4856,10 +4909,10 @@
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="24" customHeight="1">
@@ -4867,10 +4920,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
@@ -4883,10 +4936,10 @@
     </row>
     <row r="62" spans="1:3" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
@@ -4894,10 +4947,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -4910,34 +4963,34 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="24" customHeight="1">
       <c r="A72" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="24" customHeight="1">
@@ -4945,21 +4998,21 @@
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="24" customHeight="1">
       <c r="A76" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
@@ -4967,10 +5020,10 @@
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
       <c r="A79" s="9" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="24" customHeight="1">
@@ -4978,10 +5031,10 @@
         <v>46</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
@@ -4989,23 +5042,23 @@
     </row>
     <row r="84" spans="1:3" ht="24" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="B85" s="13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="24" customHeight="1">
       <c r="A87" s="9" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
@@ -5013,10 +5066,10 @@
         <v>46</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="24" customHeight="1">
@@ -5024,10 +5077,10 @@
     </row>
     <row r="91" spans="1:3" ht="24" customHeight="1">
       <c r="A91" s="9" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="24" customHeight="1">
@@ -5035,10 +5088,10 @@
         <v>46</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
@@ -5046,10 +5099,10 @@
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
       <c r="A95" s="9" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="24" customHeight="1">
@@ -5057,10 +5110,10 @@
         <v>46</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
@@ -5073,20 +5126,20 @@
     </row>
     <row r="101" spans="1:3" ht="24" customHeight="1">
       <c r="A101" s="12" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="B102" s="13" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
       <c r="A104" s="9" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B104" s="9" t="s">
         <v>62</v>
@@ -5097,10 +5150,10 @@
         <v>46</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="24" customHeight="1">
@@ -5152,20 +5205,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5176,10 +5229,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5187,7 +5240,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5198,10 +5251,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5214,20 +5267,20 @@
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
       <c r="B15" s="13" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>62</v>
@@ -5238,10 +5291,10 @@
         <v>46</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5254,21 +5307,21 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
       <c r="A23" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -5276,20 +5329,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>62</v>
@@ -5300,10 +5353,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5316,21 +5369,21 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -5365,20 +5418,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -5389,10 +5442,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -5400,7 +5453,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -5411,10 +5464,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -5427,10 +5480,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -5438,10 +5491,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -5449,21 +5502,21 @@
     </row>
     <row r="17" spans="1:3" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="24" customHeight="1">
@@ -5471,10 +5524,10 @@
     </row>
     <row r="21" spans="1:3" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
@@ -5482,10 +5535,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -5498,20 +5551,20 @@
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
       <c r="B28" s="13" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>62</v>
@@ -5522,10 +5575,10 @@
         <v>46</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -5538,10 +5591,10 @@
     </row>
     <row r="35" spans="1:3" ht="24" customHeight="1">
       <c r="A35" s="9" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
@@ -5549,23 +5602,23 @@
         <v>46</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="B37" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
@@ -5573,23 +5626,23 @@
         <v>46</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
       <c r="B41" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="24" customHeight="1">
@@ -5597,10 +5650,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
@@ -5608,10 +5661,10 @@
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
       <c r="A47" s="9" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="24" customHeight="1">
@@ -5619,23 +5672,23 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="24" customHeight="1">
       <c r="B49" s="11" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
@@ -5643,10 +5696,10 @@
         <v>46</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="24" customHeight="1">
@@ -5654,21 +5707,21 @@
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
       <c r="A56" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="24" customHeight="1">
@@ -5676,10 +5729,10 @@
     </row>
     <row r="59" spans="1:3" ht="24" customHeight="1">
       <c r="A59" s="9" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
@@ -5687,10 +5740,10 @@
         <v>46</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
@@ -5698,34 +5751,34 @@
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="13" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -5733,10 +5786,10 @@
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -5744,10 +5797,10 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -5758,13 +5811,13 @@
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="AC74" s="6" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="AD74" s="6" t="s">
         <v>75</v>
@@ -5772,10 +5825,10 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -5783,19 +5836,19 @@
         <v>67</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
       <c r="B78" s="11"/>
       <c r="AA78" s="6" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AB78" s="6" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="AC78" s="6" t="s">
         <v>75</v>
@@ -5803,21 +5856,21 @@
     </row>
     <row r="80" spans="1:30" ht="24" customHeight="1">
       <c r="A80" s="9" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="24" customHeight="1">
       <c r="A81" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="24" customHeight="1">
@@ -5825,20 +5878,20 @@
     </row>
     <row r="85" spans="1:3" ht="24" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="24" customHeight="1">
       <c r="B86" s="13" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="24" customHeight="1">
       <c r="A88" s="9" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B88" s="9" t="s">
         <v>62</v>
@@ -5849,10 +5902,10 @@
         <v>46</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="24" customHeight="1">
@@ -5865,21 +5918,21 @@
     </row>
     <row r="93" spans="1:3" ht="24" customHeight="1">
       <c r="A93" s="9" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="24" customHeight="1">
       <c r="A94" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="C94" s="10" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="24" customHeight="1">
@@ -5887,10 +5940,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -5898,10 +5951,10 @@
         <v>46</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -5914,10 +5967,10 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -5925,10 +5978,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -5941,21 +5994,21 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="9" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="A108" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="24" customHeight="1">
@@ -5963,10 +6016,10 @@
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="9" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -5974,10 +6027,10 @@
         <v>67</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:31" ht="24" customHeight="1">
@@ -5988,10 +6041,10 @@
     <row r="114" spans="1:31" ht="24" customHeight="1">
       <c r="B114" s="11"/>
       <c r="AA114" s="6" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="AB114" s="6" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AC114" s="6" t="s">
         <v>75</v>
@@ -5999,10 +6052,10 @@
     </row>
     <row r="116" spans="1:31" ht="24" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="117" spans="1:31" ht="24" customHeight="1">
@@ -6010,27 +6063,27 @@
         <v>67</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="1:31" ht="24" customHeight="1">
       <c r="B118" s="11" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AA118" s="6" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AB118" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AC118" s="6" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="AD118" s="6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AE118" s="6" t="s">
         <v>75</v>
@@ -6038,34 +6091,34 @@
     </row>
     <row r="121" spans="1:31" ht="24" customHeight="1">
       <c r="A121" s="12" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="122" spans="1:31" ht="24" customHeight="1">
       <c r="B122" s="13" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="124" spans="1:31" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="125" spans="1:31" ht="24" customHeight="1">
       <c r="A125" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="126" spans="1:31" ht="24" customHeight="1">
@@ -6073,10 +6126,10 @@
     </row>
     <row r="128" spans="1:31" ht="24" customHeight="1">
       <c r="A128" s="9" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="24" customHeight="1">
@@ -6084,23 +6137,23 @@
         <v>46</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="B130" s="11" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="24" customHeight="1">
       <c r="A132" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B132" s="9" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
@@ -6108,10 +6161,10 @@
         <v>46</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -6124,20 +6177,20 @@
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
       <c r="A138" s="12" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
       <c r="B139" s="13" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="24" customHeight="1">
       <c r="A141" s="9" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B141" s="9" t="s">
         <v>62</v>
@@ -6148,10 +6201,10 @@
         <v>46</v>
       </c>
       <c r="B142" s="10" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="C142" s="10" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -6164,10 +6217,10 @@
     </row>
     <row r="146" spans="1:33" ht="24" customHeight="1">
       <c r="A146" s="9" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="147" spans="1:33" ht="24" customHeight="1">
@@ -6175,10 +6228,10 @@
         <v>67</v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
     <row r="148" spans="1:33" ht="24" customHeight="1">
@@ -6189,22 +6242,22 @@
     <row r="149" spans="1:33" ht="24" customHeight="1">
       <c r="B149" s="11"/>
       <c r="AA149" s="6" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AB149" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AC149" s="6" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AD149" s="6" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="AE149" s="6" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AF149" s="6" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="AG149" s="6" t="s">
         <v>75</v>
@@ -6212,20 +6265,20 @@
     </row>
     <row r="152" spans="1:33" ht="24" customHeight="1">
       <c r="A152" s="12" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="153" spans="1:33" ht="24" customHeight="1">
       <c r="B153" s="13" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
     </row>
     <row r="155" spans="1:33" ht="24" customHeight="1">
       <c r="A155" s="9" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B155" s="9" t="s">
         <v>62</v>
@@ -6236,10 +6289,10 @@
         <v>46</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="157" spans="1:33" ht="24" customHeight="1">
@@ -6252,21 +6305,21 @@
     </row>
     <row r="160" spans="1:33" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="161" spans="1:29" ht="24" customHeight="1">
       <c r="A161" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
     </row>
     <row r="162" spans="1:29" ht="24" customHeight="1">
@@ -6274,10 +6327,10 @@
     </row>
     <row r="164" spans="1:29" ht="24" customHeight="1">
       <c r="A164" s="9" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="165" spans="1:29" ht="24" customHeight="1">
@@ -6285,10 +6338,10 @@
         <v>46</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="166" spans="1:29" ht="24" customHeight="1">
@@ -6301,10 +6354,10 @@
     </row>
     <row r="169" spans="1:29" ht="24" customHeight="1">
       <c r="A169" s="9" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="170" spans="1:29" ht="24" customHeight="1">
@@ -6312,10 +6365,10 @@
         <v>46</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C170" s="10" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="171" spans="1:29" ht="24" customHeight="1">
@@ -6328,10 +6381,10 @@
     </row>
     <row r="174" spans="1:29" ht="24" customHeight="1">
       <c r="A174" s="9" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B174" s="9" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
     </row>
     <row r="175" spans="1:29" ht="24" customHeight="1">
@@ -6339,21 +6392,21 @@
         <v>67</v>
       </c>
       <c r="B175" s="10" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C175" s="10" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="176" spans="1:29" ht="24" customHeight="1">
       <c r="B176" s="11" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AA176" s="6" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AB176" s="6" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AC176" s="6" t="s">
         <v>75</v>
@@ -6361,10 +6414,10 @@
     </row>
     <row r="178" spans="1:29" ht="24" customHeight="1">
       <c r="A178" s="9" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="B178" s="9" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="179" spans="1:29" ht="24" customHeight="1">
@@ -6372,10 +6425,10 @@
         <v>67</v>
       </c>
       <c r="B179" s="10" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="C179" s="10" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="180" spans="1:29" ht="24" customHeight="1">
@@ -6384,14 +6437,12 @@
       </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
-      <c r="B181" s="11" t="s">
-        <v>346</v>
-      </c>
+      <c r="B181" s="11"/>
       <c r="AA181" s="6" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="AB181" s="6" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="AC181" s="6" t="s">
         <v>75</v>
@@ -6451,7 +6502,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD74"/>
+  <dimension ref="A1:XFD71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6465,20 +6516,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6489,10 +6540,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6500,7 +6551,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6511,10 +6562,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6527,10 +6578,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -6538,10 +6589,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6554,21 +6605,21 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
@@ -6578,10 +6629,10 @@
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -6589,21 +6640,21 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>75</v>
@@ -6611,10 +6662,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -6622,21 +6673,21 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -6644,10 +6695,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -6655,21 +6706,21 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
       <c r="B32" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>75</v>
@@ -6677,10 +6728,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -6688,21 +6739,21 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA36" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="AA36" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="AB36" s="6" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>75</v>
@@ -6710,10 +6761,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -6721,21 +6772,21 @@
         <v>67</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="AA40" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="AA40" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="AB40" s="6" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>75</v>
@@ -6743,10 +6794,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -6754,10 +6805,10 @@
         <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6767,13 +6818,13 @@
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>75</v>
@@ -6781,13 +6832,13 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>75</v>
@@ -6795,10 +6846,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49" spans="1:31" ht="24" customHeight="1">
@@ -6806,10 +6857,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6819,19 +6870,19 @@
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="AE51" s="6" t="s">
         <v>75</v>
@@ -6839,19 +6890,19 @@
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="AA52" s="6" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="AB52" s="6" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>75</v>
@@ -6859,19 +6910,19 @@
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="AE53" s="6" t="s">
         <v>75</v>
@@ -6879,10 +6930,10 @@
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:31" ht="24" customHeight="1">
@@ -6890,10 +6941,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
@@ -6906,23 +6957,23 @@
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
@@ -6930,24 +6981,24 @@
         <v>67</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
       <c r="B66" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>75</v>
@@ -6955,10 +7006,10 @@
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="69" spans="1:32" ht="24" customHeight="1">
@@ -6966,10 +7017,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
@@ -6978,99 +7029,28 @@
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
-      <c r="B71" s="11" t="s">
-        <v>414</v>
-      </c>
+      <c r="B71" s="11"/>
       <c r="AA71" s="6" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AB71" s="6" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="AE71" s="6" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="AF71" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:32" ht="24" customHeight="1">
-      <c r="B72" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="AA72" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB72" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AC72" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="AD72" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE72" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AF72" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:32" ht="24" customHeight="1">
-      <c r="B73" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="AA73" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB73" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AC73" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="AD73" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE73" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AF73" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="74" spans="1:32" ht="24" customHeight="1">
-      <c r="B74" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA74" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB74" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="AC74" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="AD74" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="AE74" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="AF74" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="16">
+  <dataValidations count="13">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
@@ -7110,15 +7090,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
       <formula1>AA71:AF71</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
-      <formula1>AA72:AF72</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
-      <formula1>AA73:AF73</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
-      <formula1>AA74:AF74</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7140,20 +7111,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7164,10 +7135,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7175,7 +7146,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7186,10 +7157,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7202,21 +7173,21 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7224,21 +7195,21 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -7246,10 +7217,10 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
@@ -7257,10 +7228,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -7273,10 +7244,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -7284,21 +7255,21 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -7306,10 +7277,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -7317,10 +7288,10 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7330,19 +7301,19 @@
     </row>
     <row r="33" spans="1:39" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="AE33" s="6" t="s">
         <v>90</v>
@@ -7353,19 +7324,19 @@
     </row>
     <row r="34" spans="1:39" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
-        <v>448</v>
+        <v>463</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="AE34" s="6" t="s">
         <v>90</v>
@@ -7376,19 +7347,19 @@
     </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
-        <v>449</v>
+        <v>464</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="AB35" s="6" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="AC35" s="6" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="AE35" s="6" t="s">
         <v>90</v>
@@ -7399,10 +7370,10 @@
     </row>
     <row r="37" spans="1:39" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="24" customHeight="1">
@@ -7410,10 +7381,10 @@
         <v>67</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
     </row>
     <row r="39" spans="1:39" ht="24" customHeight="1">
@@ -7424,40 +7395,40 @@
     <row r="40" spans="1:39" ht="24" customHeight="1">
       <c r="B40" s="11"/>
       <c r="AA40" s="6" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="AJ40" s="6" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="AK40" s="6" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="AL40" s="6" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="AM40" s="6" t="s">
         <v>75</v>
@@ -7465,10 +7436,10 @@
     </row>
     <row r="42" spans="1:39" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>468</v>
+        <v>482</v>
       </c>
     </row>
     <row r="43" spans="1:39" ht="24" customHeight="1">
@@ -7476,24 +7447,24 @@
         <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
       <c r="B44" s="11" t="s">
-        <v>471</v>
+        <v>485</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>472</v>
+        <v>486</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>471</v>
+        <v>487</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="AD44" s="6" t="s">
         <v>75</v>
@@ -7501,10 +7472,10 @@
     </row>
     <row r="46" spans="1:39" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>474</v>
+        <v>489</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>475</v>
+        <v>490</v>
       </c>
     </row>
     <row r="47" spans="1:39" ht="24" customHeight="1">
@@ -7512,10 +7483,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>477</v>
+        <v>492</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
@@ -7523,21 +7494,21 @@
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>478</v>
+        <v>493</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
       <c r="A51" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>481</v>
+        <v>496</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -7547,10 +7518,10 @@
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>483</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
@@ -7558,21 +7529,21 @@
         <v>67</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>484</v>
+        <v>499</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>485</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>486</v>
+        <v>502</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>75</v>
@@ -7580,10 +7551,10 @@
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>487</v>
+        <v>503</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>488</v>
+        <v>504</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
@@ -7591,10 +7562,10 @@
         <v>46</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>489</v>
+        <v>505</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>490</v>
+        <v>506</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -7607,10 +7578,10 @@
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>491</v>
+        <v>507</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>492</v>
+        <v>508</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -7618,24 +7589,24 @@
         <v>67</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>493</v>
+        <v>509</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>494</v>
+        <v>510</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="11" t="s">
-        <v>410</v>
+        <v>511</v>
       </c>
       <c r="AA65" s="6" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="AB65" s="6" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="AC65" s="6" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AD65" s="6" t="s">
         <v>75</v>
@@ -7643,10 +7614,10 @@
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>496</v>
+        <v>513</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
@@ -7654,10 +7625,10 @@
         <v>46</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>498</v>
+        <v>515</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -7670,10 +7641,10 @@
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>499</v>
+        <v>516</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>500</v>
+        <v>517</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -7681,19 +7652,19 @@
         <v>67</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>501</v>
+        <v>518</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AC74" s="6" t="s">
         <v>75</v>
@@ -7701,10 +7672,10 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>503</v>
+        <v>520</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>504</v>
+        <v>521</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -7712,10 +7683,10 @@
         <v>46</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>505</v>
+        <v>522</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>506</v>
+        <v>523</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7728,10 +7699,10 @@
     </row>
     <row r="81" spans="1:32" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>508</v>
+        <v>525</v>
       </c>
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
@@ -7739,19 +7710,19 @@
         <v>67</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>509</v>
+        <v>526</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>510</v>
+        <v>527</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
       <c r="B83" s="11"/>
       <c r="AA83" s="6" t="s">
-        <v>238</v>
+        <v>373</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="AC83" s="6" t="s">
         <v>75</v>
@@ -7759,10 +7730,10 @@
     </row>
     <row r="85" spans="1:32" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>511</v>
+        <v>528</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>512</v>
+        <v>529</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
@@ -7770,10 +7741,10 @@
         <v>46</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>513</v>
+        <v>530</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>514</v>
+        <v>531</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
@@ -7786,10 +7757,10 @@
     </row>
     <row r="90" spans="1:32" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>515</v>
+        <v>532</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>516</v>
+        <v>533</v>
       </c>
     </row>
     <row r="91" spans="1:32" ht="24" customHeight="1">
@@ -7797,10 +7768,10 @@
         <v>67</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>517</v>
+        <v>534</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>518</v>
+        <v>535</v>
       </c>
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
@@ -7810,22 +7781,22 @@
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
       <c r="B93" s="11" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="AA93" s="6" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>379</v>
+        <v>538</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="AE93" s="6" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="AF93" s="6" t="s">
         <v>75</v>
@@ -7833,22 +7804,22 @@
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
       <c r="B94" s="11" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="AA94" s="6" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="AB94" s="6" t="s">
-        <v>379</v>
+        <v>538</v>
       </c>
       <c r="AC94" s="6" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="AD94" s="6" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="AE94" s="6" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="AF94" s="6" t="s">
         <v>75</v>
@@ -7856,22 +7827,22 @@
     </row>
     <row r="95" spans="1:32" ht="24" customHeight="1">
       <c r="B95" s="11" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="AA95" s="6" t="s">
-        <v>520</v>
+        <v>537</v>
       </c>
       <c r="AB95" s="6" t="s">
-        <v>379</v>
+        <v>538</v>
       </c>
       <c r="AC95" s="6" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
       <c r="AD95" s="6" t="s">
-        <v>519</v>
+        <v>536</v>
       </c>
       <c r="AE95" s="6" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="AF95" s="6" t="s">
         <v>75</v>
@@ -7879,10 +7850,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>523</v>
+        <v>543</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>524</v>
+        <v>544</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -7890,10 +7861,10 @@
         <v>46</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>525</v>
+        <v>545</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>526</v>
+        <v>546</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -7906,10 +7877,10 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>527</v>
+        <v>547</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -7917,10 +7888,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>528</v>
+        <v>548</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>529</v>
+        <v>549</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8002,20 +7973,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>531</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>532</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>533</v>
+        <v>553</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8026,10 +7997,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>534</v>
+        <v>554</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>535</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8037,7 +8008,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>536</v>
+        <v>556</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8048,10 +8019,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>537</v>
+        <v>557</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>538</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8064,10 +8035,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>539</v>
+        <v>559</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8075,10 +8046,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>541</v>
+        <v>561</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8091,21 +8062,21 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>542</v>
+        <v>562</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>543</v>
+        <v>563</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>544</v>
+        <v>564</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>545</v>
+        <v>565</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -8115,10 +8086,10 @@
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>547</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -8126,10 +8097,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>549</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -8139,19 +8110,19 @@
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>551</v>
+        <v>571</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>550</v>
+        <v>573</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>75</v>
@@ -8159,10 +8130,10 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="24" customHeight="1">
@@ -8170,10 +8141,10 @@
         <v>67</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -8182,11 +8153,9 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="11" t="s">
-        <v>557</v>
-      </c>
+      <c r="B30" s="11"/>
       <c r="AA30" s="6" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>75</v>
@@ -8224,20 +8193,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8248,10 +8217,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8259,7 +8228,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8270,10 +8239,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8286,10 +8255,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -8297,10 +8266,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>568</v>
+        <v>589</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8313,21 +8282,21 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
       <c r="A19" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>571</v>
+        <v>592</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -8335,10 +8304,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -8346,10 +8315,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>575</v>
+        <v>596</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -8360,13 +8329,13 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>75</v>
@@ -8374,10 +8343,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -8385,10 +8354,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -8401,34 +8370,34 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
       <c r="A37" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -8438,10 +8407,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>590</v>
+        <v>611</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -8449,10 +8418,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -8462,15 +8431,15 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>596</v>
+        <v>617</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8478,10 +8447,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>597</v>
+        <v>618</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -8494,23 +8463,23 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>602</v>
+        <v>623</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="24" customHeight="1">
@@ -8518,10 +8487,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>603</v>
+        <v>624</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>604</v>
+        <v>625</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -8534,23 +8503,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>605</v>
+        <v>626</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>606</v>
+        <v>627</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>607</v>
+        <v>628</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>608</v>
+        <v>629</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>609</v>
+        <v>630</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8558,10 +8527,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>610</v>
+        <v>631</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>611</v>
+        <v>632</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -8574,10 +8543,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>612</v>
+        <v>633</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>613</v>
+        <v>634</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8585,10 +8554,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>614</v>
+        <v>635</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>615</v>
+        <v>636</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -8601,23 +8570,23 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>616</v>
+        <v>637</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>617</v>
+        <v>638</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>618</v>
+        <v>639</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>619</v>
+        <v>640</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="24" customHeight="1">
@@ -8625,10 +8594,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>620</v>
+        <v>641</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -8641,10 +8610,10 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>622</v>
+        <v>643</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>623</v>
+        <v>644</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8652,27 +8621,27 @@
         <v>67</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>624</v>
+        <v>645</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>625</v>
+        <v>646</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>626</v>
+        <v>647</v>
       </c>
       <c r="AA84" s="6" t="s">
-        <v>627</v>
+        <v>648</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>629</v>
+        <v>650</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>630</v>
+        <v>651</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>75</v>
@@ -8680,10 +8649,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>631</v>
+        <v>652</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>632</v>
+        <v>653</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8691,27 +8660,27 @@
         <v>67</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>633</v>
+        <v>654</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>634</v>
+        <v>655</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11" t="s">
-        <v>635</v>
+        <v>656</v>
       </c>
       <c r="AA88" s="6" t="s">
-        <v>636</v>
+        <v>657</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>637</v>
+        <v>658</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>635</v>
+        <v>659</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>638</v>
+        <v>660</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>75</v>
@@ -8719,23 +8688,23 @@
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>639</v>
+        <v>661</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>640</v>
+        <v>662</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>641</v>
+        <v>663</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>642</v>
+        <v>664</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:31" ht="24" customHeight="1">
@@ -8743,10 +8712,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>643</v>
+        <v>665</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>644</v>
+        <v>666</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8754,23 +8723,23 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>645</v>
+        <v>667</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>646</v>
+        <v>668</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>647</v>
+        <v>669</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>648</v>
+        <v>670</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="24" customHeight="1">
@@ -8778,10 +8747,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>650</v>
+        <v>672</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8789,34 +8758,34 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>651</v>
+        <v>673</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>652</v>
+        <v>674</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>653</v>
+        <v>675</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>654</v>
+        <v>676</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
       <c r="A111" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>655</v>
+        <v>677</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -8824,10 +8793,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>656</v>
+        <v>678</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8835,10 +8804,10 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>657</v>
+        <v>679</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -8851,10 +8820,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>658</v>
+        <v>680</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8862,10 +8831,10 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>661</v>
+        <v>683</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -8878,10 +8847,10 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>662</v>
+        <v>684</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="24" customHeight="1">
@@ -8889,10 +8858,10 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>663</v>
+        <v>685</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>664</v>
+        <v>686</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -8905,34 +8874,34 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>665</v>
+        <v>687</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>666</v>
+        <v>688</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>667</v>
+        <v>689</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>668</v>
+        <v>690</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
       <c r="A134" s="14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>669</v>
+        <v>691</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -8940,10 +8909,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -8951,10 +8920,10 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>671</v>
+        <v>693</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -8964,15 +8933,15 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11" t="s">
-        <v>672</v>
+        <v>694</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>673</v>
+        <v>695</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -8980,10 +8949,10 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>674</v>
+        <v>696</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -8996,10 +8965,10 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>675</v>
+        <v>697</v>
       </c>
       <c r="B147" s="9" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="24" customHeight="1">
@@ -9007,10 +8976,10 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>663</v>
+        <v>685</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>676</v>
+        <v>698</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -9023,34 +8992,34 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>677</v>
+        <v>699</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>678</v>
+        <v>700</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>679</v>
+        <v>701</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>680</v>
+        <v>702</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>681</v>
+        <v>703</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
       <c r="A157" s="14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>682</v>
+        <v>704</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -9058,10 +9027,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>685</v>
+        <v>707</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -9069,10 +9038,10 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>687</v>
+        <v>709</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -9085,10 +9054,10 @@
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>659</v>
+        <v>681</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -9096,10 +9065,10 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>660</v>
+        <v>682</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -9112,10 +9081,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>690</v>
+        <v>712</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -9123,10 +9092,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>692</v>
+        <v>714</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>693</v>
+        <v>715</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">

--- a/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_land.xlsx
+++ b/cmip6/models/mri-esm2-0/cmip6_mri_mri-esm2-0_land.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1321" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="874">
   <si>
     <t>ES-DOC CMIP6 Model Documentation</t>
   </si>
@@ -1080,6 +1080,9 @@
     <t>cmip6.land.soil.heat_treatment.processes</t>
   </si>
   <si>
+    <t>Soil moisture freeze-thaw</t>
+  </si>
+  <si>
     <t>soil moisture freeze-thaw</t>
   </si>
   <si>
@@ -1302,6 +1305,9 @@
     <t>cmip6.land.snow.snow_albedo.functions</t>
   </si>
   <si>
+    <t>Aerosol deposition</t>
+  </si>
+  <si>
     <t>snow age</t>
   </si>
   <si>
@@ -1314,6 +1320,15 @@
     <t>aerosol deposition</t>
   </si>
   <si>
+    <t>Snow density</t>
+  </si>
+  <si>
+    <t>Snow grain type</t>
+  </si>
+  <si>
+    <t>Vegetation type</t>
+  </si>
+  <si>
     <t>5.1.1</t>
   </si>
   <si>
@@ -1761,6 +1776,9 @@
     <t>cmip6.land.energy_balance.processes</t>
   </si>
   <si>
+    <t>Transpiration</t>
+  </si>
+  <si>
     <t>transpiration</t>
   </si>
   <si>
@@ -2454,6 +2472,9 @@
     <t>cmip6.land.river_routing.oceanic_discharge.quantities_transported</t>
   </si>
   <si>
+    <t>Heat</t>
+  </si>
+  <si>
     <t>10.1.1</t>
   </si>
   <si>
@@ -2512,9 +2533,6 @@
   </si>
   <si>
     <t>cmip6.land.lakes.quantities_exchanged_with_rivers</t>
-  </si>
-  <si>
-    <t>Heat</t>
   </si>
   <si>
     <t xml:space="preserve">10.1.1.6 </t>
@@ -3289,20 +3307,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3313,10 +3331,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3324,7 +3342,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3335,10 +3353,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3351,7 +3369,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>98</v>
@@ -3362,10 +3380,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3378,7 +3396,7 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>125</v>
@@ -3389,10 +3407,10 @@
         <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3400,7 +3418,7 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>201</v>
@@ -3411,10 +3429,10 @@
         <v>46</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3437,7 +3455,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD78"/>
+  <dimension ref="A1:XFD79"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3451,20 +3469,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3475,10 +3493,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -3486,7 +3504,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -3497,10 +3515,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -3513,7 +3531,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>98</v>
@@ -3524,10 +3542,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -3540,7 +3558,7 @@
     </row>
     <row r="18" spans="1:3" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>125</v>
@@ -3551,10 +3569,10 @@
         <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="24" customHeight="1">
@@ -3562,10 +3580,10 @@
     </row>
     <row r="22" spans="1:3" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="24" customHeight="1">
@@ -3573,10 +3591,10 @@
         <v>121</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="24" customHeight="1">
@@ -3584,10 +3602,10 @@
     </row>
     <row r="26" spans="1:3" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="24" customHeight="1">
@@ -3595,10 +3613,10 @@
         <v>46</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>756</v>
+        <v>762</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="24" customHeight="1">
@@ -3606,10 +3624,10 @@
     </row>
     <row r="30" spans="1:3" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>757</v>
+        <v>763</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="24" customHeight="1">
@@ -3617,10 +3635,10 @@
         <v>126</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>760</v>
+        <v>766</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="24" customHeight="1">
@@ -3628,10 +3646,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>761</v>
+        <v>767</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -3639,10 +3657,10 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>764</v>
+        <v>770</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
@@ -3653,10 +3671,10 @@
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="B37" s="11"/>
       <c r="AA37" s="6" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="AB37" s="6" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="AC37" s="6" t="s">
         <v>75</v>
@@ -3664,10 +3682,10 @@
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
       <c r="A39" s="9" t="s">
-        <v>767</v>
+        <v>773</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
@@ -3675,10 +3693,10 @@
         <v>121</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>769</v>
+        <v>775</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -3688,10 +3706,10 @@
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
       <c r="A43" s="9" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>772</v>
+        <v>778</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -3699,10 +3717,10 @@
         <v>46</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>773</v>
+        <v>779</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
@@ -3715,10 +3733,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -3726,10 +3744,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>777</v>
+        <v>783</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -3740,13 +3758,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="AB51" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>75</v>
@@ -3754,10 +3772,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -3765,21 +3783,21 @@
         <v>67</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
       <c r="B55" s="11" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="AB55" s="6" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
       <c r="AC55" s="6" t="s">
         <v>75</v>
@@ -3787,10 +3805,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -3798,10 +3816,10 @@
         <v>46</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>791</v>
+        <v>797</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -3814,7 +3832,7 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="9" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="B62" s="9" t="s">
         <v>201</v>
@@ -3825,10 +3843,10 @@
         <v>46</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>794</v>
+        <v>800</v>
       </c>
     </row>
     <row r="64" spans="1:30" ht="24" customHeight="1">
@@ -3841,23 +3859,23 @@
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>795</v>
+        <v>801</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
       <c r="B69" s="13" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
     </row>
     <row r="71" spans="1:30" ht="24" customHeight="1">
       <c r="A71" s="9" t="s">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>799</v>
+        <v>805</v>
       </c>
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
@@ -3865,21 +3883,21 @@
         <v>67</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
       <c r="B73" s="11" t="s">
-        <v>802</v>
+        <v>808</v>
       </c>
       <c r="AA73" s="6" t="s">
-        <v>803</v>
+        <v>809</v>
       </c>
       <c r="AB73" s="6" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="AC73" s="6" t="s">
         <v>75</v>
@@ -3887,10 +3905,10 @@
     </row>
     <row r="75" spans="1:30" ht="24" customHeight="1">
       <c r="A75" s="9" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>806</v>
+        <v>812</v>
       </c>
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
@@ -3898,10 +3916,10 @@
         <v>67</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -3910,22 +3928,41 @@
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
-      <c r="B78" s="11"/>
+      <c r="B78" s="11" t="s">
+        <v>815</v>
+      </c>
       <c r="AA78" s="6" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="AB78" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC78" s="6" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="AD78" s="6" t="s">
         <v>75</v>
       </c>
     </row>
+    <row r="79" spans="1:30" ht="24" customHeight="1">
+      <c r="B79" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA79" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="AB79" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC79" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="AD79" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="9">
+  <dataValidations count="10">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
@@ -3953,6 +3990,9 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B78">
       <formula1>AA78:AD78</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B79">
+      <formula1>AA79:AD79</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3974,20 +4014,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>810</v>
+        <v>817</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>811</v>
+        <v>818</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -3998,10 +4038,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>813</v>
+        <v>820</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>814</v>
+        <v>821</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -4009,7 +4049,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>815</v>
+        <v>822</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -4020,10 +4060,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>816</v>
+        <v>823</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>817</v>
+        <v>824</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -4036,10 +4076,10 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>818</v>
+        <v>825</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1">
@@ -4047,10 +4087,10 @@
         <v>121</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>820</v>
+        <v>827</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -4060,7 +4100,7 @@
     </row>
     <row r="17" spans="1:30" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>822</v>
+        <v>829</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>125</v>
@@ -4071,10 +4111,10 @@
         <v>126</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>823</v>
+        <v>830</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>824</v>
+        <v>831</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="24" customHeight="1">
@@ -4082,10 +4122,10 @@
     </row>
     <row r="21" spans="1:30" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>825</v>
+        <v>832</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
@@ -4093,10 +4133,10 @@
         <v>67</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>828</v>
+        <v>835</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -4106,16 +4146,16 @@
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
       <c r="B24" s="11" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="AB24" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="AD24" s="6" t="s">
         <v>75</v>
@@ -4126,13 +4166,13 @@
         <v>109</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="AB25" s="6" t="s">
         <v>70</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>75</v>
@@ -4140,10 +4180,10 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>831</v>
+        <v>837</v>
       </c>
     </row>
     <row r="28" spans="1:30" ht="24" customHeight="1">
@@ -4151,10 +4191,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -4162,7 +4202,7 @@
     </row>
     <row r="31" spans="1:30" ht="24" customHeight="1">
       <c r="A31" s="9" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>201</v>
@@ -4173,10 +4213,10 @@
         <v>46</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>835</v>
+        <v>841</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>836</v>
+        <v>842</v>
       </c>
     </row>
     <row r="33" spans="1:29" ht="24" customHeight="1">
@@ -4189,23 +4229,23 @@
     </row>
     <row r="37" spans="1:29" ht="24" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="B38" s="13" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>840</v>
+        <v>846</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
     </row>
     <row r="41" spans="1:29" ht="24" customHeight="1">
@@ -4213,10 +4253,10 @@
         <v>121</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>842</v>
+        <v>848</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>843</v>
+        <v>849</v>
       </c>
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
@@ -4226,7 +4266,7 @@
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
       <c r="A44" s="9" t="s">
-        <v>844</v>
+        <v>850</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>224</v>
@@ -4237,21 +4277,21 @@
         <v>67</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AA46" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB46" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>75</v>
@@ -4259,10 +4299,10 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>848</v>
+        <v>854</v>
       </c>
     </row>
     <row r="49" spans="1:30" ht="24" customHeight="1">
@@ -4270,10 +4310,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>849</v>
+        <v>855</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
     </row>
     <row r="50" spans="1:30" ht="24" customHeight="1">
@@ -4284,13 +4324,13 @@
     <row r="51" spans="1:30" ht="24" customHeight="1">
       <c r="B51" s="11"/>
       <c r="AA51" s="6" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>853</v>
+        <v>859</v>
       </c>
       <c r="AD51" s="6" t="s">
         <v>75</v>
@@ -4298,10 +4338,10 @@
     </row>
     <row r="53" spans="1:30" ht="24" customHeight="1">
       <c r="A53" s="9" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>855</v>
+        <v>861</v>
       </c>
     </row>
     <row r="54" spans="1:30" ht="24" customHeight="1">
@@ -4309,10 +4349,10 @@
         <v>121</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>856</v>
+        <v>862</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>857</v>
+        <v>863</v>
       </c>
     </row>
     <row r="55" spans="1:30" ht="24" customHeight="1">
@@ -4322,10 +4362,10 @@
     </row>
     <row r="57" spans="1:30" ht="24" customHeight="1">
       <c r="A57" s="9" t="s">
-        <v>858</v>
+        <v>864</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>859</v>
+        <v>865</v>
       </c>
     </row>
     <row r="58" spans="1:30" ht="24" customHeight="1">
@@ -4333,10 +4373,10 @@
         <v>121</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>861</v>
+        <v>867</v>
       </c>
     </row>
     <row r="59" spans="1:30" ht="24" customHeight="1">
@@ -4346,20 +4386,20 @@
     </row>
     <row r="62" spans="1:30" ht="24" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>863</v>
+        <v>869</v>
       </c>
     </row>
     <row r="63" spans="1:30" ht="24" customHeight="1">
       <c r="B63" s="13" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
       <c r="A65" s="9" t="s">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>62</v>
@@ -4370,10 +4410,10 @@
         <v>46</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>866</v>
+        <v>872</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="24" customHeight="1">
@@ -6437,12 +6477,14 @@
       </c>
     </row>
     <row r="181" spans="1:29" ht="24" customHeight="1">
-      <c r="B181" s="11"/>
+      <c r="B181" s="11" t="s">
+        <v>351</v>
+      </c>
       <c r="AA181" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AB181" s="6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AC181" s="6" t="s">
         <v>75</v>
@@ -6502,7 +6544,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD71"/>
+  <dimension ref="A1:XFD74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6516,20 +6558,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -6540,10 +6582,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -6551,7 +6593,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -6562,10 +6604,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -6578,7 +6620,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>98</v>
@@ -6589,10 +6631,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -6605,10 +6647,10 @@
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -6616,10 +6658,10 @@
         <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:29" ht="24" customHeight="1">
@@ -6629,10 +6671,10 @@
     </row>
     <row r="22" spans="1:29" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -6640,10 +6682,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:29" ht="24" customHeight="1">
@@ -6651,10 +6693,10 @@
         <v>243</v>
       </c>
       <c r="AA24" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB24" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AC24" s="6" t="s">
         <v>75</v>
@@ -6662,10 +6704,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -6673,10 +6715,10 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
@@ -6684,10 +6726,10 @@
         <v>243</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -6695,10 +6737,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -6706,10 +6748,10 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -6717,10 +6759,10 @@
         <v>243</v>
       </c>
       <c r="AA32" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB32" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AC32" s="6" t="s">
         <v>75</v>
@@ -6728,10 +6770,10 @@
     </row>
     <row r="34" spans="1:29" ht="24" customHeight="1">
       <c r="A34" s="9" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:29" ht="24" customHeight="1">
@@ -6739,21 +6781,21 @@
         <v>67</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="24" customHeight="1">
       <c r="B36" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AA36" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB36" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AC36" s="6" t="s">
         <v>75</v>
@@ -6761,10 +6803,10 @@
     </row>
     <row r="38" spans="1:29" ht="24" customHeight="1">
       <c r="A38" s="9" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="1:29" ht="24" customHeight="1">
@@ -6772,21 +6814,21 @@
         <v>67</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="40" spans="1:29" ht="24" customHeight="1">
       <c r="B40" s="11" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AA40" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AC40" s="6" t="s">
         <v>75</v>
@@ -6794,10 +6836,10 @@
     </row>
     <row r="42" spans="1:29" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="1:29" ht="24" customHeight="1">
@@ -6805,10 +6847,10 @@
         <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" spans="1:29" ht="24" customHeight="1">
@@ -6818,13 +6860,13 @@
     </row>
     <row r="45" spans="1:29" ht="24" customHeight="1">
       <c r="B45" s="11" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AB45" s="6" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AC45" s="6" t="s">
         <v>75</v>
@@ -6832,13 +6874,13 @@
     </row>
     <row r="46" spans="1:29" ht="24" customHeight="1">
       <c r="B46" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="AA46" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="AB46" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="AA46" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="AB46" s="6" t="s">
-        <v>399</v>
       </c>
       <c r="AC46" s="6" t="s">
         <v>75</v>
@@ -6846,7 +6888,7 @@
     </row>
     <row r="48" spans="1:29" ht="24" customHeight="1">
       <c r="A48" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>348</v>
@@ -6857,10 +6899,10 @@
         <v>67</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="50" spans="1:31" ht="24" customHeight="1">
@@ -6870,19 +6912,19 @@
     </row>
     <row r="51" spans="1:31" ht="24" customHeight="1">
       <c r="B51" s="11" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AB51" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AE51" s="6" t="s">
         <v>75</v>
@@ -6890,19 +6932,19 @@
     </row>
     <row r="52" spans="1:31" ht="24" customHeight="1">
       <c r="B52" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="AA52" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="AB52" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="AC52" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="AD52" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="AA52" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="AB52" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="AC52" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="AD52" s="6" t="s">
-        <v>408</v>
       </c>
       <c r="AE52" s="6" t="s">
         <v>75</v>
@@ -6910,19 +6952,19 @@
     </row>
     <row r="53" spans="1:31" ht="24" customHeight="1">
       <c r="B53" s="11" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AB53" s="6" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AC53" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AE53" s="6" t="s">
         <v>75</v>
@@ -6930,7 +6972,7 @@
     </row>
     <row r="55" spans="1:31" ht="24" customHeight="1">
       <c r="A55" s="9" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>201</v>
@@ -6941,10 +6983,10 @@
         <v>46</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="57" spans="1:31" ht="24" customHeight="1">
@@ -6957,23 +6999,23 @@
     </row>
     <row r="61" spans="1:31" ht="24" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="62" spans="1:31" ht="24" customHeight="1">
       <c r="B62" s="13" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" spans="1:31" ht="24" customHeight="1">
       <c r="A64" s="9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:32" ht="24" customHeight="1">
@@ -6981,10 +7023,10 @@
         <v>67</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="66" spans="1:32" ht="24" customHeight="1">
@@ -6992,13 +7034,13 @@
         <v>243</v>
       </c>
       <c r="AA66" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AC66" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AD66" s="6" t="s">
         <v>75</v>
@@ -7006,7 +7048,7 @@
     </row>
     <row r="68" spans="1:32" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B68" s="9" t="s">
         <v>247</v>
@@ -7017,10 +7059,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="70" spans="1:32" ht="24" customHeight="1">
@@ -7029,28 +7071,99 @@
       </c>
     </row>
     <row r="71" spans="1:32" ht="24" customHeight="1">
-      <c r="B71" s="11"/>
+      <c r="B71" s="11" t="s">
+        <v>426</v>
+      </c>
       <c r="AA71" s="6" t="s">
         <v>250</v>
       </c>
       <c r="AB71" s="6" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AC71" s="6" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AD71" s="6" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AE71" s="6" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AF71" s="6" t="s">
         <v>75</v>
       </c>
     </row>
+    <row r="72" spans="1:32" ht="24" customHeight="1">
+      <c r="B72" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="AA72" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB72" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC72" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD72" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE72" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF72" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" ht="24" customHeight="1">
+      <c r="B73" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="AA73" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB73" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC73" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD73" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE73" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF73" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" ht="24" customHeight="1">
+      <c r="B74" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="AA74" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB74" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="AC74" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="AD74" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE74" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF74" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="13">
+  <dataValidations count="16">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20">
       <formula1>0</formula1>
     </dataValidation>
@@ -7090,6 +7203,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B71">
       <formula1>AA71:AF71</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B72">
+      <formula1>AA72:AF72</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73">
+      <formula1>AA73:AF73</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74">
+      <formula1>AA74:AF74</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7111,20 +7233,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7135,10 +7257,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -7146,7 +7268,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -7157,10 +7279,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -7173,7 +7295,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>125</v>
@@ -7184,10 +7306,10 @@
         <v>126</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -7195,10 +7317,10 @@
     </row>
     <row r="17" spans="1:29" ht="24" customHeight="1">
       <c r="A17" s="9" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" spans="1:29" ht="24" customHeight="1">
@@ -7206,10 +7328,10 @@
         <v>121</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:29" ht="24" customHeight="1">
@@ -7217,7 +7339,7 @@
     </row>
     <row r="21" spans="1:29" ht="24" customHeight="1">
       <c r="A21" s="9" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>98</v>
@@ -7228,10 +7350,10 @@
         <v>46</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="24" customHeight="1">
@@ -7244,10 +7366,10 @@
     </row>
     <row r="26" spans="1:29" ht="24" customHeight="1">
       <c r="A26" s="9" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27" spans="1:29" ht="24" customHeight="1">
@@ -7255,21 +7377,21 @@
         <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:29" ht="24" customHeight="1">
       <c r="B28" s="11" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="AA28" s="6" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="AB28" s="6" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="AC28" s="6" t="s">
         <v>75</v>
@@ -7277,10 +7399,10 @@
     </row>
     <row r="30" spans="1:29" ht="24" customHeight="1">
       <c r="A30" s="9" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:29" ht="24" customHeight="1">
@@ -7288,10 +7410,10 @@
         <v>67</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:29" ht="24" customHeight="1">
@@ -7301,19 +7423,19 @@
     </row>
     <row r="33" spans="1:39" ht="24" customHeight="1">
       <c r="B33" s="11" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="AB33" s="6" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AC33" s="6" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AE33" s="6" t="s">
         <v>90</v>
@@ -7324,19 +7446,19 @@
     </row>
     <row r="34" spans="1:39" ht="24" customHeight="1">
       <c r="B34" s="11" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="AA34" s="6" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="AB34" s="6" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="AC34" s="6" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AE34" s="6" t="s">
         <v>90</v>
@@ -7347,19 +7469,19 @@
     </row>
     <row r="35" spans="1:39" ht="24" customHeight="1">
       <c r="B35" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="AA35" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="AC35" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="AA35" s="6" t="s">
-        <v>460</v>
-      </c>
-      <c r="AB35" s="6" t="s">
-        <v>461</v>
-      </c>
-      <c r="AC35" s="6" t="s">
-        <v>459</v>
-      </c>
       <c r="AD35" s="6" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="AE35" s="6" t="s">
         <v>90</v>
@@ -7370,10 +7492,10 @@
     </row>
     <row r="37" spans="1:39" ht="24" customHeight="1">
       <c r="A37" s="9" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="38" spans="1:39" ht="24" customHeight="1">
@@ -7381,10 +7503,10 @@
         <v>67</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="39" spans="1:39" ht="24" customHeight="1">
@@ -7395,40 +7517,40 @@
     <row r="40" spans="1:39" ht="24" customHeight="1">
       <c r="B40" s="11"/>
       <c r="AA40" s="6" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="AB40" s="6" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="AC40" s="6" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="AE40" s="6" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="AF40" s="6" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="AH40" s="6" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="AJ40" s="6" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="AK40" s="6" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="AL40" s="6" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="AM40" s="6" t="s">
         <v>75</v>
@@ -7436,10 +7558,10 @@
     </row>
     <row r="42" spans="1:39" ht="24" customHeight="1">
       <c r="A42" s="9" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
     </row>
     <row r="43" spans="1:39" ht="24" customHeight="1">
@@ -7447,24 +7569,24 @@
         <v>67</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
     </row>
     <row r="44" spans="1:39" ht="24" customHeight="1">
       <c r="B44" s="11" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="AA44" s="6" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="AB44" s="6" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="AC44" s="6" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="AD44" s="6" t="s">
         <v>75</v>
@@ -7472,10 +7594,10 @@
     </row>
     <row r="46" spans="1:39" ht="24" customHeight="1">
       <c r="A46" s="9" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
     </row>
     <row r="47" spans="1:39" ht="24" customHeight="1">
@@ -7483,10 +7605,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
     </row>
     <row r="48" spans="1:39" ht="24" customHeight="1">
@@ -7494,10 +7616,10 @@
     </row>
     <row r="50" spans="1:29" ht="24" customHeight="1">
       <c r="A50" s="9" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="51" spans="1:29" ht="24" customHeight="1">
@@ -7505,10 +7627,10 @@
         <v>121</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="52" spans="1:29" ht="24" customHeight="1">
@@ -7518,10 +7640,10 @@
     </row>
     <row r="54" spans="1:29" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="55" spans="1:29" ht="24" customHeight="1">
@@ -7529,21 +7651,21 @@
         <v>67</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="56" spans="1:29" ht="24" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="AA56" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB56" s="6" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="AC56" s="6" t="s">
         <v>75</v>
@@ -7551,10 +7673,10 @@
     </row>
     <row r="58" spans="1:29" ht="24" customHeight="1">
       <c r="A58" s="9" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="59" spans="1:29" ht="24" customHeight="1">
@@ -7562,10 +7684,10 @@
         <v>46</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="60" spans="1:29" ht="24" customHeight="1">
@@ -7578,10 +7700,10 @@
     </row>
     <row r="63" spans="1:29" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="64" spans="1:29" ht="24" customHeight="1">
@@ -7589,24 +7711,24 @@
         <v>67</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="65" spans="1:30" ht="24" customHeight="1">
       <c r="B65" s="11" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="AA65" s="6" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AB65" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AC65" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AD65" s="6" t="s">
         <v>75</v>
@@ -7614,10 +7736,10 @@
     </row>
     <row r="67" spans="1:30" ht="24" customHeight="1">
       <c r="A67" s="9" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
     </row>
     <row r="68" spans="1:30" ht="24" customHeight="1">
@@ -7625,10 +7747,10 @@
         <v>46</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69" spans="1:30" ht="24" customHeight="1">
@@ -7641,10 +7763,10 @@
     </row>
     <row r="72" spans="1:30" ht="24" customHeight="1">
       <c r="A72" s="9" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="73" spans="1:30" ht="24" customHeight="1">
@@ -7652,19 +7774,19 @@
         <v>67</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="74" spans="1:30" ht="24" customHeight="1">
       <c r="B74" s="11"/>
       <c r="AA74" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB74" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AC74" s="6" t="s">
         <v>75</v>
@@ -7672,10 +7794,10 @@
     </row>
     <row r="76" spans="1:30" ht="24" customHeight="1">
       <c r="A76" s="9" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="77" spans="1:30" ht="24" customHeight="1">
@@ -7683,10 +7805,10 @@
         <v>46</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
     </row>
     <row r="78" spans="1:30" ht="24" customHeight="1">
@@ -7699,10 +7821,10 @@
     </row>
     <row r="81" spans="1:32" ht="24" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
     </row>
     <row r="82" spans="1:32" ht="24" customHeight="1">
@@ -7710,19 +7832,19 @@
         <v>67</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
     </row>
     <row r="83" spans="1:32" ht="24" customHeight="1">
       <c r="B83" s="11"/>
       <c r="AA83" s="6" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AB83" s="6" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AC83" s="6" t="s">
         <v>75</v>
@@ -7730,10 +7852,10 @@
     </row>
     <row r="85" spans="1:32" ht="24" customHeight="1">
       <c r="A85" s="9" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="86" spans="1:32" ht="24" customHeight="1">
@@ -7741,10 +7863,10 @@
         <v>46</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="87" spans="1:32" ht="24" customHeight="1">
@@ -7757,10 +7879,10 @@
     </row>
     <row r="90" spans="1:32" ht="24" customHeight="1">
       <c r="A90" s="9" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="91" spans="1:32" ht="24" customHeight="1">
@@ -7768,10 +7890,10 @@
         <v>67</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="92" spans="1:32" ht="24" customHeight="1">
@@ -7781,22 +7903,22 @@
     </row>
     <row r="93" spans="1:32" ht="24" customHeight="1">
       <c r="B93" s="11" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="AA93" s="6" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="AB93" s="6" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="AC93" s="6" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="AD93" s="6" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="AE93" s="6" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="AF93" s="6" t="s">
         <v>75</v>
@@ -7804,22 +7926,22 @@
     </row>
     <row r="94" spans="1:32" ht="24" customHeight="1">
       <c r="B94" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="AA94" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="AB94" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="AC94" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="AD94" s="6" t="s">
         <v>541</v>
       </c>
-      <c r="AA94" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="AB94" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="AC94" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="AD94" s="6" t="s">
-        <v>536</v>
-      </c>
       <c r="AE94" s="6" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="AF94" s="6" t="s">
         <v>75</v>
@@ -7827,22 +7949,22 @@
     </row>
     <row r="95" spans="1:32" ht="24" customHeight="1">
       <c r="B95" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="AA95" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="AA95" s="6" t="s">
-        <v>537</v>
-      </c>
       <c r="AB95" s="6" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="AC95" s="6" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="AD95" s="6" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="AE95" s="6" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="AF95" s="6" t="s">
         <v>75</v>
@@ -7850,10 +7972,10 @@
     </row>
     <row r="97" spans="1:3" ht="24" customHeight="1">
       <c r="A97" s="9" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="24" customHeight="1">
@@ -7861,10 +7983,10 @@
         <v>46</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
@@ -7877,7 +7999,7 @@
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>201</v>
@@ -7888,10 +8010,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -7973,20 +8095,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -7997,10 +8119,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8008,7 +8130,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8019,10 +8141,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8035,7 +8157,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>98</v>
@@ -8046,10 +8168,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8062,10 +8184,10 @@
     </row>
     <row r="18" spans="1:31" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:31" ht="24" customHeight="1">
@@ -8073,10 +8195,10 @@
         <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="1:31" ht="24" customHeight="1">
@@ -8086,10 +8208,10 @@
     </row>
     <row r="22" spans="1:31" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="24" customHeight="1">
@@ -8097,10 +8219,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="24" customHeight="1">
@@ -8110,19 +8232,19 @@
     </row>
     <row r="25" spans="1:31" ht="24" customHeight="1">
       <c r="B25" s="11" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="AE25" s="6" t="s">
         <v>75</v>
@@ -8130,7 +8252,7 @@
     </row>
     <row r="27" spans="1:31" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>348</v>
@@ -8141,10 +8263,10 @@
         <v>67</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
     </row>
     <row r="29" spans="1:31" ht="24" customHeight="1">
@@ -8153,9 +8275,11 @@
       </c>
     </row>
     <row r="30" spans="1:31" ht="24" customHeight="1">
-      <c r="B30" s="11"/>
+      <c r="B30" s="11" t="s">
+        <v>583</v>
+      </c>
       <c r="AA30" s="6" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="AB30" s="6" t="s">
         <v>75</v>
@@ -8193,20 +8317,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
       <c r="A1" s="12" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1">
       <c r="B2" s="13" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>45</v>
@@ -8217,10 +8341,10 @@
         <v>46</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" customHeight="1">
@@ -8228,7 +8352,7 @@
     </row>
     <row r="8" spans="1:3" ht="24" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>56</v>
@@ -8239,10 +8363,10 @@
         <v>46</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="24" customHeight="1">
@@ -8255,7 +8379,7 @@
     </row>
     <row r="13" spans="1:3" ht="24" customHeight="1">
       <c r="A13" s="9" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>98</v>
@@ -8266,10 +8390,10 @@
         <v>46</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="24" customHeight="1">
@@ -8282,7 +8406,7 @@
     </row>
     <row r="18" spans="1:30" ht="24" customHeight="1">
       <c r="A18" s="9" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>125</v>
@@ -8293,10 +8417,10 @@
         <v>126</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="20" spans="1:30" ht="24" customHeight="1">
@@ -8304,10 +8428,10 @@
     </row>
     <row r="22" spans="1:30" ht="24" customHeight="1">
       <c r="A22" s="9" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="23" spans="1:30" ht="24" customHeight="1">
@@ -8315,10 +8439,10 @@
         <v>67</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:30" ht="24" customHeight="1">
@@ -8329,13 +8453,13 @@
     <row r="25" spans="1:30" ht="24" customHeight="1">
       <c r="B25" s="11"/>
       <c r="AA25" s="6" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="AB25" s="6" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="AC25" s="6" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="AD25" s="6" t="s">
         <v>75</v>
@@ -8343,7 +8467,7 @@
     </row>
     <row r="27" spans="1:30" ht="24" customHeight="1">
       <c r="A27" s="9" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>201</v>
@@ -8354,10 +8478,10 @@
         <v>46</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:30" ht="24" customHeight="1">
@@ -8370,23 +8494,23 @@
     </row>
     <row r="33" spans="1:3" ht="24" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="24" customHeight="1">
       <c r="B34" s="13" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="24" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="24" customHeight="1">
@@ -8394,10 +8518,10 @@
         <v>126</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="24" customHeight="1">
@@ -8407,10 +8531,10 @@
     </row>
     <row r="40" spans="1:3" ht="24" customHeight="1">
       <c r="A40" s="9" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="24" customHeight="1">
@@ -8418,10 +8542,10 @@
         <v>46</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="24" customHeight="1">
@@ -8431,15 +8555,15 @@
     </row>
     <row r="43" spans="1:3" ht="24" customHeight="1">
       <c r="B43" s="11" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="24" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="24" customHeight="1">
@@ -8447,10 +8571,10 @@
         <v>46</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>618</v>
+        <v>624</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="24" customHeight="1">
@@ -8463,20 +8587,20 @@
     </row>
     <row r="51" spans="1:3" ht="24" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>620</v>
+        <v>626</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>621</v>
+        <v>627</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="24" customHeight="1">
       <c r="B52" s="13" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="24" customHeight="1">
       <c r="A54" s="9" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>290</v>
@@ -8487,10 +8611,10 @@
         <v>46</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="24" customHeight="1">
@@ -8503,23 +8627,23 @@
     </row>
     <row r="60" spans="1:3" ht="24" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="24" customHeight="1">
       <c r="B61" s="13" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="24" customHeight="1">
       <c r="A63" s="9" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="24" customHeight="1">
@@ -8527,10 +8651,10 @@
         <v>46</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="24" customHeight="1">
@@ -8543,10 +8667,10 @@
     </row>
     <row r="68" spans="1:3" ht="24" customHeight="1">
       <c r="A68" s="9" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="24" customHeight="1">
@@ -8554,10 +8678,10 @@
         <v>46</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="24" customHeight="1">
@@ -8570,20 +8694,20 @@
     </row>
     <row r="74" spans="1:3" ht="24" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="24" customHeight="1">
       <c r="B75" s="13" t="s">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="24" customHeight="1">
       <c r="A77" s="9" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B77" s="9" t="s">
         <v>290</v>
@@ -8594,10 +8718,10 @@
         <v>46</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="24" customHeight="1">
@@ -8610,10 +8734,10 @@
     </row>
     <row r="82" spans="1:31" ht="24" customHeight="1">
       <c r="A82" s="9" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="83" spans="1:31" ht="24" customHeight="1">
@@ -8621,27 +8745,27 @@
         <v>67</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>645</v>
+        <v>651</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
     <row r="84" spans="1:31" ht="24" customHeight="1">
       <c r="B84" s="11" t="s">
-        <v>647</v>
+        <v>653</v>
       </c>
       <c r="AA84" s="6" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="AB84" s="6" t="s">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="AC84" s="6" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="AD84" s="6" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="AE84" s="6" t="s">
         <v>75</v>
@@ -8649,10 +8773,10 @@
     </row>
     <row r="86" spans="1:31" ht="24" customHeight="1">
       <c r="A86" s="9" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="87" spans="1:31" ht="24" customHeight="1">
@@ -8660,27 +8784,27 @@
         <v>67</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
     </row>
     <row r="88" spans="1:31" ht="24" customHeight="1">
       <c r="B88" s="11" t="s">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="AA88" s="6" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="AB88" s="6" t="s">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="AC88" s="6" t="s">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="AD88" s="6" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="AE88" s="6" t="s">
         <v>75</v>
@@ -8688,20 +8812,20 @@
     </row>
     <row r="91" spans="1:31" ht="24" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
     </row>
     <row r="92" spans="1:31" ht="24" customHeight="1">
       <c r="B92" s="13" t="s">
-        <v>663</v>
+        <v>669</v>
       </c>
     </row>
     <row r="94" spans="1:31" ht="24" customHeight="1">
       <c r="A94" s="9" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B94" s="9" t="s">
         <v>290</v>
@@ -8712,10 +8836,10 @@
         <v>46</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="24" customHeight="1">
@@ -8723,20 +8847,20 @@
     </row>
     <row r="99" spans="1:3" ht="24" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="24" customHeight="1">
       <c r="B100" s="13" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="24" customHeight="1">
       <c r="A102" s="9" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B102" s="9" t="s">
         <v>290</v>
@@ -8747,10 +8871,10 @@
         <v>46</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="24" customHeight="1">
@@ -8758,23 +8882,23 @@
     </row>
     <row r="107" spans="1:3" ht="24" customHeight="1">
       <c r="A107" s="12" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="24" customHeight="1">
       <c r="B108" s="13" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="24" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="24" customHeight="1">
@@ -8782,10 +8906,10 @@
         <v>126</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="24" customHeight="1">
@@ -8793,10 +8917,10 @@
     </row>
     <row r="114" spans="1:3" ht="24" customHeight="1">
       <c r="A114" s="9" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="24" customHeight="1">
@@ -8804,10 +8928,10 @@
         <v>46</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="24" customHeight="1">
@@ -8820,10 +8944,10 @@
     </row>
     <row r="119" spans="1:3" ht="24" customHeight="1">
       <c r="A119" s="9" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="24" customHeight="1">
@@ -8831,10 +8955,10 @@
         <v>46</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="24" customHeight="1">
@@ -8847,7 +8971,7 @@
     </row>
     <row r="124" spans="1:3" ht="24" customHeight="1">
       <c r="A124" s="9" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>290</v>
@@ -8858,10 +8982,10 @@
         <v>46</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="24" customHeight="1">
@@ -8874,23 +8998,23 @@
     </row>
     <row r="130" spans="1:3" ht="24" customHeight="1">
       <c r="A130" s="12" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="24" customHeight="1">
       <c r="B131" s="13" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="24" customHeight="1">
       <c r="A133" s="9" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="B133" s="9" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="24" customHeight="1">
@@ -8898,10 +9022,10 @@
         <v>126</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="24" customHeight="1">
@@ -8909,10 +9033,10 @@
     </row>
     <row r="137" spans="1:3" ht="24" customHeight="1">
       <c r="A137" s="9" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B137" s="9" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="24" customHeight="1">
@@ -8920,10 +9044,10 @@
         <v>46</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="24" customHeight="1">
@@ -8933,15 +9057,15 @@
     </row>
     <row r="140" spans="1:3" ht="24" customHeight="1">
       <c r="B140" s="11" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="24" customHeight="1">
       <c r="A142" s="9" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="24" customHeight="1">
@@ -8949,10 +9073,10 @@
         <v>46</v>
       </c>
       <c r="B143" s="10" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="24" customHeight="1">
@@ -8965,7 +9089,7 @@
     </row>
     <row r="147" spans="1:3" ht="24" customHeight="1">
       <c r="A147" s="9" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="B147" s="9" t="s">
         <v>290</v>
@@ -8976,10 +9100,10 @@
         <v>46</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="24" customHeight="1">
@@ -8992,23 +9116,23 @@
     </row>
     <row r="153" spans="1:3" ht="24" customHeight="1">
       <c r="A153" s="12" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="24" customHeight="1">
       <c r="B154" s="13" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="24" customHeight="1">
       <c r="A156" s="9" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="B156" s="9" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="24" customHeight="1">
@@ -9016,10 +9140,10 @@
         <v>121</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="24" customHeight="1">
@@ -9027,10 +9151,10 @@
     </row>
     <row r="160" spans="1:3" ht="24" customHeight="1">
       <c r="A160" s="9" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="B160" s="9" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="24" customHeight="1">
@@ -9038,10 +9162,10 @@
         <v>46</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="24" customHeight="1">
@@ -9054,10 +9178,10 @@
     </row>
     <row r="165" spans="1:3" ht="24" customHeight="1">
       <c r="A165" s="9" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="24" customHeight="1">
@@ -9065,10 +9189,10 @@
         <v>46</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="C166" s="10" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="24" customHeight="1">
@@ -9081,10 +9205,10 @@
     </row>
     <row r="170" spans="1:3" ht="24" customHeight="1">
       <c r="A170" s="9" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="24" customHeight="1">
@@ -9092,10 +9216,10 @@
         <v>46</v>
       </c>
       <c r="B171" s="10" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="C171" s="10" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="24" customHeight="1">
